--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Designed mockup with Josh Ford using Bolsomiq. Set up a meeting with the writing center to review Desktop Vs. Web app proposal. Added meeting minutes for 2-12-15. Created a client meeting folder. Updated README.md to reflect new folder structure. Researched best practices regarding how client/team meetings are conducted. Researched best practices for proposals.</t>
+  </si>
+  <si>
+    <t>Team meeting. Discussed specification document requirements. Discussed questions. Edited team minutes for 2-13-2015</t>
+  </si>
+  <si>
+    <t>Researched specification document templates.</t>
+  </si>
+  <si>
+    <t>Created specification document for group. Edited specification document. Made 4th set of client questions.</t>
   </si>
 </sst>
 </file>
@@ -587,7 +596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -654,7 +665,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>21.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -807,129 +818,150 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>42048</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
+      <c r="G15" s="7">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
+      <c r="A16" s="6">
+        <v>42049</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>42050</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -14630,1967 +14662,6 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -16618,6 +14689,1967 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="240" windowWidth="22995" windowHeight="10545"/>
+    <workbookView xWindow="75" yWindow="-210" windowWidth="22995" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>Created specification document for group. Edited specification document. Made 4th set of client questions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read IEEE specification document guidelines. Read the chapters named 'Requirements Trap' and 'Specification Trap' in the Pragmmatic Programmer book. Edited specifiction document. Added references and acknowledgements, Added user documentation, Defined intended audience, Added overview of document, Added Product Overview, Added application perspective, Added product functionality, Edited References, Added figure which describes format of generated schedules. Created use-case diagram for admin and general user.
+</t>
   </si>
 </sst>
 </file>
@@ -597,7 +601,7 @@
   <dimension ref="A1:I1988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -665,7 +669,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -863,12 +867,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
+    <row r="18" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>42055</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
+      <c r="G18" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
@@ -14662,6 +14674,1967 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -14689,1967 +16662,6 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-210" windowWidth="22995" windowHeight="10545"/>
+    <workbookView xWindow="690" yWindow="-180" windowWidth="17850" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14674,1967 +14674,6 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -16662,6 +14701,1967 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,15 @@
   <si>
     <t xml:space="preserve">Read IEEE specification document guidelines. Read the chapters named 'Requirements Trap' and 'Specification Trap' in the Pragmmatic Programmer book. Edited specifiction document. Added references and acknowledgements, Added user documentation, Defined intended audience, Added overview of document, Added Product Overview, Added application perspective, Added product functionality, Edited References, Added figure which describes format of generated schedules. Created use-case diagram for admin and general user.
 </t>
+  </si>
+  <si>
+    <t>Added agenda. Added notes to spec doc. Added meeting folder for 2-22. Team meeting.</t>
+  </si>
+  <si>
+    <t>Team meeting. Fixed merge conflicts. Updated spec doc. Client meeting.</t>
+  </si>
+  <si>
+    <t>Updated minutes. Added client meeting minutes. Added Java language proposal. Read "Don't Make Me Think" front end designers guide. Updated folder structure. Put all client meeting questions in a single folder for team to access/reference them.</t>
   </si>
 </sst>
 </file>
@@ -600,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -669,7 +678,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -882,26 +891,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
+    <row r="19" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>42058</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
+      <c r="G19" s="7">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
+      <c r="A20" s="6">
+        <v>42059</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
+      <c r="G20" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>42060</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
+      <c r="G21" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -14674,6 +14707,1967 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -14701,1967 +16695,6 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>Updated minutes. Added client meeting minutes. Added Java language proposal. Read "Don't Make Me Think" front end designers guide. Updated folder structure. Put all client meeting questions in a single folder for team to access/reference them.</t>
+  </si>
+  <si>
+    <t>Team meeting at 1:00pm. Worked on specification document.</t>
+  </si>
+  <si>
+    <t>Worked on specification document. Read IEEE Std 830-1998 document. Formatted functional requirements based on user class (A3 template format). Updated section 3 to reflect that of IEEE Std 830-1998 standard.
+Updated font size and font type to be more consistent throughout document.
+Updated Table of Contents to reflect contents of document. Added multiple folders for submission versions of specdoc to client.</t>
   </si>
 </sst>
 </file>
@@ -609,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1988"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -678,7 +686,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -937,18 +945,34 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
+      <c r="A22" s="6">
+        <v>42062</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
+      <c r="G22" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>42063</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
+      <c r="G23" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
@@ -14707,1967 +14731,6 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -16695,6 +14758,1967 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:F24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>47</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -14731,6 +14731,1967 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -14758,1967 +16719,6 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="-180" windowWidth="17850" windowHeight="8610"/>
+    <workbookView xWindow="690" yWindow="-180" windowWidth="17850" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,12 @@
     <t>Worked on specification document. Read IEEE Std 830-1998 document. Formatted functional requirements based on user class (A3 template format). Updated section 3 to reflect that of IEEE Std 830-1998 standard.
 Updated font size and font type to be more consistent throughout document.
 Updated Table of Contents to reflect contents of document. Added multiple folders for submission versions of specdoc to client.</t>
+  </si>
+  <si>
+    <t>2/29/2015</t>
+  </si>
+  <si>
+    <t>Went through Java Scene Builder tutorial. Added standard format to input file. Cleaned document format. Reread specifications requirements chapter in text book for class.</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,7 @@
   <dimension ref="A1:I1988"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -686,7 +692,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>47.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -974,12 +980,20 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
+    <row r="24" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
+      <c r="G24" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
@@ -14731,1967 +14745,6 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -16719,6 +14772,1967 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -93,10 +93,16 @@
 Updated Table of Contents to reflect contents of document. Added multiple folders for submission versions of specdoc to client.</t>
   </si>
   <si>
-    <t>2/29/2015</t>
+    <t>Went through Java Scene Builder tutorial. Added standard format to input file. Cleaned document format. Reread specifications requirements chapter in text book for class.</t>
   </si>
   <si>
-    <t>Went through Java Scene Builder tutorial. Added standard format to input file. Cleaned document format. Reread specifications requirements chapter in text book for class.</t>
+    <t>Updated specdoc 1.4. Added meeting agenda for next meeting. Added first ever draft of specdoc for references.</t>
+  </si>
+  <si>
+    <t>Updated meeting minutes. Updated client questions/answers. Merge fix on git.</t>
+  </si>
+  <si>
+    <t>Read coding standards worksheet. Added time constraint figure. Added draft of programming language proposal. Updated "answers to questions". Edited/updated specdoc.</t>
   </si>
 </sst>
 </file>
@@ -623,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1988"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -692,7 +698,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>49.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -981,11 +987,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>24</v>
+      <c r="A24" s="6">
+        <v>42064</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -995,26 +1001,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
+    <row r="25" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>42065</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
+      <c r="A26" s="6">
+        <v>42066</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="11"/>
+      <c r="G26" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>42068</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
+      <c r="G27" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11"/>
@@ -14745,6 +14775,1967 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -14772,1967 +16763,6 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -112,6 +112,9 @@
   <si>
     <t xml:space="preserve">Team meeting. Updated specdoc sections 2.2 and 2.3. Uploaded Jordan's test files. Collaborated with Riley on coding standards. Updated definitions, acronym, abbreviations in specdoc. Added Screenshots for Version 1 and 2. Updated fonts. Updated references in document to match figures in appendix.
 </t>
+  </si>
+  <si>
+    <t>Went through C# tutorial. Made first C# GUI project. Communicated with Jordan and uploaded his C++ program that generated test files.</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
   <dimension ref="A1:I1988"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -707,7 +710,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>59.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1">
@@ -1055,7 +1058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="74" customHeight="1">
+    <row r="28" spans="1:7" ht="78" customHeight="1">
       <c r="A28" s="6">
         <v>42069</v>
       </c>
@@ -1070,12 +1073,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="11"/>
+    <row r="29" spans="1:7" ht="31" customHeight="1">
+      <c r="A29" s="6">
+        <v>42070</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>29</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
+      <c r="G29" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="11"/>
@@ -14792,6 +14803,1967 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -14819,1967 +16791,6 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -119,6 +119,45 @@
   <si>
     <t>Read Mike Kruger's "C# Coding Style" document. Updated coding standards. Added coding standards to specdoc.</t>
   </si>
+  <si>
+    <t>Team meeting.</t>
+  </si>
+  <si>
+    <t>Fixed TOC in specdoc. Printed specdoc. Team meeting. Helped josh setup visual studio 2013.  Obtained product key from web. Aided in UML diagrams for each function of project as a different name space. Added the diagrams to LucidCharts.</t>
+  </si>
+  <si>
+    <t>Teacher meeting.</t>
+  </si>
+  <si>
+    <t>Cleaned up coding standards. Team meeting.</t>
+  </si>
+  <si>
+    <t>Introduced LucidCharts to team. Distributed out username/pw to team. Created LIFES project folder. Added authentication namespace. Added a .gitignore file.</t>
+  </si>
+  <si>
+    <t>Printed off final version of specdoc. Organized specodoc in binder, separated by tabs. Team meeting. Teacher meeting. Re-added Jordan as collaborator on github.</t>
+  </si>
+  <si>
+    <t>Continued C# tutorial. Read "Pragmatic Programmer"</t>
+  </si>
+  <si>
+    <t>Continued C# tutorial.</t>
+  </si>
+  <si>
+    <t>Added play folder for Josh to have own space to practice C#. Worked with Scott on PDFsharp library that he found. Successfully created a PDF with library.</t>
+  </si>
+  <si>
+    <t>Called everyone on the team to assure everyone knew the group was going to collaborate on project together. Worked with Riley and Scott on PdfSharp. Broke the code when pushing to git. Found the difference between "git revert" and "git reset".</t>
+  </si>
+  <si>
+    <t>Printed most documents in project. Put them into folders. Used HTML to display user manual. Failed attempt. Considering reverting to LaTeX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked with Scott to fix project on github. Correctly reverted changes to repository. Team meeting. </t>
+  </si>
+  <si>
+    <t>Researched transition screens for C#. Reviewed C# tutorial.</t>
+  </si>
 </sst>
 </file>
 
@@ -168,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -278,11 +317,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,6 +415,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -644,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:F31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -713,7 +798,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>65.5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1106,126 +1191,230 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
+    <row r="31" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>42073</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
+      <c r="G31" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
+      <c r="A32" s="6">
+        <v>42075</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
+      <c r="G32" s="7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>42076</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
+      <c r="G33" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>42079</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
+      <c r="G34" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>42082</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>36</v>
+      </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
+      <c r="G35" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>42085</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
+      <c r="G36" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>42086</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>42087</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
+      <c r="G38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>42088</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
+      <c r="G39" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>42090</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
+      <c r="G40" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>42092</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
+      <c r="G41" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>42093</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
+      <c r="G42" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>42094</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -14814,6 +15003,1967 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -14841,1967 +16991,6 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="540" yWindow="-345" windowWidth="19950" windowHeight="8490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -157,6 +157,21 @@
   </si>
   <si>
     <t>Researched transition screens for C#. Reviewed C# tutorial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fixed date on one of the meeting minute folders</t>
+  </si>
+  <si>
+    <t>Fixed some meeting dates, fixed date on minutes. Printed documents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Added maxbinaryheap in c#. Began working on scheduling algorithm. Added meeting minutes 4-7. Worked in Jeffrey's Sandbox: finished priority queue in C#. Worked with Scott and Josh on scheduling algorithm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created class diagrams for class/class list/compressed class list. </t>
+  </si>
+  <si>
+    <t>Researched Welsh-Powell algorithm. Researched</t>
   </si>
 </sst>
 </file>
@@ -393,6 +408,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -415,15 +439,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -729,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:F40"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -746,35 +761,35 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
@@ -786,19 +801,19 @@
       <c r="A4" s="5">
         <v>42025</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="9">
         <v>2.5</v>
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>98</v>
+        <v>100.25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1285,13 +1300,13 @@
       <c r="A37" s="6">
         <v>42086</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="7">
         <v>1</v>
       </c>
@@ -1386,36 +1401,70 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
+    <row r="44" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>42095</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
+      <c r="G44" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
+      <c r="A45" s="6">
+        <v>42096</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
+      <c r="G45" s="7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>42101</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
+      <c r="G46" s="7">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="11"/>
+      <c r="A47" s="6">
+        <v>42102</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
+      <c r="A48" s="6">
+        <v>42103</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -15003,1967 +15052,6 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -16991,6 +15079,1967 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -171,7 +171,16 @@
     <t xml:space="preserve">Created class diagrams for class/class list/compressed class list. </t>
   </si>
   <si>
-    <t>Researched Welsh-Powell algorithm. Researched</t>
+    <t>Researched acedemic papers on Time Table Scheduling. Researched Welsh-Powell algorithm.</t>
+  </si>
+  <si>
+    <t>Discussed research papers on scheduling algorithms with Scott and Josh. Worked with Josh on reviewing acedemic papers on Time Scheduling algorithms, using graph coloring.</t>
+  </si>
+  <si>
+    <t>Implemented matrix library into personal sandbox folder for scheduler. Updated user's manual. Version 1 and Version 2.</t>
+  </si>
+  <si>
+    <t>Worked on user manual. Added screenshots for login screens. Researched user manual's of various commercial products (Service manuals)</t>
   </si>
 </sst>
 </file>
@@ -744,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -813,7 +822,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>100.25</v>
+        <v>109.25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,8 +1466,11 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>42103</v>
       </c>
@@ -1469,113 +1481,137 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
+      <c r="G48" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>42104</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
+      <c r="G49" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>42105</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
+      <c r="G50" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>42107</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -15052,6 +15088,1967 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -15079,1967 +17076,6 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -77,10 +77,6 @@
     <t>Created specification document for group. Edited specification document. Made 4th set of client questions.</t>
   </si>
   <si>
-    <t xml:space="preserve">Read IEEE specification document guidelines. Read the chapters named 'Requirements Trap' and 'Specification Trap' in the Pragmmatic Programmer book. Edited specifiction document. Added references and acknowledgements, Added user documentation, Defined intended audience, Added overview of document, Added Product Overview, Added application perspective, Added product functionality, Edited References, Added figure which describes format of generated schedules. Created use-case diagram for admin and general user.
-</t>
-  </si>
-  <si>
     <t>Added agenda. Added notes to spec doc. Added meeting folder for 2-22. Team meeting.</t>
   </si>
   <si>
@@ -108,10 +104,6 @@
   </si>
   <si>
     <t>Read coding standards worksheet. Added time constraint figure. Added draft of programming language proposal. Updated "answers to questions". Edited/updated specdoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team meeting. Updated specdoc sections 2.2 and 2.3. Uploaded Jordan's test files. Collaborated with Riley on coding standards. Updated definitions, acronym, abbreviations in specdoc. Added Screenshots for Version 1 and 2. Updated fonts. Updated references in document to match figures in appendix.
-</t>
   </si>
   <si>
     <t>Went through C# tutorial. Made first C# GUI project. Communicated with Jordan and uploaded his C++ program that generated test files.</t>
@@ -147,9 +139,6 @@
     <t>Added play folder for Josh to have own space to practice C#. Worked with Scott on PDFsharp library that he found. Successfully created a PDF with library.</t>
   </si>
   <si>
-    <t>Called everyone on the team to assure everyone knew the group was going to collaborate on project together. Worked with Riley and Scott on PdfSharp. Broke the code when pushing to git. Found the difference between "git revert" and "git reset".</t>
-  </si>
-  <si>
     <t>Printed most documents in project. Put them into folders. Used HTML to display user manual. Failed attempt. Considering reverting to LaTeX.</t>
   </si>
   <si>
@@ -177,10 +166,34 @@
     <t>Discussed research papers on scheduling algorithms with Scott and Josh. Worked with Josh on reviewing acedemic papers on Time Scheduling algorithms, using graph coloring.</t>
   </si>
   <si>
-    <t>Implemented matrix library into personal sandbox folder for scheduler. Updated user's manual. Version 1 and Version 2.</t>
+    <t xml:space="preserve">Worked on user manual. Added screenshots for login screens. Researched user manual's of various commercial products (Service manuals). Worked on DataGrid for enrollments file. </t>
   </si>
   <si>
-    <t>Worked on user manual. Added screenshots for login screens. Researched user manual's of various commercial products (Service manuals)</t>
+    <t>Implemented matrix library into personal sandbox folder for scheduler. Updated user's manual. Added Version 1 and Version 2.</t>
+  </si>
+  <si>
+    <t>Team meeting. Successfully converted the user manual from Word Doc to PDF. Researched PDFsharp's library/tools to open user manual within LIFES. Read specdoc, updated list of what needs to be completed. Fixed merge conflict within Github.</t>
+  </si>
+  <si>
+    <t>Created successful conflict matrix. Describes the classes that are conflicting and the number of students shared between both classes. Researched greedy algorithm for graph coloring. Worked on failed attempt #2 at greedy algorithm for compression. Fixed merge conflict. Team meeting and teacher meeting.</t>
+  </si>
+  <si>
+    <t>Started greedy algorithm for compression again. Worked on greedy algorithm for scheduler. Added working greedy graph coloring algorithm for class compression. Discussed with Scott the results. Discussed valid alternatives since it didn't work as planned. Updated UserManual: Added notes. Added flowchart for administrative users. Added meeting minutes. Worked with Riley and went through and created the flow chart for how to’s on usermanual  for administrative activities. Scanned through spec doc during the process to see if all functionality is included within the spec doc. Updated meeting minutes.</t>
+  </si>
+  <si>
+    <t>Team meeting. Discussed presentation with Scott. Discussed Compression algorithm and alternatives. Updated minutes. Updated User manual. Worked with Riley on filling out the "View Enrollments" file. Failed horribley on finding a simple solution for displaying enrollments by groups.</t>
+  </si>
+  <si>
+    <t>Team meeting. Created overview of items left to do. Created meeting schedule for last week of project development. Created list of TODO items by tracing the code to specification document. Worked on user manual. Researched methods of working on detailed design.</t>
+  </si>
+  <si>
+    <t>Read IEEE specification document guidelines. Read the chapters named 'Requirements Trap' and 'Specification Trap' in the Pragmmatic Programmer book. Edited specifiction document. Added references and acknowledgements, Added user documentation, Defined intended audience, Added overview of document, Added Product Overview, Added application perspective, Added product functionality, Edited References, Added figure which describes format of generated schedules. Created use-case diagram for admin and general user.</t>
+  </si>
+  <si>
+    <t>Team meeting. Updated specdoc sections 2.2 and 2.3. Uploaded Jordan's test files. Collaborated with Riley on coding standards. Updated definitions, acronym, abbreviations in specdoc. Added Screenshots for Version 1 and 2. Updated fonts. Updated references in document to match figures in appendix.</t>
+  </si>
+  <si>
+    <t>Called everyone on the team to assure everyone knew the group was going to collaborate on project together. Worked with Riley and Scott on PdfSharp. Broke the code when pushing to git. FOUND DIFFERENCE BETWEEN "git revert" AND "git reset" COMMANDS!!!!!!!!!!</t>
   </si>
 </sst>
 </file>
@@ -753,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -822,7 +835,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>109.25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -960,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>42047</v>
       </c>
@@ -1020,12 +1033,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>42055</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1040,7 +1053,7 @@
         <v>42058</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1055,7 +1068,7 @@
         <v>42059</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1070,7 +1083,7 @@
         <v>42060</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1085,7 +1098,7 @@
         <v>42062</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1100,7 +1113,7 @@
         <v>42063</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1115,7 +1128,7 @@
         <v>42064</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1130,7 +1143,7 @@
         <v>42065</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1145,7 +1158,7 @@
         <v>42066</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1160,7 +1173,7 @@
         <v>42068</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1175,7 +1188,7 @@
         <v>42069</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1190,7 +1203,7 @@
         <v>42070</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1205,7 +1218,7 @@
         <v>42072</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1220,7 +1233,7 @@
         <v>42073</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1235,7 +1248,7 @@
         <v>42075</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1250,7 +1263,7 @@
         <v>42076</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1265,7 +1278,7 @@
         <v>42079</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1280,7 +1293,7 @@
         <v>42082</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1295,7 +1308,7 @@
         <v>42085</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1310,7 +1323,7 @@
         <v>42086</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -1325,7 +1338,7 @@
         <v>42087</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1340,7 +1353,7 @@
         <v>42088</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -1355,7 +1368,7 @@
         <v>42090</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -1370,7 +1383,7 @@
         <v>42092</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -1385,7 +1398,7 @@
         <v>42093</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -1400,7 +1413,7 @@
         <v>42094</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -1415,7 +1428,7 @@
         <v>42095</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -1430,7 +1443,7 @@
         <v>42096</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -1445,7 +1458,7 @@
         <v>42101</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -1460,7 +1473,7 @@
         <v>42102</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -1475,14 +1488,14 @@
         <v>42103</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="7">
-        <v>3</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1490,14 +1503,14 @@
         <v>42104</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" s="7">
-        <v>3</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,7 +1518,7 @@
         <v>42105</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -1515,52 +1528,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>42107</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
+      <c r="G51" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>42108</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="11"/>
+      <c r="G52" s="7">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>42110</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
+      <c r="G53" s="7">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>42114</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="11"/>
+      <c r="G54" s="7">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>42117</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="11"/>
+      <c r="G55" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>42123</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
+      <c r="G56" s="7">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57" s="11"/>
@@ -15088,1967 +15144,6 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
-    <mergeCell ref="B1986:F1986"/>
-    <mergeCell ref="B1987:F1987"/>
-    <mergeCell ref="B1988:F1988"/>
-    <mergeCell ref="B1980:F1980"/>
-    <mergeCell ref="B1981:F1981"/>
-    <mergeCell ref="B1982:F1982"/>
-    <mergeCell ref="B1983:F1983"/>
-    <mergeCell ref="B1984:F1984"/>
-    <mergeCell ref="B1985:F1985"/>
-    <mergeCell ref="B1974:F1974"/>
-    <mergeCell ref="B1975:F1975"/>
-    <mergeCell ref="B1976:F1976"/>
-    <mergeCell ref="B1977:F1977"/>
-    <mergeCell ref="B1978:F1978"/>
-    <mergeCell ref="B1979:F1979"/>
-    <mergeCell ref="B1968:F1968"/>
-    <mergeCell ref="B1969:F1969"/>
-    <mergeCell ref="B1970:F1970"/>
-    <mergeCell ref="B1971:F1971"/>
-    <mergeCell ref="B1972:F1972"/>
-    <mergeCell ref="B1973:F1973"/>
-    <mergeCell ref="B1962:F1962"/>
-    <mergeCell ref="B1963:F1963"/>
-    <mergeCell ref="B1964:F1964"/>
-    <mergeCell ref="B1965:F1965"/>
-    <mergeCell ref="B1966:F1966"/>
-    <mergeCell ref="B1967:F1967"/>
-    <mergeCell ref="B1956:F1956"/>
-    <mergeCell ref="B1957:F1957"/>
-    <mergeCell ref="B1958:F1958"/>
-    <mergeCell ref="B1959:F1959"/>
-    <mergeCell ref="B1960:F1960"/>
-    <mergeCell ref="B1961:F1961"/>
-    <mergeCell ref="B1950:F1950"/>
-    <mergeCell ref="B1951:F1951"/>
-    <mergeCell ref="B1952:F1952"/>
-    <mergeCell ref="B1953:F1953"/>
-    <mergeCell ref="B1954:F1954"/>
-    <mergeCell ref="B1955:F1955"/>
-    <mergeCell ref="B1944:F1944"/>
-    <mergeCell ref="B1945:F1945"/>
-    <mergeCell ref="B1946:F1946"/>
-    <mergeCell ref="B1947:F1947"/>
-    <mergeCell ref="B1948:F1948"/>
-    <mergeCell ref="B1949:F1949"/>
-    <mergeCell ref="B1938:F1938"/>
-    <mergeCell ref="B1939:F1939"/>
-    <mergeCell ref="B1940:F1940"/>
-    <mergeCell ref="B1941:F1941"/>
-    <mergeCell ref="B1942:F1942"/>
-    <mergeCell ref="B1943:F1943"/>
-    <mergeCell ref="B1932:F1932"/>
-    <mergeCell ref="B1933:F1933"/>
-    <mergeCell ref="B1934:F1934"/>
-    <mergeCell ref="B1935:F1935"/>
-    <mergeCell ref="B1936:F1936"/>
-    <mergeCell ref="B1937:F1937"/>
-    <mergeCell ref="B1926:F1926"/>
-    <mergeCell ref="B1927:F1927"/>
-    <mergeCell ref="B1928:F1928"/>
-    <mergeCell ref="B1929:F1929"/>
-    <mergeCell ref="B1930:F1930"/>
-    <mergeCell ref="B1931:F1931"/>
-    <mergeCell ref="B1920:F1920"/>
-    <mergeCell ref="B1921:F1921"/>
-    <mergeCell ref="B1922:F1922"/>
-    <mergeCell ref="B1923:F1923"/>
-    <mergeCell ref="B1924:F1924"/>
-    <mergeCell ref="B1925:F1925"/>
-    <mergeCell ref="B1914:F1914"/>
-    <mergeCell ref="B1915:F1915"/>
-    <mergeCell ref="B1916:F1916"/>
-    <mergeCell ref="B1917:F1917"/>
-    <mergeCell ref="B1918:F1918"/>
-    <mergeCell ref="B1919:F1919"/>
-    <mergeCell ref="B1908:F1908"/>
-    <mergeCell ref="B1909:F1909"/>
-    <mergeCell ref="B1910:F1910"/>
-    <mergeCell ref="B1911:F1911"/>
-    <mergeCell ref="B1912:F1912"/>
-    <mergeCell ref="B1913:F1913"/>
-    <mergeCell ref="B1902:F1902"/>
-    <mergeCell ref="B1903:F1903"/>
-    <mergeCell ref="B1904:F1904"/>
-    <mergeCell ref="B1905:F1905"/>
-    <mergeCell ref="B1906:F1906"/>
-    <mergeCell ref="B1907:F1907"/>
-    <mergeCell ref="B1896:F1896"/>
-    <mergeCell ref="B1897:F1897"/>
-    <mergeCell ref="B1898:F1898"/>
-    <mergeCell ref="B1899:F1899"/>
-    <mergeCell ref="B1900:F1900"/>
-    <mergeCell ref="B1901:F1901"/>
-    <mergeCell ref="B1890:F1890"/>
-    <mergeCell ref="B1891:F1891"/>
-    <mergeCell ref="B1892:F1892"/>
-    <mergeCell ref="B1893:F1893"/>
-    <mergeCell ref="B1894:F1894"/>
-    <mergeCell ref="B1895:F1895"/>
-    <mergeCell ref="B1884:F1884"/>
-    <mergeCell ref="B1885:F1885"/>
-    <mergeCell ref="B1886:F1886"/>
-    <mergeCell ref="B1887:F1887"/>
-    <mergeCell ref="B1888:F1888"/>
-    <mergeCell ref="B1889:F1889"/>
-    <mergeCell ref="B1878:F1878"/>
-    <mergeCell ref="B1879:F1879"/>
-    <mergeCell ref="B1880:F1880"/>
-    <mergeCell ref="B1881:F1881"/>
-    <mergeCell ref="B1882:F1882"/>
-    <mergeCell ref="B1883:F1883"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-    <mergeCell ref="B1863:F1863"/>
-    <mergeCell ref="B1864:F1864"/>
-    <mergeCell ref="B1865:F1865"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -17076,6 +15171,1967 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/WorkLogs/jeffrey_worklog.xlsx
+++ b/Documents/WorkLogs/jeffrey_worklog.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>Called everyone on the team to assure everyone knew the group was going to collaborate on project together. Worked with Riley and Scott on PdfSharp. Broke the code when pushing to git. FOUND DIFFERENCE BETWEEN "git revert" AND "git reset" COMMANDS!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Researched "Software Presentation" tips which included: Flow of subject topics, Team Attire/Dress code and other general topics. Bought document binders and tabs. Researched software devilery standards for Wiley government contract company in Huntsville Alabama.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team meeting. Made a checklist update of specification document. Worked on printing functionality of LIFES and received a "NULL Reference error". Made a note to speak with Scott on the matter. </t>
+  </si>
+  <si>
+    <t>Team meeting. Worked with Riley on saving a schedule. Printed design documents.</t>
   </si>
 </sst>
 </file>
@@ -766,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -835,7 +844,7 @@
       </c>
       <c r="I4" s="1">
         <f>SUM(G4:G1993)</f>
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1618,26 +1627,47 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="11"/>
+    <row r="57" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>42064</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="11"/>
+      <c r="G57" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>42065</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="11"/>
+      <c r="A59" s="6">
+        <v>42066</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
+      <c r="G59" s="7">
+        <v>7</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60" s="11"/>
@@ -15144,6 +15174,1967 @@
     </row>
   </sheetData>
   <mergeCells count="1988">
+    <mergeCell ref="B1986:F1986"/>
+    <mergeCell ref="B1987:F1987"/>
+    <mergeCell ref="B1988:F1988"/>
+    <mergeCell ref="B1980:F1980"/>
+    <mergeCell ref="B1981:F1981"/>
+    <mergeCell ref="B1982:F1982"/>
+    <mergeCell ref="B1983:F1983"/>
+    <mergeCell ref="B1984:F1984"/>
+    <mergeCell ref="B1985:F1985"/>
+    <mergeCell ref="B1974:F1974"/>
+    <mergeCell ref="B1975:F1975"/>
+    <mergeCell ref="B1976:F1976"/>
+    <mergeCell ref="B1977:F1977"/>
+    <mergeCell ref="B1978:F1978"/>
+    <mergeCell ref="B1979:F1979"/>
+    <mergeCell ref="B1968:F1968"/>
+    <mergeCell ref="B1969:F1969"/>
+    <mergeCell ref="B1970:F1970"/>
+    <mergeCell ref="B1971:F1971"/>
+    <mergeCell ref="B1972:F1972"/>
+    <mergeCell ref="B1973:F1973"/>
+    <mergeCell ref="B1962:F1962"/>
+    <mergeCell ref="B1963:F1963"/>
+    <mergeCell ref="B1964:F1964"/>
+    <mergeCell ref="B1965:F1965"/>
+    <mergeCell ref="B1966:F1966"/>
+    <mergeCell ref="B1967:F1967"/>
+    <mergeCell ref="B1956:F1956"/>
+    <mergeCell ref="B1957:F1957"/>
+    <mergeCell ref="B1958:F1958"/>
+    <mergeCell ref="B1959:F1959"/>
+    <mergeCell ref="B1960:F1960"/>
+    <mergeCell ref="B1961:F1961"/>
+    <mergeCell ref="B1950:F1950"/>
+    <mergeCell ref="B1951:F1951"/>
+    <mergeCell ref="B1952:F1952"/>
+    <mergeCell ref="B1953:F1953"/>
+    <mergeCell ref="B1954:F1954"/>
+    <mergeCell ref="B1955:F1955"/>
+    <mergeCell ref="B1944:F1944"/>
+    <mergeCell ref="B1945:F1945"/>
+    <mergeCell ref="B1946:F1946"/>
+    <mergeCell ref="B1947:F1947"/>
+    <mergeCell ref="B1948:F1948"/>
+    <mergeCell ref="B1949:F1949"/>
+    <mergeCell ref="B1938:F1938"/>
+    <mergeCell ref="B1939:F1939"/>
+    <mergeCell ref="B1940:F1940"/>
+    <mergeCell ref="B1941:F1941"/>
+    <mergeCell ref="B1942:F1942"/>
+    <mergeCell ref="B1943:F1943"/>
+    <mergeCell ref="B1932:F1932"/>
+    <mergeCell ref="B1933:F1933"/>
+    <mergeCell ref="B1934:F1934"/>
+    <mergeCell ref="B1935:F1935"/>
+    <mergeCell ref="B1936:F1936"/>
+    <mergeCell ref="B1937:F1937"/>
+    <mergeCell ref="B1926:F1926"/>
+    <mergeCell ref="B1927:F1927"/>
+    <mergeCell ref="B1928:F1928"/>
+    <mergeCell ref="B1929:F1929"/>
+    <mergeCell ref="B1930:F1930"/>
+    <mergeCell ref="B1931:F1931"/>
+    <mergeCell ref="B1920:F1920"/>
+    <mergeCell ref="B1921:F1921"/>
+    <mergeCell ref="B1922:F1922"/>
+    <mergeCell ref="B1923:F1923"/>
+    <mergeCell ref="B1924:F1924"/>
+    <mergeCell ref="B1925:F1925"/>
+    <mergeCell ref="B1914:F1914"/>
+    <mergeCell ref="B1915:F1915"/>
+    <mergeCell ref="B1916:F1916"/>
+    <mergeCell ref="B1917:F1917"/>
+    <mergeCell ref="B1918:F1918"/>
+    <mergeCell ref="B1919:F1919"/>
+    <mergeCell ref="B1908:F1908"/>
+    <mergeCell ref="B1909:F1909"/>
+    <mergeCell ref="B1910:F1910"/>
+    <mergeCell ref="B1911:F1911"/>
+    <mergeCell ref="B1912:F1912"/>
+    <mergeCell ref="B1913:F1913"/>
+    <mergeCell ref="B1902:F1902"/>
+    <mergeCell ref="B1903:F1903"/>
+    <mergeCell ref="B1904:F1904"/>
+    <mergeCell ref="B1905:F1905"/>
+    <mergeCell ref="B1906:F1906"/>
+    <mergeCell ref="B1907:F1907"/>
+    <mergeCell ref="B1896:F1896"/>
+    <mergeCell ref="B1897:F1897"/>
+    <mergeCell ref="B1898:F1898"/>
+    <mergeCell ref="B1899:F1899"/>
+    <mergeCell ref="B1900:F1900"/>
+    <mergeCell ref="B1901:F1901"/>
+    <mergeCell ref="B1890:F1890"/>
+    <mergeCell ref="B1891:F1891"/>
+    <mergeCell ref="B1892:F1892"/>
+    <mergeCell ref="B1893:F1893"/>
+    <mergeCell ref="B1894:F1894"/>
+    <mergeCell ref="B1895:F1895"/>
+    <mergeCell ref="B1884:F1884"/>
+    <mergeCell ref="B1885:F1885"/>
+    <mergeCell ref="B1886:F1886"/>
+    <mergeCell ref="B1887:F1887"/>
+    <mergeCell ref="B1888:F1888"/>
+    <mergeCell ref="B1889:F1889"/>
+    <mergeCell ref="B1878:F1878"/>
+    <mergeCell ref="B1879:F1879"/>
+    <mergeCell ref="B1880:F1880"/>
+    <mergeCell ref="B1881:F1881"/>
+    <mergeCell ref="B1882:F1882"/>
+    <mergeCell ref="B1883:F1883"/>
+    <mergeCell ref="B1872:F1872"/>
+    <mergeCell ref="B1873:F1873"/>
+    <mergeCell ref="B1874:F1874"/>
+    <mergeCell ref="B1875:F1875"/>
+    <mergeCell ref="B1876:F1876"/>
+    <mergeCell ref="B1877:F1877"/>
+    <mergeCell ref="B1866:F1866"/>
+    <mergeCell ref="B1867:F1867"/>
+    <mergeCell ref="B1868:F1868"/>
+    <mergeCell ref="B1869:F1869"/>
+    <mergeCell ref="B1870:F1870"/>
+    <mergeCell ref="B1871:F1871"/>
+    <mergeCell ref="B1860:F1860"/>
+    <mergeCell ref="B1861:F1861"/>
+    <mergeCell ref="B1862:F1862"/>
+    <mergeCell ref="B1863:F1863"/>
+    <mergeCell ref="B1864:F1864"/>
+    <mergeCell ref="B1865:F1865"/>
+    <mergeCell ref="B1854:F1854"/>
+    <mergeCell ref="B1855:F1855"/>
+    <mergeCell ref="B1856:F1856"/>
+    <mergeCell ref="B1857:F1857"/>
+    <mergeCell ref="B1858:F1858"/>
+    <mergeCell ref="B1859:F1859"/>
+    <mergeCell ref="B1848:F1848"/>
+    <mergeCell ref="B1849:F1849"/>
+    <mergeCell ref="B1850:F1850"/>
+    <mergeCell ref="B1851:F1851"/>
+    <mergeCell ref="B1852:F1852"/>
+    <mergeCell ref="B1853:F1853"/>
+    <mergeCell ref="B1842:F1842"/>
+    <mergeCell ref="B1843:F1843"/>
+    <mergeCell ref="B1844:F1844"/>
+    <mergeCell ref="B1845:F1845"/>
+    <mergeCell ref="B1846:F1846"/>
+    <mergeCell ref="B1847:F1847"/>
+    <mergeCell ref="B1836:F1836"/>
+    <mergeCell ref="B1837:F1837"/>
+    <mergeCell ref="B1838:F1838"/>
+    <mergeCell ref="B1839:F1839"/>
+    <mergeCell ref="B1840:F1840"/>
+    <mergeCell ref="B1841:F1841"/>
+    <mergeCell ref="B1830:F1830"/>
+    <mergeCell ref="B1831:F1831"/>
+    <mergeCell ref="B1832:F1832"/>
+    <mergeCell ref="B1833:F1833"/>
+    <mergeCell ref="B1834:F1834"/>
+    <mergeCell ref="B1835:F1835"/>
+    <mergeCell ref="B1824:F1824"/>
+    <mergeCell ref="B1825:F1825"/>
+    <mergeCell ref="B1826:F1826"/>
+    <mergeCell ref="B1827:F1827"/>
+    <mergeCell ref="B1828:F1828"/>
+    <mergeCell ref="B1829:F1829"/>
+    <mergeCell ref="B1818:F1818"/>
+    <mergeCell ref="B1819:F1819"/>
+    <mergeCell ref="B1820:F1820"/>
+    <mergeCell ref="B1821:F1821"/>
+    <mergeCell ref="B1822:F1822"/>
+    <mergeCell ref="B1823:F1823"/>
+    <mergeCell ref="B1812:F1812"/>
+    <mergeCell ref="B1813:F1813"/>
+    <mergeCell ref="B1814:F1814"/>
+    <mergeCell ref="B1815:F1815"/>
+    <mergeCell ref="B1816:F1816"/>
+    <mergeCell ref="B1817:F1817"/>
+    <mergeCell ref="B1806:F1806"/>
+    <mergeCell ref="B1807:F1807"/>
+    <mergeCell ref="B1808:F1808"/>
+    <mergeCell ref="B1809:F1809"/>
+    <mergeCell ref="B1810:F1810"/>
+    <mergeCell ref="B1811:F1811"/>
+    <mergeCell ref="B1800:F1800"/>
+    <mergeCell ref="B1801:F1801"/>
+    <mergeCell ref="B1802:F1802"/>
+    <mergeCell ref="B1803:F1803"/>
+    <mergeCell ref="B1804:F1804"/>
+    <mergeCell ref="B1805:F1805"/>
+    <mergeCell ref="B1794:F1794"/>
+    <mergeCell ref="B1795:F1795"/>
+    <mergeCell ref="B1796:F1796"/>
+    <mergeCell ref="B1797:F1797"/>
+    <mergeCell ref="B1798:F1798"/>
+    <mergeCell ref="B1799:F1799"/>
+    <mergeCell ref="B1788:F1788"/>
+    <mergeCell ref="B1789:F1789"/>
+    <mergeCell ref="B1790:F1790"/>
+    <mergeCell ref="B1791:F1791"/>
+    <mergeCell ref="B1792:F1792"/>
+    <mergeCell ref="B1793:F1793"/>
+    <mergeCell ref="B1782:F1782"/>
+    <mergeCell ref="B1783:F1783"/>
+    <mergeCell ref="B1784:F1784"/>
+    <mergeCell ref="B1785:F1785"/>
+    <mergeCell ref="B1786:F1786"/>
+    <mergeCell ref="B1787:F1787"/>
+    <mergeCell ref="B1776:F1776"/>
+    <mergeCell ref="B1777:F1777"/>
+    <mergeCell ref="B1778:F1778"/>
+    <mergeCell ref="B1779:F1779"/>
+    <mergeCell ref="B1780:F1780"/>
+    <mergeCell ref="B1781:F1781"/>
+    <mergeCell ref="B1770:F1770"/>
+    <mergeCell ref="B1771:F1771"/>
+    <mergeCell ref="B1772:F1772"/>
+    <mergeCell ref="B1773:F1773"/>
+    <mergeCell ref="B1774:F1774"/>
+    <mergeCell ref="B1775:F1775"/>
+    <mergeCell ref="B1764:F1764"/>
+    <mergeCell ref="B1765:F1765"/>
+    <mergeCell ref="B1766:F1766"/>
+    <mergeCell ref="B1767:F1767"/>
+    <mergeCell ref="B1768:F1768"/>
+    <mergeCell ref="B1769:F1769"/>
+    <mergeCell ref="B1758:F1758"/>
+    <mergeCell ref="B1759:F1759"/>
+    <mergeCell ref="B1760:F1760"/>
+    <mergeCell ref="B1761:F1761"/>
+    <mergeCell ref="B1762:F1762"/>
+    <mergeCell ref="B1763:F1763"/>
+    <mergeCell ref="B1752:F1752"/>
+    <mergeCell ref="B1753:F1753"/>
+    <mergeCell ref="B1754:F1754"/>
+    <mergeCell ref="B1755:F1755"/>
+    <mergeCell ref="B1756:F1756"/>
+    <mergeCell ref="B1757:F1757"/>
+    <mergeCell ref="B1746:F1746"/>
+    <mergeCell ref="B1747:F1747"/>
+    <mergeCell ref="B1748:F1748"/>
+    <mergeCell ref="B1749:F1749"/>
+    <mergeCell ref="B1750:F1750"/>
+    <mergeCell ref="B1751:F1751"/>
+    <mergeCell ref="B1740:F1740"/>
+    <mergeCell ref="B1741:F1741"/>
+    <mergeCell ref="B1742:F1742"/>
+    <mergeCell ref="B1743:F1743"/>
+    <mergeCell ref="B1744:F1744"/>
+    <mergeCell ref="B1745:F1745"/>
+    <mergeCell ref="B1734:F1734"/>
+    <mergeCell ref="B1735:F1735"/>
+    <mergeCell ref="B1736:F1736"/>
+    <mergeCell ref="B1737:F1737"/>
+    <mergeCell ref="B1738:F1738"/>
+    <mergeCell ref="B1739:F1739"/>
+    <mergeCell ref="B1728:F1728"/>
+    <mergeCell ref="B1729:F1729"/>
+    <mergeCell ref="B1730:F1730"/>
+    <mergeCell ref="B1731:F1731"/>
+    <mergeCell ref="B1732:F1732"/>
+    <mergeCell ref="B1733:F1733"/>
+    <mergeCell ref="B1722:F1722"/>
+    <mergeCell ref="B1723:F1723"/>
+    <mergeCell ref="B1724:F1724"/>
+    <mergeCell ref="B1725:F1725"/>
+    <mergeCell ref="B1726:F1726"/>
+    <mergeCell ref="B1727:F1727"/>
+    <mergeCell ref="B1716:F1716"/>
+    <mergeCell ref="B1717:F1717"/>
+    <mergeCell ref="B1718:F1718"/>
+    <mergeCell ref="B1719:F1719"/>
+    <mergeCell ref="B1720:F1720"/>
+    <mergeCell ref="B1721:F1721"/>
+    <mergeCell ref="B1710:F1710"/>
+    <mergeCell ref="B1711:F1711"/>
+    <mergeCell ref="B1712:F1712"/>
+    <mergeCell ref="B1713:F1713"/>
+    <mergeCell ref="B1714:F1714"/>
+    <mergeCell ref="B1715:F1715"/>
+    <mergeCell ref="B1704:F1704"/>
+    <mergeCell ref="B1705:F1705"/>
+    <mergeCell ref="B1706:F1706"/>
+    <mergeCell ref="B1707:F1707"/>
+    <mergeCell ref="B1708:F1708"/>
+    <mergeCell ref="B1709:F1709"/>
+    <mergeCell ref="B1698:F1698"/>
+    <mergeCell ref="B1699:F1699"/>
+    <mergeCell ref="B1700:F1700"/>
+    <mergeCell ref="B1701:F1701"/>
+    <mergeCell ref="B1702:F1702"/>
+    <mergeCell ref="B1703:F1703"/>
+    <mergeCell ref="B1692:F1692"/>
+    <mergeCell ref="B1693:F1693"/>
+    <mergeCell ref="B1694:F1694"/>
+    <mergeCell ref="B1695:F1695"/>
+    <mergeCell ref="B1696:F1696"/>
+    <mergeCell ref="B1697:F1697"/>
+    <mergeCell ref="B1686:F1686"/>
+    <mergeCell ref="B1687:F1687"/>
+    <mergeCell ref="B1688:F1688"/>
+    <mergeCell ref="B1689:F1689"/>
+    <mergeCell ref="B1690:F1690"/>
+    <mergeCell ref="B1691:F1691"/>
+    <mergeCell ref="B1680:F1680"/>
+    <mergeCell ref="B1681:F1681"/>
+    <mergeCell ref="B1682:F1682"/>
+    <mergeCell ref="B1683:F1683"/>
+    <mergeCell ref="B1684:F1684"/>
+    <mergeCell ref="B1685:F1685"/>
+    <mergeCell ref="B1674:F1674"/>
+    <mergeCell ref="B1675:F1675"/>
+    <mergeCell ref="B1676:F1676"/>
+    <mergeCell ref="B1677:F1677"/>
+    <mergeCell ref="B1678:F1678"/>
+    <mergeCell ref="B1679:F1679"/>
+    <mergeCell ref="B1668:F1668"/>
+    <mergeCell ref="B1669:F1669"/>
+    <mergeCell ref="B1670:F1670"/>
+    <mergeCell ref="B1671:F1671"/>
+    <mergeCell ref="B1672:F1672"/>
+    <mergeCell ref="B1673:F1673"/>
+    <mergeCell ref="B1662:F1662"/>
+    <mergeCell ref="B1663:F1663"/>
+    <mergeCell ref="B1664:F1664"/>
+    <mergeCell ref="B1665:F1665"/>
+    <mergeCell ref="B1666:F1666"/>
+    <mergeCell ref="B1667:F1667"/>
+    <mergeCell ref="B1656:F1656"/>
+    <mergeCell ref="B1657:F1657"/>
+    <mergeCell ref="B1658:F1658"/>
+    <mergeCell ref="B1659:F1659"/>
+    <mergeCell ref="B1660:F1660"/>
+    <mergeCell ref="B1661:F1661"/>
+    <mergeCell ref="B1650:F1650"/>
+    <mergeCell ref="B1651:F1651"/>
+    <mergeCell ref="B1652:F1652"/>
+    <mergeCell ref="B1653:F1653"/>
+    <mergeCell ref="B1654:F1654"/>
+    <mergeCell ref="B1655:F1655"/>
+    <mergeCell ref="B1644:F1644"/>
+    <mergeCell ref="B1645:F1645"/>
+    <mergeCell ref="B1646:F1646"/>
+    <mergeCell ref="B1647:F1647"/>
+    <mergeCell ref="B1648:F1648"/>
+    <mergeCell ref="B1649:F1649"/>
+    <mergeCell ref="B1638:F1638"/>
+    <mergeCell ref="B1639:F1639"/>
+    <mergeCell ref="B1640:F1640"/>
+    <mergeCell ref="B1641:F1641"/>
+    <mergeCell ref="B1642:F1642"/>
+    <mergeCell ref="B1643:F1643"/>
+    <mergeCell ref="B1632:F1632"/>
+    <mergeCell ref="B1633:F1633"/>
+    <mergeCell ref="B1634:F1634"/>
+    <mergeCell ref="B1635:F1635"/>
+    <mergeCell ref="B1636:F1636"/>
+    <mergeCell ref="B1637:F1637"/>
+    <mergeCell ref="B1626:F1626"/>
+    <mergeCell ref="B1627:F1627"/>
+    <mergeCell ref="B1628:F1628"/>
+    <mergeCell ref="B1629:F1629"/>
+    <mergeCell ref="B1630:F1630"/>
+    <mergeCell ref="B1631:F1631"/>
+    <mergeCell ref="B1620:F1620"/>
+    <mergeCell ref="B1621:F1621"/>
+    <mergeCell ref="B1622:F1622"/>
+    <mergeCell ref="B1623:F1623"/>
+    <mergeCell ref="B1624:F1624"/>
+    <mergeCell ref="B1625:F1625"/>
+    <mergeCell ref="B1614:F1614"/>
+    <mergeCell ref="B1615:F1615"/>
+    <mergeCell ref="B1616:F1616"/>
+    <mergeCell ref="B1617:F1617"/>
+    <mergeCell ref="B1618:F1618"/>
+    <mergeCell ref="B1619:F1619"/>
+    <mergeCell ref="B1608:F1608"/>
+    <mergeCell ref="B1609:F1609"/>
+    <mergeCell ref="B1610:F1610"/>
+    <mergeCell ref="B1611:F1611"/>
+    <mergeCell ref="B1612:F1612"/>
+    <mergeCell ref="B1613:F1613"/>
+    <mergeCell ref="B1602:F1602"/>
+    <mergeCell ref="B1603:F1603"/>
+    <mergeCell ref="B1604:F1604"/>
+    <mergeCell ref="B1605:F1605"/>
+    <mergeCell ref="B1606:F1606"/>
+    <mergeCell ref="B1607:F1607"/>
+    <mergeCell ref="B1596:F1596"/>
+    <mergeCell ref="B1597:F1597"/>
+    <mergeCell ref="B1598:F1598"/>
+    <mergeCell ref="B1599:F1599"/>
+    <mergeCell ref="B1600:F1600"/>
+    <mergeCell ref="B1601:F1601"/>
+    <mergeCell ref="B1590:F1590"/>
+    <mergeCell ref="B1591:F1591"/>
+    <mergeCell ref="B1592:F1592"/>
+    <mergeCell ref="B1593:F1593"/>
+    <mergeCell ref="B1594:F1594"/>
+    <mergeCell ref="B1595:F1595"/>
+    <mergeCell ref="B1584:F1584"/>
+    <mergeCell ref="B1585:F1585"/>
+    <mergeCell ref="B1586:F1586"/>
+    <mergeCell ref="B1587:F1587"/>
+    <mergeCell ref="B1588:F1588"/>
+    <mergeCell ref="B1589:F1589"/>
+    <mergeCell ref="B1578:F1578"/>
+    <mergeCell ref="B1579:F1579"/>
+    <mergeCell ref="B1580:F1580"/>
+    <mergeCell ref="B1581:F1581"/>
+    <mergeCell ref="B1582:F1582"/>
+    <mergeCell ref="B1583:F1583"/>
+    <mergeCell ref="B1572:F1572"/>
+    <mergeCell ref="B1573:F1573"/>
+    <mergeCell ref="B1574:F1574"/>
+    <mergeCell ref="B1575:F1575"/>
+    <mergeCell ref="B1576:F1576"/>
+    <mergeCell ref="B1577:F1577"/>
+    <mergeCell ref="B1566:F1566"/>
+    <mergeCell ref="B1567:F1567"/>
+    <mergeCell ref="B1568:F1568"/>
+    <mergeCell ref="B1569:F1569"/>
+    <mergeCell ref="B1570:F1570"/>
+    <mergeCell ref="B1571:F1571"/>
+    <mergeCell ref="B1560:F1560"/>
+    <mergeCell ref="B1561:F1561"/>
+    <mergeCell ref="B1562:F1562"/>
+    <mergeCell ref="B1563:F1563"/>
+    <mergeCell ref="B1564:F1564"/>
+    <mergeCell ref="B1565:F1565"/>
+    <mergeCell ref="B1554:F1554"/>
+    <mergeCell ref="B1555:F1555"/>
+    <mergeCell ref="B1556:F1556"/>
+    <mergeCell ref="B1557:F1557"/>
+    <mergeCell ref="B1558:F1558"/>
+    <mergeCell ref="B1559:F1559"/>
+    <mergeCell ref="B1548:F1548"/>
+    <mergeCell ref="B1549:F1549"/>
+    <mergeCell ref="B1550:F1550"/>
+    <mergeCell ref="B1551:F1551"/>
+    <mergeCell ref="B1552:F1552"/>
+    <mergeCell ref="B1553:F1553"/>
+    <mergeCell ref="B1542:F1542"/>
+    <mergeCell ref="B1543:F1543"/>
+    <mergeCell ref="B1544:F1544"/>
+    <mergeCell ref="B1545:F1545"/>
+    <mergeCell ref="B1546:F1546"/>
+    <mergeCell ref="B1547:F1547"/>
+    <mergeCell ref="B1536:F1536"/>
+    <mergeCell ref="B1537:F1537"/>
+    <mergeCell ref="B1538:F1538"/>
+    <mergeCell ref="B1539:F1539"/>
+    <mergeCell ref="B1540:F1540"/>
+    <mergeCell ref="B1541:F1541"/>
+    <mergeCell ref="B1530:F1530"/>
+    <mergeCell ref="B1531:F1531"/>
+    <mergeCell ref="B1532:F1532"/>
+    <mergeCell ref="B1533:F1533"/>
+    <mergeCell ref="B1534:F1534"/>
+    <mergeCell ref="B1535:F1535"/>
+    <mergeCell ref="B1524:F1524"/>
+    <mergeCell ref="B1525:F1525"/>
+    <mergeCell ref="B1526:F1526"/>
+    <mergeCell ref="B1527:F1527"/>
+    <mergeCell ref="B1528:F1528"/>
+    <mergeCell ref="B1529:F1529"/>
+    <mergeCell ref="B1518:F1518"/>
+    <mergeCell ref="B1519:F1519"/>
+    <mergeCell ref="B1520:F1520"/>
+    <mergeCell ref="B1521:F1521"/>
+    <mergeCell ref="B1522:F1522"/>
+    <mergeCell ref="B1523:F1523"/>
+    <mergeCell ref="B1512:F1512"/>
+    <mergeCell ref="B1513:F1513"/>
+    <mergeCell ref="B1514:F1514"/>
+    <mergeCell ref="B1515:F1515"/>
+    <mergeCell ref="B1516:F1516"/>
+    <mergeCell ref="B1517:F1517"/>
+    <mergeCell ref="B1506:F1506"/>
+    <mergeCell ref="B1507:F1507"/>
+    <mergeCell ref="B1508:F1508"/>
+    <mergeCell ref="B1509:F1509"/>
+    <mergeCell ref="B1510:F1510"/>
+    <mergeCell ref="B1511:F1511"/>
+    <mergeCell ref="B1500:F1500"/>
+    <mergeCell ref="B1501:F1501"/>
+    <mergeCell ref="B1502:F1502"/>
+    <mergeCell ref="B1503:F1503"/>
+    <mergeCell ref="B1504:F1504"/>
+    <mergeCell ref="B1505:F1505"/>
+    <mergeCell ref="B1494:F1494"/>
+    <mergeCell ref="B1495:F1495"/>
+    <mergeCell ref="B1496:F1496"/>
+    <mergeCell ref="B1497:F1497"/>
+    <mergeCell ref="B1498:F1498"/>
+    <mergeCell ref="B1499:F1499"/>
+    <mergeCell ref="B1488:F1488"/>
+    <mergeCell ref="B1489:F1489"/>
+    <mergeCell ref="B1490:F1490"/>
+    <mergeCell ref="B1491:F1491"/>
+    <mergeCell ref="B1492:F1492"/>
+    <mergeCell ref="B1493:F1493"/>
+    <mergeCell ref="B1482:F1482"/>
+    <mergeCell ref="B1483:F1483"/>
+    <mergeCell ref="B1484:F1484"/>
+    <mergeCell ref="B1485:F1485"/>
+    <mergeCell ref="B1486:F1486"/>
+    <mergeCell ref="B1487:F1487"/>
+    <mergeCell ref="B1476:F1476"/>
+    <mergeCell ref="B1477:F1477"/>
+    <mergeCell ref="B1478:F1478"/>
+    <mergeCell ref="B1479:F1479"/>
+    <mergeCell ref="B1480:F1480"/>
+    <mergeCell ref="B1481:F1481"/>
+    <mergeCell ref="B1470:F1470"/>
+    <mergeCell ref="B1471:F1471"/>
+    <mergeCell ref="B1472:F1472"/>
+    <mergeCell ref="B1473:F1473"/>
+    <mergeCell ref="B1474:F1474"/>
+    <mergeCell ref="B1475:F1475"/>
+    <mergeCell ref="B1464:F1464"/>
+    <mergeCell ref="B1465:F1465"/>
+    <mergeCell ref="B1466:F1466"/>
+    <mergeCell ref="B1467:F1467"/>
+    <mergeCell ref="B1468:F1468"/>
+    <mergeCell ref="B1469:F1469"/>
+    <mergeCell ref="B1458:F1458"/>
+    <mergeCell ref="B1459:F1459"/>
+    <mergeCell ref="B1460:F1460"/>
+    <mergeCell ref="B1461:F1461"/>
+    <mergeCell ref="B1462:F1462"/>
+    <mergeCell ref="B1463:F1463"/>
+    <mergeCell ref="B1452:F1452"/>
+    <mergeCell ref="B1453:F1453"/>
+    <mergeCell ref="B1454:F1454"/>
+    <mergeCell ref="B1455:F1455"/>
+    <mergeCell ref="B1456:F1456"/>
+    <mergeCell ref="B1457:F1457"/>
+    <mergeCell ref="B1446:F1446"/>
+    <mergeCell ref="B1447:F1447"/>
+    <mergeCell ref="B1448:F1448"/>
+    <mergeCell ref="B1449:F1449"/>
+    <mergeCell ref="B1450:F1450"/>
+    <mergeCell ref="B1451:F1451"/>
+    <mergeCell ref="B1440:F1440"/>
+    <mergeCell ref="B1441:F1441"/>
+    <mergeCell ref="B1442:F1442"/>
+    <mergeCell ref="B1443:F1443"/>
+    <mergeCell ref="B1444:F1444"/>
+    <mergeCell ref="B1445:F1445"/>
+    <mergeCell ref="B1434:F1434"/>
+    <mergeCell ref="B1435:F1435"/>
+    <mergeCell ref="B1436:F1436"/>
+    <mergeCell ref="B1437:F1437"/>
+    <mergeCell ref="B1438:F1438"/>
+    <mergeCell ref="B1439:F1439"/>
+    <mergeCell ref="B1428:F1428"/>
+    <mergeCell ref="B1429:F1429"/>
+    <mergeCell ref="B1430:F1430"/>
+    <mergeCell ref="B1431:F1431"/>
+    <mergeCell ref="B1432:F1432"/>
+    <mergeCell ref="B1433:F1433"/>
+    <mergeCell ref="B1422:F1422"/>
+    <mergeCell ref="B1423:F1423"/>
+    <mergeCell ref="B1424:F1424"/>
+    <mergeCell ref="B1425:F1425"/>
+    <mergeCell ref="B1426:F1426"/>
+    <mergeCell ref="B1427:F1427"/>
+    <mergeCell ref="B1416:F1416"/>
+    <mergeCell ref="B1417:F1417"/>
+    <mergeCell ref="B1418:F1418"/>
+    <mergeCell ref="B1419:F1419"/>
+    <mergeCell ref="B1420:F1420"/>
+    <mergeCell ref="B1421:F1421"/>
+    <mergeCell ref="B1410:F1410"/>
+    <mergeCell ref="B1411:F1411"/>
+    <mergeCell ref="B1412:F1412"/>
+    <mergeCell ref="B1413:F1413"/>
+    <mergeCell ref="B1414:F1414"/>
+    <mergeCell ref="B1415:F1415"/>
+    <mergeCell ref="B1404:F1404"/>
+    <mergeCell ref="B1405:F1405"/>
+    <mergeCell ref="B1406:F1406"/>
+    <mergeCell ref="B1407:F1407"/>
+    <mergeCell ref="B1408:F1408"/>
+    <mergeCell ref="B1409:F1409"/>
+    <mergeCell ref="B1398:F1398"/>
+    <mergeCell ref="B1399:F1399"/>
+    <mergeCell ref="B1400:F1400"/>
+    <mergeCell ref="B1401:F1401"/>
+    <mergeCell ref="B1402:F1402"/>
+    <mergeCell ref="B1403:F1403"/>
+    <mergeCell ref="B1392:F1392"/>
+    <mergeCell ref="B1393:F1393"/>
+    <mergeCell ref="B1394:F1394"/>
+    <mergeCell ref="B1395:F1395"/>
+    <mergeCell ref="B1396:F1396"/>
+    <mergeCell ref="B1397:F1397"/>
+    <mergeCell ref="B1386:F1386"/>
+    <mergeCell ref="B1387:F1387"/>
+    <mergeCell ref="B1388:F1388"/>
+    <mergeCell ref="B1389:F1389"/>
+    <mergeCell ref="B1390:F1390"/>
+    <mergeCell ref="B1391:F1391"/>
+    <mergeCell ref="B1380:F1380"/>
+    <mergeCell ref="B1381:F1381"/>
+    <mergeCell ref="B1382:F1382"/>
+    <mergeCell ref="B1383:F1383"/>
+    <mergeCell ref="B1384:F1384"/>
+    <mergeCell ref="B1385:F1385"/>
+    <mergeCell ref="B1374:F1374"/>
+    <mergeCell ref="B1375:F1375"/>
+    <mergeCell ref="B1376:F1376"/>
+    <mergeCell ref="B1377:F1377"/>
+    <mergeCell ref="B1378:F1378"/>
+    <mergeCell ref="B1379:F1379"/>
+    <mergeCell ref="B1368:F1368"/>
+    <mergeCell ref="B1369:F1369"/>
+    <mergeCell ref="B1370:F1370"/>
+    <mergeCell ref="B1371:F1371"/>
+    <mergeCell ref="B1372:F1372"/>
+    <mergeCell ref="B1373:F1373"/>
+    <mergeCell ref="B1362:F1362"/>
+    <mergeCell ref="B1363:F1363"/>
+    <mergeCell ref="B1364:F1364"/>
+    <mergeCell ref="B1365:F1365"/>
+    <mergeCell ref="B1366:F1366"/>
+    <mergeCell ref="B1367:F1367"/>
+    <mergeCell ref="B1356:F1356"/>
+    <mergeCell ref="B1357:F1357"/>
+    <mergeCell ref="B1358:F1358"/>
+    <mergeCell ref="B1359:F1359"/>
+    <mergeCell ref="B1360:F1360"/>
+    <mergeCell ref="B1361:F1361"/>
+    <mergeCell ref="B1350:F1350"/>
+    <mergeCell ref="B1351:F1351"/>
+    <mergeCell ref="B1352:F1352"/>
+    <mergeCell ref="B1353:F1353"/>
+    <mergeCell ref="B1354:F1354"/>
+    <mergeCell ref="B1355:F1355"/>
+    <mergeCell ref="B1344:F1344"/>
+    <mergeCell ref="B1345:F1345"/>
+    <mergeCell ref="B1346:F1346"/>
+    <mergeCell ref="B1347:F1347"/>
+    <mergeCell ref="B1348:F1348"/>
+    <mergeCell ref="B1349:F1349"/>
+    <mergeCell ref="B1338:F1338"/>
+    <mergeCell ref="B1339:F1339"/>
+    <mergeCell ref="B1340:F1340"/>
+    <mergeCell ref="B1341:F1341"/>
+    <mergeCell ref="B1342:F1342"/>
+    <mergeCell ref="B1343:F1343"/>
+    <mergeCell ref="B1332:F1332"/>
+    <mergeCell ref="B1333:F1333"/>
+    <mergeCell ref="B1334:F1334"/>
+    <mergeCell ref="B1335:F1335"/>
+    <mergeCell ref="B1336:F1336"/>
+    <mergeCell ref="B1337:F1337"/>
+    <mergeCell ref="B1326:F1326"/>
+    <mergeCell ref="B1327:F1327"/>
+    <mergeCell ref="B1328:F1328"/>
+    <mergeCell ref="B1329:F1329"/>
+    <mergeCell ref="B1330:F1330"/>
+    <mergeCell ref="B1331:F1331"/>
+    <mergeCell ref="B1320:F1320"/>
+    <mergeCell ref="B1321:F1321"/>
+    <mergeCell ref="B1322:F1322"/>
+    <mergeCell ref="B1323:F1323"/>
+    <mergeCell ref="B1324:F1324"/>
+    <mergeCell ref="B1325:F1325"/>
+    <mergeCell ref="B1314:F1314"/>
+    <mergeCell ref="B1315:F1315"/>
+    <mergeCell ref="B1316:F1316"/>
+    <mergeCell ref="B1317:F1317"/>
+    <mergeCell ref="B1318:F1318"/>
+    <mergeCell ref="B1319:F1319"/>
+    <mergeCell ref="B1308:F1308"/>
+    <mergeCell ref="B1309:F1309"/>
+    <mergeCell ref="B1310:F1310"/>
+    <mergeCell ref="B1311:F1311"/>
+    <mergeCell ref="B1312:F1312"/>
+    <mergeCell ref="B1313:F1313"/>
+    <mergeCell ref="B1302:F1302"/>
+    <mergeCell ref="B1303:F1303"/>
+    <mergeCell ref="B1304:F1304"/>
+    <mergeCell ref="B1305:F1305"/>
+    <mergeCell ref="B1306:F1306"/>
+    <mergeCell ref="B1307:F1307"/>
+    <mergeCell ref="B1296:F1296"/>
+    <mergeCell ref="B1297:F1297"/>
+    <mergeCell ref="B1298:F1298"/>
+    <mergeCell ref="B1299:F1299"/>
+    <mergeCell ref="B1300:F1300"/>
+    <mergeCell ref="B1301:F1301"/>
+    <mergeCell ref="B1290:F1290"/>
+    <mergeCell ref="B1291:F1291"/>
+    <mergeCell ref="B1292:F1292"/>
+    <mergeCell ref="B1293:F1293"/>
+    <mergeCell ref="B1294:F1294"/>
+    <mergeCell ref="B1295:F1295"/>
+    <mergeCell ref="B1284:F1284"/>
+    <mergeCell ref="B1285:F1285"/>
+    <mergeCell ref="B1286:F1286"/>
+    <mergeCell ref="B1287:F1287"/>
+    <mergeCell ref="B1288:F1288"/>
+    <mergeCell ref="B1289:F1289"/>
+    <mergeCell ref="B1278:F1278"/>
+    <mergeCell ref="B1279:F1279"/>
+    <mergeCell ref="B1280:F1280"/>
+    <mergeCell ref="B1281:F1281"/>
+    <mergeCell ref="B1282:F1282"/>
+    <mergeCell ref="B1283:F1283"/>
+    <mergeCell ref="B1272:F1272"/>
+    <mergeCell ref="B1273:F1273"/>
+    <mergeCell ref="B1274:F1274"/>
+    <mergeCell ref="B1275:F1275"/>
+    <mergeCell ref="B1276:F1276"/>
+    <mergeCell ref="B1277:F1277"/>
+    <mergeCell ref="B1266:F1266"/>
+    <mergeCell ref="B1267:F1267"/>
+    <mergeCell ref="B1268:F1268"/>
+    <mergeCell ref="B1269:F1269"/>
+    <mergeCell ref="B1270:F1270"/>
+    <mergeCell ref="B1271:F1271"/>
+    <mergeCell ref="B1260:F1260"/>
+    <mergeCell ref="B1261:F1261"/>
+    <mergeCell ref="B1262:F1262"/>
+    <mergeCell ref="B1263:F1263"/>
+    <mergeCell ref="B1264:F1264"/>
+    <mergeCell ref="B1265:F1265"/>
+    <mergeCell ref="B1254:F1254"/>
+    <mergeCell ref="B1255:F1255"/>
+    <mergeCell ref="B1256:F1256"/>
+    <mergeCell ref="B1257:F1257"/>
+    <mergeCell ref="B1258:F1258"/>
+    <mergeCell ref="B1259:F1259"/>
+    <mergeCell ref="B1248:F1248"/>
+    <mergeCell ref="B1249:F1249"/>
+    <mergeCell ref="B1250:F1250"/>
+    <mergeCell ref="B1251:F1251"/>
+    <mergeCell ref="B1252:F1252"/>
+    <mergeCell ref="B1253:F1253"/>
+    <mergeCell ref="B1242:F1242"/>
+    <mergeCell ref="B1243:F1243"/>
+    <mergeCell ref="B1244:F1244"/>
+    <mergeCell ref="B1245:F1245"/>
+    <mergeCell ref="B1246:F1246"/>
+    <mergeCell ref="B1247:F1247"/>
+    <mergeCell ref="B1236:F1236"/>
+    <mergeCell ref="B1237:F1237"/>
+    <mergeCell ref="B1238:F1238"/>
+    <mergeCell ref="B1239:F1239"/>
+    <mergeCell ref="B1240:F1240"/>
+    <mergeCell ref="B1241:F1241"/>
+    <mergeCell ref="B1230:F1230"/>
+    <mergeCell ref="B1231:F1231"/>
+    <mergeCell ref="B1232:F1232"/>
+    <mergeCell ref="B1233:F1233"/>
+    <mergeCell ref="B1234:F1234"/>
+    <mergeCell ref="B1235:F1235"/>
+    <mergeCell ref="B1224:F1224"/>
+    <mergeCell ref="B1225:F1225"/>
+    <mergeCell ref="B1226:F1226"/>
+    <mergeCell ref="B1227:F1227"/>
+    <mergeCell ref="B1228:F1228"/>
+    <mergeCell ref="B1229:F1229"/>
+    <mergeCell ref="B1218:F1218"/>
+    <mergeCell ref="B1219:F1219"/>
+    <mergeCell ref="B1220:F1220"/>
+    <mergeCell ref="B1221:F1221"/>
+    <mergeCell ref="B1222:F1222"/>
+    <mergeCell ref="B1223:F1223"/>
+    <mergeCell ref="B1212:F1212"/>
+    <mergeCell ref="B1213:F1213"/>
+    <mergeCell ref="B1214:F1214"/>
+    <mergeCell ref="B1215:F1215"/>
+    <mergeCell ref="B1216:F1216"/>
+    <mergeCell ref="B1217:F1217"/>
+    <mergeCell ref="B1206:F1206"/>
+    <mergeCell ref="B1207:F1207"/>
+    <mergeCell ref="B1208:F1208"/>
+    <mergeCell ref="B1209:F1209"/>
+    <mergeCell ref="B1210:F1210"/>
+    <mergeCell ref="B1211:F1211"/>
+    <mergeCell ref="B1200:F1200"/>
+    <mergeCell ref="B1201:F1201"/>
+    <mergeCell ref="B1202:F1202"/>
+    <mergeCell ref="B1203:F1203"/>
+    <mergeCell ref="B1204:F1204"/>
+    <mergeCell ref="B1205:F1205"/>
+    <mergeCell ref="B1194:F1194"/>
+    <mergeCell ref="B1195:F1195"/>
+    <mergeCell ref="B1196:F1196"/>
+    <mergeCell ref="B1197:F1197"/>
+    <mergeCell ref="B1198:F1198"/>
+    <mergeCell ref="B1199:F1199"/>
+    <mergeCell ref="B1188:F1188"/>
+    <mergeCell ref="B1189:F1189"/>
+    <mergeCell ref="B1190:F1190"/>
+    <mergeCell ref="B1191:F1191"/>
+    <mergeCell ref="B1192:F1192"/>
+    <mergeCell ref="B1193:F1193"/>
+    <mergeCell ref="B1182:F1182"/>
+    <mergeCell ref="B1183:F1183"/>
+    <mergeCell ref="B1184:F1184"/>
+    <mergeCell ref="B1185:F1185"/>
+    <mergeCell ref="B1186:F1186"/>
+    <mergeCell ref="B1187:F1187"/>
+    <mergeCell ref="B1176:F1176"/>
+    <mergeCell ref="B1177:F1177"/>
+    <mergeCell ref="B1178:F1178"/>
+    <mergeCell ref="B1179:F1179"/>
+    <mergeCell ref="B1180:F1180"/>
+    <mergeCell ref="B1181:F1181"/>
+    <mergeCell ref="B1170:F1170"/>
+    <mergeCell ref="B1171:F1171"/>
+    <mergeCell ref="B1172:F1172"/>
+    <mergeCell ref="B1173:F1173"/>
+    <mergeCell ref="B1174:F1174"/>
+    <mergeCell ref="B1175:F1175"/>
+    <mergeCell ref="B1164:F1164"/>
+    <mergeCell ref="B1165:F1165"/>
+    <mergeCell ref="B1166:F1166"/>
+    <mergeCell ref="B1167:F1167"/>
+    <mergeCell ref="B1168:F1168"/>
+    <mergeCell ref="B1169:F1169"/>
+    <mergeCell ref="B1158:F1158"/>
+    <mergeCell ref="B1159:F1159"/>
+    <mergeCell ref="B1160:F1160"/>
+    <mergeCell ref="B1161:F1161"/>
+    <mergeCell ref="B1162:F1162"/>
+    <mergeCell ref="B1163:F1163"/>
+    <mergeCell ref="B1152:F1152"/>
+    <mergeCell ref="B1153:F1153"/>
+    <mergeCell ref="B1154:F1154"/>
+    <mergeCell ref="B1155:F1155"/>
+    <mergeCell ref="B1156:F1156"/>
+    <mergeCell ref="B1157:F1157"/>
+    <mergeCell ref="B1146:F1146"/>
+    <mergeCell ref="B1147:F1147"/>
+    <mergeCell ref="B1148:F1148"/>
+    <mergeCell ref="B1149:F1149"/>
+    <mergeCell ref="B1150:F1150"/>
+    <mergeCell ref="B1151:F1151"/>
+    <mergeCell ref="B1140:F1140"/>
+    <mergeCell ref="B1141:F1141"/>
+    <mergeCell ref="B1142:F1142"/>
+    <mergeCell ref="B1143:F1143"/>
+    <mergeCell ref="B1144:F1144"/>
+    <mergeCell ref="B1145:F1145"/>
+    <mergeCell ref="B1134:F1134"/>
+    <mergeCell ref="B1135:F1135"/>
+    <mergeCell ref="B1136:F1136"/>
+    <mergeCell ref="B1137:F1137"/>
+    <mergeCell ref="B1138:F1138"/>
+    <mergeCell ref="B1139:F1139"/>
+    <mergeCell ref="B1128:F1128"/>
+    <mergeCell ref="B1129:F1129"/>
+    <mergeCell ref="B1130:F1130"/>
+    <mergeCell ref="B1131:F1131"/>
+    <mergeCell ref="B1132:F1132"/>
+    <mergeCell ref="B1133:F1133"/>
+    <mergeCell ref="B1122:F1122"/>
+    <mergeCell ref="B1123:F1123"/>
+    <mergeCell ref="B1124:F1124"/>
+    <mergeCell ref="B1125:F1125"/>
+    <mergeCell ref="B1126:F1126"/>
+    <mergeCell ref="B1127:F1127"/>
+    <mergeCell ref="B1116:F1116"/>
+    <mergeCell ref="B1117:F1117"/>
+    <mergeCell ref="B1118:F1118"/>
+    <mergeCell ref="B1119:F1119"/>
+    <mergeCell ref="B1120:F1120"/>
+    <mergeCell ref="B1121:F1121"/>
+    <mergeCell ref="B1110:F1110"/>
+    <mergeCell ref="B1111:F1111"/>
+    <mergeCell ref="B1112:F1112"/>
+    <mergeCell ref="B1113:F1113"/>
+    <mergeCell ref="B1114:F1114"/>
+    <mergeCell ref="B1115:F1115"/>
+    <mergeCell ref="B1104:F1104"/>
+    <mergeCell ref="B1105:F1105"/>
+    <mergeCell ref="B1106:F1106"/>
+    <mergeCell ref="B1107:F1107"/>
+    <mergeCell ref="B1108:F1108"/>
+    <mergeCell ref="B1109:F1109"/>
+    <mergeCell ref="B1098:F1098"/>
+    <mergeCell ref="B1099:F1099"/>
+    <mergeCell ref="B1100:F1100"/>
+    <mergeCell ref="B1101:F1101"/>
+    <mergeCell ref="B1102:F1102"/>
+    <mergeCell ref="B1103:F1103"/>
+    <mergeCell ref="B1092:F1092"/>
+    <mergeCell ref="B1093:F1093"/>
+    <mergeCell ref="B1094:F1094"/>
+    <mergeCell ref="B1095:F1095"/>
+    <mergeCell ref="B1096:F1096"/>
+    <mergeCell ref="B1097:F1097"/>
+    <mergeCell ref="B1086:F1086"/>
+    <mergeCell ref="B1087:F1087"/>
+    <mergeCell ref="B1088:F1088"/>
+    <mergeCell ref="B1089:F1089"/>
+    <mergeCell ref="B1090:F1090"/>
+    <mergeCell ref="B1091:F1091"/>
+    <mergeCell ref="B1080:F1080"/>
+    <mergeCell ref="B1081:F1081"/>
+    <mergeCell ref="B1082:F1082"/>
+    <mergeCell ref="B1083:F1083"/>
+    <mergeCell ref="B1084:F1084"/>
+    <mergeCell ref="B1085:F1085"/>
+    <mergeCell ref="B1074:F1074"/>
+    <mergeCell ref="B1075:F1075"/>
+    <mergeCell ref="B1076:F1076"/>
+    <mergeCell ref="B1077:F1077"/>
+    <mergeCell ref="B1078:F1078"/>
+    <mergeCell ref="B1079:F1079"/>
+    <mergeCell ref="B1068:F1068"/>
+    <mergeCell ref="B1069:F1069"/>
+    <mergeCell ref="B1070:F1070"/>
+    <mergeCell ref="B1071:F1071"/>
+    <mergeCell ref="B1072:F1072"/>
+    <mergeCell ref="B1073:F1073"/>
+    <mergeCell ref="B1062:F1062"/>
+    <mergeCell ref="B1063:F1063"/>
+    <mergeCell ref="B1064:F1064"/>
+    <mergeCell ref="B1065:F1065"/>
+    <mergeCell ref="B1066:F1066"/>
+    <mergeCell ref="B1067:F1067"/>
+    <mergeCell ref="B1056:F1056"/>
+    <mergeCell ref="B1057:F1057"/>
+    <mergeCell ref="B1058:F1058"/>
+    <mergeCell ref="B1059:F1059"/>
+    <mergeCell ref="B1060:F1060"/>
+    <mergeCell ref="B1061:F1061"/>
+    <mergeCell ref="B1050:F1050"/>
+    <mergeCell ref="B1051:F1051"/>
+    <mergeCell ref="B1052:F1052"/>
+    <mergeCell ref="B1053:F1053"/>
+    <mergeCell ref="B1054:F1054"/>
+    <mergeCell ref="B1055:F1055"/>
+    <mergeCell ref="B1044:F1044"/>
+    <mergeCell ref="B1045:F1045"/>
+    <mergeCell ref="B1046:F1046"/>
+    <mergeCell ref="B1047:F1047"/>
+    <mergeCell ref="B1048:F1048"/>
+    <mergeCell ref="B1049:F1049"/>
+    <mergeCell ref="B1038:F1038"/>
+    <mergeCell ref="B1039:F1039"/>
+    <mergeCell ref="B1040:F1040"/>
+    <mergeCell ref="B1041:F1041"/>
+    <mergeCell ref="B1042:F1042"/>
+    <mergeCell ref="B1043:F1043"/>
+    <mergeCell ref="B1032:F1032"/>
+    <mergeCell ref="B1033:F1033"/>
+    <mergeCell ref="B1034:F1034"/>
+    <mergeCell ref="B1035:F1035"/>
+    <mergeCell ref="B1036:F1036"/>
+    <mergeCell ref="B1037:F1037"/>
+    <mergeCell ref="B1026:F1026"/>
+    <mergeCell ref="B1027:F1027"/>
+    <mergeCell ref="B1028:F1028"/>
+    <mergeCell ref="B1029:F1029"/>
+    <mergeCell ref="B1030:F1030"/>
+    <mergeCell ref="B1031:F1031"/>
+    <mergeCell ref="B1020:F1020"/>
+    <mergeCell ref="B1021:F1021"/>
+    <mergeCell ref="B1022:F1022"/>
+    <mergeCell ref="B1023:F1023"/>
+    <mergeCell ref="B1024:F1024"/>
+    <mergeCell ref="B1025:F1025"/>
+    <mergeCell ref="B1014:F1014"/>
+    <mergeCell ref="B1015:F1015"/>
+    <mergeCell ref="B1016:F1016"/>
+    <mergeCell ref="B1017:F1017"/>
+    <mergeCell ref="B1018:F1018"/>
+    <mergeCell ref="B1019:F1019"/>
+    <mergeCell ref="B1008:F1008"/>
+    <mergeCell ref="B1009:F1009"/>
+    <mergeCell ref="B1010:F1010"/>
+    <mergeCell ref="B1011:F1011"/>
+    <mergeCell ref="B1012:F1012"/>
+    <mergeCell ref="B1013:F1013"/>
+    <mergeCell ref="B1002:F1002"/>
+    <mergeCell ref="B1003:F1003"/>
+    <mergeCell ref="B1004:F1004"/>
+    <mergeCell ref="B1005:F1005"/>
+    <mergeCell ref="B1006:F1006"/>
+    <mergeCell ref="B1007:F1007"/>
+    <mergeCell ref="B996:F996"/>
+    <mergeCell ref="B997:F997"/>
+    <mergeCell ref="B998:F998"/>
+    <mergeCell ref="B999:F999"/>
+    <mergeCell ref="B1000:F1000"/>
+    <mergeCell ref="B1001:F1001"/>
+    <mergeCell ref="B990:F990"/>
+    <mergeCell ref="B991:F991"/>
+    <mergeCell ref="B992:F992"/>
+    <mergeCell ref="B993:F993"/>
+    <mergeCell ref="B994:F994"/>
+    <mergeCell ref="B995:F995"/>
+    <mergeCell ref="B984:F984"/>
+    <mergeCell ref="B985:F985"/>
+    <mergeCell ref="B986:F986"/>
+    <mergeCell ref="B987:F987"/>
+    <mergeCell ref="B988:F988"/>
+    <mergeCell ref="B989:F989"/>
+    <mergeCell ref="B978:F978"/>
+    <mergeCell ref="B979:F979"/>
+    <mergeCell ref="B980:F980"/>
+    <mergeCell ref="B981:F981"/>
+    <mergeCell ref="B982:F982"/>
+    <mergeCell ref="B983:F983"/>
+    <mergeCell ref="B972:F972"/>
+    <mergeCell ref="B973:F973"/>
+    <mergeCell ref="B974:F974"/>
+    <mergeCell ref="B975:F975"/>
+    <mergeCell ref="B976:F976"/>
+    <mergeCell ref="B977:F977"/>
+    <mergeCell ref="B966:F966"/>
+    <mergeCell ref="B967:F967"/>
+    <mergeCell ref="B968:F968"/>
+    <mergeCell ref="B969:F969"/>
+    <mergeCell ref="B970:F970"/>
+    <mergeCell ref="B971:F971"/>
+    <mergeCell ref="B960:F960"/>
+    <mergeCell ref="B961:F961"/>
+    <mergeCell ref="B962:F962"/>
+    <mergeCell ref="B963:F963"/>
+    <mergeCell ref="B964:F964"/>
+    <mergeCell ref="B965:F965"/>
+    <mergeCell ref="B954:F954"/>
+    <mergeCell ref="B955:F955"/>
+    <mergeCell ref="B956:F956"/>
+    <mergeCell ref="B957:F957"/>
+    <mergeCell ref="B958:F958"/>
+    <mergeCell ref="B959:F959"/>
+    <mergeCell ref="B948:F948"/>
+    <mergeCell ref="B949:F949"/>
+    <mergeCell ref="B950:F950"/>
+    <mergeCell ref="B951:F951"/>
+    <mergeCell ref="B952:F952"/>
+    <mergeCell ref="B953:F953"/>
+    <mergeCell ref="B942:F942"/>
+    <mergeCell ref="B943:F943"/>
+    <mergeCell ref="B944:F944"/>
+    <mergeCell ref="B945:F945"/>
+    <mergeCell ref="B946:F946"/>
+    <mergeCell ref="B947:F947"/>
+    <mergeCell ref="B936:F936"/>
+    <mergeCell ref="B937:F937"/>
+    <mergeCell ref="B938:F938"/>
+    <mergeCell ref="B939:F939"/>
+    <mergeCell ref="B940:F940"/>
+    <mergeCell ref="B941:F941"/>
+    <mergeCell ref="B930:F930"/>
+    <mergeCell ref="B931:F931"/>
+    <mergeCell ref="B932:F932"/>
+    <mergeCell ref="B933:F933"/>
+    <mergeCell ref="B934:F934"/>
+    <mergeCell ref="B935:F935"/>
+    <mergeCell ref="B924:F924"/>
+    <mergeCell ref="B925:F925"/>
+    <mergeCell ref="B926:F926"/>
+    <mergeCell ref="B927:F927"/>
+    <mergeCell ref="B928:F928"/>
+    <mergeCell ref="B929:F929"/>
+    <mergeCell ref="B918:F918"/>
+    <mergeCell ref="B919:F919"/>
+    <mergeCell ref="B920:F920"/>
+    <mergeCell ref="B921:F921"/>
+    <mergeCell ref="B922:F922"/>
+    <mergeCell ref="B923:F923"/>
+    <mergeCell ref="B912:F912"/>
+    <mergeCell ref="B913:F913"/>
+    <mergeCell ref="B914:F914"/>
+    <mergeCell ref="B915:F915"/>
+    <mergeCell ref="B916:F916"/>
+    <mergeCell ref="B917:F917"/>
+    <mergeCell ref="B906:F906"/>
+    <mergeCell ref="B907:F907"/>
+    <mergeCell ref="B908:F908"/>
+    <mergeCell ref="B909:F909"/>
+    <mergeCell ref="B910:F910"/>
+    <mergeCell ref="B911:F911"/>
+    <mergeCell ref="B900:F900"/>
+    <mergeCell ref="B901:F901"/>
+    <mergeCell ref="B902:F902"/>
+    <mergeCell ref="B903:F903"/>
+    <mergeCell ref="B904:F904"/>
+    <mergeCell ref="B905:F905"/>
+    <mergeCell ref="B894:F894"/>
+    <mergeCell ref="B895:F895"/>
+    <mergeCell ref="B896:F896"/>
+    <mergeCell ref="B897:F897"/>
+    <mergeCell ref="B898:F898"/>
+    <mergeCell ref="B899:F899"/>
+    <mergeCell ref="B888:F888"/>
+    <mergeCell ref="B889:F889"/>
+    <mergeCell ref="B890:F890"/>
+    <mergeCell ref="B891:F891"/>
+    <mergeCell ref="B892:F892"/>
+    <mergeCell ref="B893:F893"/>
+    <mergeCell ref="B882:F882"/>
+    <mergeCell ref="B883:F883"/>
+    <mergeCell ref="B884:F884"/>
+    <mergeCell ref="B885:F885"/>
+    <mergeCell ref="B886:F886"/>
+    <mergeCell ref="B887:F887"/>
+    <mergeCell ref="B876:F876"/>
+    <mergeCell ref="B877:F877"/>
+    <mergeCell ref="B878:F878"/>
+    <mergeCell ref="B879:F879"/>
+    <mergeCell ref="B880:F880"/>
+    <mergeCell ref="B881:F881"/>
+    <mergeCell ref="B870:F870"/>
+    <mergeCell ref="B871:F871"/>
+    <mergeCell ref="B872:F872"/>
+    <mergeCell ref="B873:F873"/>
+    <mergeCell ref="B874:F874"/>
+    <mergeCell ref="B875:F875"/>
+    <mergeCell ref="B864:F864"/>
+    <mergeCell ref="B865:F865"/>
+    <mergeCell ref="B866:F866"/>
+    <mergeCell ref="B867:F867"/>
+    <mergeCell ref="B868:F868"/>
+    <mergeCell ref="B869:F869"/>
+    <mergeCell ref="B858:F858"/>
+    <mergeCell ref="B859:F859"/>
+    <mergeCell ref="B860:F860"/>
+    <mergeCell ref="B861:F861"/>
+    <mergeCell ref="B862:F862"/>
+    <mergeCell ref="B863:F863"/>
+    <mergeCell ref="B852:F852"/>
+    <mergeCell ref="B853:F853"/>
+    <mergeCell ref="B854:F854"/>
+    <mergeCell ref="B855:F855"/>
+    <mergeCell ref="B856:F856"/>
+    <mergeCell ref="B857:F857"/>
+    <mergeCell ref="B846:F846"/>
+    <mergeCell ref="B847:F847"/>
+    <mergeCell ref="B848:F848"/>
+    <mergeCell ref="B849:F849"/>
+    <mergeCell ref="B850:F850"/>
+    <mergeCell ref="B851:F851"/>
+    <mergeCell ref="B840:F840"/>
+    <mergeCell ref="B841:F841"/>
+    <mergeCell ref="B842:F842"/>
+    <mergeCell ref="B843:F843"/>
+    <mergeCell ref="B844:F844"/>
+    <mergeCell ref="B845:F845"/>
+    <mergeCell ref="B834:F834"/>
+    <mergeCell ref="B835:F835"/>
+    <mergeCell ref="B836:F836"/>
+    <mergeCell ref="B837:F837"/>
+    <mergeCell ref="B838:F838"/>
+    <mergeCell ref="B839:F839"/>
+    <mergeCell ref="B828:F828"/>
+    <mergeCell ref="B829:F829"/>
+    <mergeCell ref="B830:F830"/>
+    <mergeCell ref="B831:F831"/>
+    <mergeCell ref="B832:F832"/>
+    <mergeCell ref="B833:F833"/>
+    <mergeCell ref="B822:F822"/>
+    <mergeCell ref="B823:F823"/>
+    <mergeCell ref="B824:F824"/>
+    <mergeCell ref="B825:F825"/>
+    <mergeCell ref="B826:F826"/>
+    <mergeCell ref="B827:F827"/>
+    <mergeCell ref="B816:F816"/>
+    <mergeCell ref="B817:F817"/>
+    <mergeCell ref="B818:F818"/>
+    <mergeCell ref="B819:F819"/>
+    <mergeCell ref="B820:F820"/>
+    <mergeCell ref="B821:F821"/>
+    <mergeCell ref="B810:F810"/>
+    <mergeCell ref="B811:F811"/>
+    <mergeCell ref="B812:F812"/>
+    <mergeCell ref="B813:F813"/>
+    <mergeCell ref="B814:F814"/>
+    <mergeCell ref="B815:F815"/>
+    <mergeCell ref="B804:F804"/>
+    <mergeCell ref="B805:F805"/>
+    <mergeCell ref="B806:F806"/>
+    <mergeCell ref="B807:F807"/>
+    <mergeCell ref="B808:F808"/>
+    <mergeCell ref="B809:F809"/>
+    <mergeCell ref="B798:F798"/>
+    <mergeCell ref="B799:F799"/>
+    <mergeCell ref="B800:F800"/>
+    <mergeCell ref="B801:F801"/>
+    <mergeCell ref="B802:F802"/>
+    <mergeCell ref="B803:F803"/>
+    <mergeCell ref="B792:F792"/>
+    <mergeCell ref="B793:F793"/>
+    <mergeCell ref="B794:F794"/>
+    <mergeCell ref="B795:F795"/>
+    <mergeCell ref="B796:F796"/>
+    <mergeCell ref="B797:F797"/>
+    <mergeCell ref="B786:F786"/>
+    <mergeCell ref="B787:F787"/>
+    <mergeCell ref="B788:F788"/>
+    <mergeCell ref="B789:F789"/>
+    <mergeCell ref="B790:F790"/>
+    <mergeCell ref="B791:F791"/>
+    <mergeCell ref="B780:F780"/>
+    <mergeCell ref="B781:F781"/>
+    <mergeCell ref="B782:F782"/>
+    <mergeCell ref="B783:F783"/>
+    <mergeCell ref="B784:F784"/>
+    <mergeCell ref="B785:F785"/>
+    <mergeCell ref="B774:F774"/>
+    <mergeCell ref="B775:F775"/>
+    <mergeCell ref="B776:F776"/>
+    <mergeCell ref="B777:F777"/>
+    <mergeCell ref="B778:F778"/>
+    <mergeCell ref="B779:F779"/>
+    <mergeCell ref="B768:F768"/>
+    <mergeCell ref="B769:F769"/>
+    <mergeCell ref="B770:F770"/>
+    <mergeCell ref="B771:F771"/>
+    <mergeCell ref="B772:F772"/>
+    <mergeCell ref="B773:F773"/>
+    <mergeCell ref="B762:F762"/>
+    <mergeCell ref="B763:F763"/>
+    <mergeCell ref="B764:F764"/>
+    <mergeCell ref="B765:F765"/>
+    <mergeCell ref="B766:F766"/>
+    <mergeCell ref="B767:F767"/>
+    <mergeCell ref="B756:F756"/>
+    <mergeCell ref="B757:F757"/>
+    <mergeCell ref="B758:F758"/>
+    <mergeCell ref="B759:F759"/>
+    <mergeCell ref="B760:F760"/>
+    <mergeCell ref="B761:F761"/>
+    <mergeCell ref="B750:F750"/>
+    <mergeCell ref="B751:F751"/>
+    <mergeCell ref="B752:F752"/>
+    <mergeCell ref="B753:F753"/>
+    <mergeCell ref="B754:F754"/>
+    <mergeCell ref="B755:F755"/>
+    <mergeCell ref="B744:F744"/>
+    <mergeCell ref="B745:F745"/>
+    <mergeCell ref="B746:F746"/>
+    <mergeCell ref="B747:F747"/>
+    <mergeCell ref="B748:F748"/>
+    <mergeCell ref="B749:F749"/>
+    <mergeCell ref="B738:F738"/>
+    <mergeCell ref="B739:F739"/>
+    <mergeCell ref="B740:F740"/>
+    <mergeCell ref="B741:F741"/>
+    <mergeCell ref="B742:F742"/>
+    <mergeCell ref="B743:F743"/>
+    <mergeCell ref="B732:F732"/>
+    <mergeCell ref="B733:F733"/>
+    <mergeCell ref="B734:F734"/>
+    <mergeCell ref="B735:F735"/>
+    <mergeCell ref="B736:F736"/>
+    <mergeCell ref="B737:F737"/>
+    <mergeCell ref="B726:F726"/>
+    <mergeCell ref="B727:F727"/>
+    <mergeCell ref="B728:F728"/>
+    <mergeCell ref="B729:F729"/>
+    <mergeCell ref="B730:F730"/>
+    <mergeCell ref="B731:F731"/>
+    <mergeCell ref="B720:F720"/>
+    <mergeCell ref="B721:F721"/>
+    <mergeCell ref="B722:F722"/>
+    <mergeCell ref="B723:F723"/>
+    <mergeCell ref="B724:F724"/>
+    <mergeCell ref="B725:F725"/>
+    <mergeCell ref="B714:F714"/>
+    <mergeCell ref="B715:F715"/>
+    <mergeCell ref="B716:F716"/>
+    <mergeCell ref="B717:F717"/>
+    <mergeCell ref="B718:F718"/>
+    <mergeCell ref="B719:F719"/>
+    <mergeCell ref="B708:F708"/>
+    <mergeCell ref="B709:F709"/>
+    <mergeCell ref="B710:F710"/>
+    <mergeCell ref="B711:F711"/>
+    <mergeCell ref="B712:F712"/>
+    <mergeCell ref="B713:F713"/>
+    <mergeCell ref="B702:F702"/>
+    <mergeCell ref="B703:F703"/>
+    <mergeCell ref="B704:F704"/>
+    <mergeCell ref="B705:F705"/>
+    <mergeCell ref="B706:F706"/>
+    <mergeCell ref="B707:F707"/>
+    <mergeCell ref="B696:F696"/>
+    <mergeCell ref="B697:F697"/>
+    <mergeCell ref="B698:F698"/>
+    <mergeCell ref="B699:F699"/>
+    <mergeCell ref="B700:F700"/>
+    <mergeCell ref="B701:F701"/>
+    <mergeCell ref="B690:F690"/>
+    <mergeCell ref="B691:F691"/>
+    <mergeCell ref="B692:F692"/>
+    <mergeCell ref="B693:F693"/>
+    <mergeCell ref="B694:F694"/>
+    <mergeCell ref="B695:F695"/>
+    <mergeCell ref="B684:F684"/>
+    <mergeCell ref="B685:F685"/>
+    <mergeCell ref="B686:F686"/>
+    <mergeCell ref="B687:F687"/>
+    <mergeCell ref="B688:F688"/>
+    <mergeCell ref="B689:F689"/>
+    <mergeCell ref="B678:F678"/>
+    <mergeCell ref="B679:F679"/>
+    <mergeCell ref="B680:F680"/>
+    <mergeCell ref="B681:F681"/>
+    <mergeCell ref="B682:F682"/>
+    <mergeCell ref="B683:F683"/>
+    <mergeCell ref="B672:F672"/>
+    <mergeCell ref="B673:F673"/>
+    <mergeCell ref="B674:F674"/>
+    <mergeCell ref="B675:F675"/>
+    <mergeCell ref="B676:F676"/>
+    <mergeCell ref="B677:F677"/>
+    <mergeCell ref="B666:F666"/>
+    <mergeCell ref="B667:F667"/>
+    <mergeCell ref="B668:F668"/>
+    <mergeCell ref="B669:F669"/>
+    <mergeCell ref="B670:F670"/>
+    <mergeCell ref="B671:F671"/>
+    <mergeCell ref="B660:F660"/>
+    <mergeCell ref="B661:F661"/>
+    <mergeCell ref="B662:F662"/>
+    <mergeCell ref="B663:F663"/>
+    <mergeCell ref="B664:F664"/>
+    <mergeCell ref="B665:F665"/>
+    <mergeCell ref="B654:F654"/>
+    <mergeCell ref="B655:F655"/>
+    <mergeCell ref="B656:F656"/>
+    <mergeCell ref="B657:F657"/>
+    <mergeCell ref="B658:F658"/>
+    <mergeCell ref="B659:F659"/>
+    <mergeCell ref="B648:F648"/>
+    <mergeCell ref="B649:F649"/>
+    <mergeCell ref="B650:F650"/>
+    <mergeCell ref="B651:F651"/>
+    <mergeCell ref="B652:F652"/>
+    <mergeCell ref="B653:F653"/>
+    <mergeCell ref="B642:F642"/>
+    <mergeCell ref="B643:F643"/>
+    <mergeCell ref="B644:F644"/>
+    <mergeCell ref="B645:F645"/>
+    <mergeCell ref="B646:F646"/>
+    <mergeCell ref="B647:F647"/>
+    <mergeCell ref="B636:F636"/>
+    <mergeCell ref="B637:F637"/>
+    <mergeCell ref="B638:F638"/>
+    <mergeCell ref="B639:F639"/>
+    <mergeCell ref="B640:F640"/>
+    <mergeCell ref="B641:F641"/>
+    <mergeCell ref="B630:F630"/>
+    <mergeCell ref="B631:F631"/>
+    <mergeCell ref="B632:F632"/>
+    <mergeCell ref="B633:F633"/>
+    <mergeCell ref="B634:F634"/>
+    <mergeCell ref="B635:F635"/>
+    <mergeCell ref="B624:F624"/>
+    <mergeCell ref="B625:F625"/>
+    <mergeCell ref="B626:F626"/>
+    <mergeCell ref="B627:F627"/>
+    <mergeCell ref="B628:F628"/>
+    <mergeCell ref="B629:F629"/>
+    <mergeCell ref="B618:F618"/>
+    <mergeCell ref="B619:F619"/>
+    <mergeCell ref="B620:F620"/>
+    <mergeCell ref="B621:F621"/>
+    <mergeCell ref="B622:F622"/>
+    <mergeCell ref="B623:F623"/>
+    <mergeCell ref="B612:F612"/>
+    <mergeCell ref="B613:F613"/>
+    <mergeCell ref="B614:F614"/>
+    <mergeCell ref="B615:F615"/>
+    <mergeCell ref="B616:F616"/>
+    <mergeCell ref="B617:F617"/>
+    <mergeCell ref="B606:F606"/>
+    <mergeCell ref="B607:F607"/>
+    <mergeCell ref="B608:F608"/>
+    <mergeCell ref="B609:F609"/>
+    <mergeCell ref="B610:F610"/>
+    <mergeCell ref="B611:F611"/>
+    <mergeCell ref="B600:F600"/>
+    <mergeCell ref="B601:F601"/>
+    <mergeCell ref="B602:F602"/>
+    <mergeCell ref="B603:F603"/>
+    <mergeCell ref="B604:F604"/>
+    <mergeCell ref="B605:F605"/>
+    <mergeCell ref="B594:F594"/>
+    <mergeCell ref="B595:F595"/>
+    <mergeCell ref="B596:F596"/>
+    <mergeCell ref="B597:F597"/>
+    <mergeCell ref="B598:F598"/>
+    <mergeCell ref="B599:F599"/>
+    <mergeCell ref="B588:F588"/>
+    <mergeCell ref="B589:F589"/>
+    <mergeCell ref="B590:F590"/>
+    <mergeCell ref="B591:F591"/>
+    <mergeCell ref="B592:F592"/>
+    <mergeCell ref="B593:F593"/>
+    <mergeCell ref="B582:F582"/>
+    <mergeCell ref="B583:F583"/>
+    <mergeCell ref="B584:F584"/>
+    <mergeCell ref="B585:F585"/>
+    <mergeCell ref="B586:F586"/>
+    <mergeCell ref="B587:F587"/>
+    <mergeCell ref="B576:F576"/>
+    <mergeCell ref="B577:F577"/>
+    <mergeCell ref="B578:F578"/>
+    <mergeCell ref="B579:F579"/>
+    <mergeCell ref="B580:F580"/>
+    <mergeCell ref="B581:F581"/>
+    <mergeCell ref="B570:F570"/>
+    <mergeCell ref="B571:F571"/>
+    <mergeCell ref="B572:F572"/>
+    <mergeCell ref="B573:F573"/>
+    <mergeCell ref="B574:F574"/>
+    <mergeCell ref="B575:F575"/>
+    <mergeCell ref="B564:F564"/>
+    <mergeCell ref="B565:F565"/>
+    <mergeCell ref="B566:F566"/>
+    <mergeCell ref="B567:F567"/>
+    <mergeCell ref="B568:F568"/>
+    <mergeCell ref="B569:F569"/>
+    <mergeCell ref="B558:F558"/>
+    <mergeCell ref="B559:F559"/>
+    <mergeCell ref="B560:F560"/>
+    <mergeCell ref="B561:F561"/>
+    <mergeCell ref="B562:F562"/>
+    <mergeCell ref="B563:F563"/>
+    <mergeCell ref="B552:F552"/>
+    <mergeCell ref="B553:F553"/>
+    <mergeCell ref="B554:F554"/>
+    <mergeCell ref="B555:F555"/>
+    <mergeCell ref="B556:F556"/>
+    <mergeCell ref="B557:F557"/>
+    <mergeCell ref="B546:F546"/>
+    <mergeCell ref="B547:F547"/>
+    <mergeCell ref="B548:F548"/>
+    <mergeCell ref="B549:F549"/>
+    <mergeCell ref="B550:F550"/>
+    <mergeCell ref="B551:F551"/>
+    <mergeCell ref="B540:F540"/>
+    <mergeCell ref="B541:F541"/>
+    <mergeCell ref="B542:F542"/>
+    <mergeCell ref="B543:F543"/>
+    <mergeCell ref="B544:F544"/>
+    <mergeCell ref="B545:F545"/>
+    <mergeCell ref="B534:F534"/>
+    <mergeCell ref="B535:F535"/>
+    <mergeCell ref="B536:F536"/>
+    <mergeCell ref="B537:F537"/>
+    <mergeCell ref="B538:F538"/>
+    <mergeCell ref="B539:F539"/>
+    <mergeCell ref="B528:F528"/>
+    <mergeCell ref="B529:F529"/>
+    <mergeCell ref="B530:F530"/>
+    <mergeCell ref="B531:F531"/>
+    <mergeCell ref="B532:F532"/>
+    <mergeCell ref="B533:F533"/>
+    <mergeCell ref="B522:F522"/>
+    <mergeCell ref="B523:F523"/>
+    <mergeCell ref="B524:F524"/>
+    <mergeCell ref="B525:F525"/>
+    <mergeCell ref="B526:F526"/>
+    <mergeCell ref="B527:F527"/>
+    <mergeCell ref="B516:F516"/>
+    <mergeCell ref="B517:F517"/>
+    <mergeCell ref="B518:F518"/>
+    <mergeCell ref="B519:F519"/>
+    <mergeCell ref="B520:F520"/>
+    <mergeCell ref="B521:F521"/>
+    <mergeCell ref="B510:F510"/>
+    <mergeCell ref="B511:F511"/>
+    <mergeCell ref="B512:F512"/>
+    <mergeCell ref="B513:F513"/>
+    <mergeCell ref="B514:F514"/>
+    <mergeCell ref="B515:F515"/>
+    <mergeCell ref="B504:F504"/>
+    <mergeCell ref="B505:F505"/>
+    <mergeCell ref="B506:F506"/>
+    <mergeCell ref="B507:F507"/>
+    <mergeCell ref="B508:F508"/>
+    <mergeCell ref="B509:F509"/>
+    <mergeCell ref="B498:F498"/>
+    <mergeCell ref="B499:F499"/>
+    <mergeCell ref="B500:F500"/>
+    <mergeCell ref="B501:F501"/>
+    <mergeCell ref="B502:F502"/>
+    <mergeCell ref="B503:F503"/>
+    <mergeCell ref="B492:F492"/>
+    <mergeCell ref="B493:F493"/>
+    <mergeCell ref="B494:F494"/>
+    <mergeCell ref="B495:F495"/>
+    <mergeCell ref="B496:F496"/>
+    <mergeCell ref="B497:F497"/>
+    <mergeCell ref="B486:F486"/>
+    <mergeCell ref="B487:F487"/>
+    <mergeCell ref="B488:F488"/>
+    <mergeCell ref="B489:F489"/>
+    <mergeCell ref="B490:F490"/>
+    <mergeCell ref="B491:F491"/>
+    <mergeCell ref="B480:F480"/>
+    <mergeCell ref="B481:F481"/>
+    <mergeCell ref="B482:F482"/>
+    <mergeCell ref="B483:F483"/>
+    <mergeCell ref="B484:F484"/>
+    <mergeCell ref="B485:F485"/>
+    <mergeCell ref="B474:F474"/>
+    <mergeCell ref="B475:F475"/>
+    <mergeCell ref="B476:F476"/>
+    <mergeCell ref="B477:F477"/>
+    <mergeCell ref="B478:F478"/>
+    <mergeCell ref="B479:F479"/>
+    <mergeCell ref="B468:F468"/>
+    <mergeCell ref="B469:F469"/>
+    <mergeCell ref="B470:F470"/>
+    <mergeCell ref="B471:F471"/>
+    <mergeCell ref="B472:F472"/>
+    <mergeCell ref="B473:F473"/>
+    <mergeCell ref="B462:F462"/>
+    <mergeCell ref="B463:F463"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="B465:F465"/>
+    <mergeCell ref="B466:F466"/>
+    <mergeCell ref="B467:F467"/>
+    <mergeCell ref="B456:F456"/>
+    <mergeCell ref="B457:F457"/>
+    <mergeCell ref="B458:F458"/>
+    <mergeCell ref="B459:F459"/>
+    <mergeCell ref="B460:F460"/>
+    <mergeCell ref="B461:F461"/>
+    <mergeCell ref="B450:F450"/>
+    <mergeCell ref="B451:F451"/>
+    <mergeCell ref="B452:F452"/>
+    <mergeCell ref="B453:F453"/>
+    <mergeCell ref="B454:F454"/>
+    <mergeCell ref="B455:F455"/>
+    <mergeCell ref="B444:F444"/>
+    <mergeCell ref="B445:F445"/>
+    <mergeCell ref="B446:F446"/>
+    <mergeCell ref="B447:F447"/>
+    <mergeCell ref="B448:F448"/>
+    <mergeCell ref="B449:F449"/>
+    <mergeCell ref="B438:F438"/>
+    <mergeCell ref="B439:F439"/>
+    <mergeCell ref="B440:F440"/>
+    <mergeCell ref="B441:F441"/>
+    <mergeCell ref="B442:F442"/>
+    <mergeCell ref="B443:F443"/>
+    <mergeCell ref="B432:F432"/>
+    <mergeCell ref="B433:F433"/>
+    <mergeCell ref="B434:F434"/>
+    <mergeCell ref="B435:F435"/>
+    <mergeCell ref="B436:F436"/>
+    <mergeCell ref="B437:F437"/>
+    <mergeCell ref="B426:F426"/>
+    <mergeCell ref="B427:F427"/>
+    <mergeCell ref="B428:F428"/>
+    <mergeCell ref="B429:F429"/>
+    <mergeCell ref="B430:F430"/>
+    <mergeCell ref="B431:F431"/>
+    <mergeCell ref="B420:F420"/>
+    <mergeCell ref="B421:F421"/>
+    <mergeCell ref="B422:F422"/>
+    <mergeCell ref="B423:F423"/>
+    <mergeCell ref="B424:F424"/>
+    <mergeCell ref="B425:F425"/>
+    <mergeCell ref="B414:F414"/>
+    <mergeCell ref="B415:F415"/>
+    <mergeCell ref="B416:F416"/>
+    <mergeCell ref="B417:F417"/>
+    <mergeCell ref="B418:F418"/>
+    <mergeCell ref="B419:F419"/>
+    <mergeCell ref="B408:F408"/>
+    <mergeCell ref="B409:F409"/>
+    <mergeCell ref="B410:F410"/>
+    <mergeCell ref="B411:F411"/>
+    <mergeCell ref="B412:F412"/>
+    <mergeCell ref="B413:F413"/>
+    <mergeCell ref="B402:F402"/>
+    <mergeCell ref="B403:F403"/>
+    <mergeCell ref="B404:F404"/>
+    <mergeCell ref="B405:F405"/>
+    <mergeCell ref="B406:F406"/>
+    <mergeCell ref="B407:F407"/>
+    <mergeCell ref="B396:F396"/>
+    <mergeCell ref="B397:F397"/>
+    <mergeCell ref="B398:F398"/>
+    <mergeCell ref="B399:F399"/>
+    <mergeCell ref="B400:F400"/>
+    <mergeCell ref="B401:F401"/>
+    <mergeCell ref="B390:F390"/>
+    <mergeCell ref="B391:F391"/>
+    <mergeCell ref="B392:F392"/>
+    <mergeCell ref="B393:F393"/>
+    <mergeCell ref="B394:F394"/>
+    <mergeCell ref="B395:F395"/>
+    <mergeCell ref="B384:F384"/>
+    <mergeCell ref="B385:F385"/>
+    <mergeCell ref="B386:F386"/>
+    <mergeCell ref="B387:F387"/>
+    <mergeCell ref="B388:F388"/>
+    <mergeCell ref="B389:F389"/>
+    <mergeCell ref="B378:F378"/>
+    <mergeCell ref="B379:F379"/>
+    <mergeCell ref="B380:F380"/>
+    <mergeCell ref="B381:F381"/>
+    <mergeCell ref="B382:F382"/>
+    <mergeCell ref="B383:F383"/>
+    <mergeCell ref="B372:F372"/>
+    <mergeCell ref="B373:F373"/>
+    <mergeCell ref="B374:F374"/>
+    <mergeCell ref="B375:F375"/>
+    <mergeCell ref="B376:F376"/>
+    <mergeCell ref="B377:F377"/>
+    <mergeCell ref="B366:F366"/>
+    <mergeCell ref="B367:F367"/>
+    <mergeCell ref="B368:F368"/>
+    <mergeCell ref="B369:F369"/>
+    <mergeCell ref="B370:F370"/>
+    <mergeCell ref="B371:F371"/>
+    <mergeCell ref="B360:F360"/>
+    <mergeCell ref="B361:F361"/>
+    <mergeCell ref="B362:F362"/>
+    <mergeCell ref="B363:F363"/>
+    <mergeCell ref="B364:F364"/>
+    <mergeCell ref="B365:F365"/>
+    <mergeCell ref="B354:F354"/>
+    <mergeCell ref="B355:F355"/>
+    <mergeCell ref="B356:F356"/>
+    <mergeCell ref="B357:F357"/>
+    <mergeCell ref="B358:F358"/>
+    <mergeCell ref="B359:F359"/>
+    <mergeCell ref="B348:F348"/>
+    <mergeCell ref="B349:F349"/>
+    <mergeCell ref="B350:F350"/>
+    <mergeCell ref="B351:F351"/>
+    <mergeCell ref="B352:F352"/>
+    <mergeCell ref="B353:F353"/>
+    <mergeCell ref="B342:F342"/>
+    <mergeCell ref="B343:F343"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="B345:F345"/>
+    <mergeCell ref="B346:F346"/>
+    <mergeCell ref="B347:F347"/>
+    <mergeCell ref="B336:F336"/>
+    <mergeCell ref="B337:F337"/>
+    <mergeCell ref="B338:F338"/>
+    <mergeCell ref="B339:F339"/>
+    <mergeCell ref="B340:F340"/>
+    <mergeCell ref="B341:F341"/>
+    <mergeCell ref="B330:F330"/>
+    <mergeCell ref="B331:F331"/>
+    <mergeCell ref="B332:F332"/>
+    <mergeCell ref="B333:F333"/>
+    <mergeCell ref="B334:F334"/>
+    <mergeCell ref="B335:F335"/>
+    <mergeCell ref="B324:F324"/>
+    <mergeCell ref="B325:F325"/>
+    <mergeCell ref="B326:F326"/>
+    <mergeCell ref="B327:F327"/>
+    <mergeCell ref="B328:F328"/>
+    <mergeCell ref="B329:F329"/>
+    <mergeCell ref="B318:F318"/>
+    <mergeCell ref="B319:F319"/>
+    <mergeCell ref="B320:F320"/>
+    <mergeCell ref="B321:F321"/>
+    <mergeCell ref="B322:F322"/>
+    <mergeCell ref="B323:F323"/>
+    <mergeCell ref="B312:F312"/>
+    <mergeCell ref="B313:F313"/>
+    <mergeCell ref="B314:F314"/>
+    <mergeCell ref="B315:F315"/>
+    <mergeCell ref="B316:F316"/>
+    <mergeCell ref="B317:F317"/>
+    <mergeCell ref="B306:F306"/>
+    <mergeCell ref="B307:F307"/>
+    <mergeCell ref="B308:F308"/>
+    <mergeCell ref="B309:F309"/>
+    <mergeCell ref="B310:F310"/>
+    <mergeCell ref="B311:F311"/>
+    <mergeCell ref="B300:F300"/>
+    <mergeCell ref="B301:F301"/>
+    <mergeCell ref="B302:F302"/>
+    <mergeCell ref="B303:F303"/>
+    <mergeCell ref="B304:F304"/>
+    <mergeCell ref="B305:F305"/>
+    <mergeCell ref="B294:F294"/>
+    <mergeCell ref="B295:F295"/>
+    <mergeCell ref="B296:F296"/>
+    <mergeCell ref="B297:F297"/>
+    <mergeCell ref="B298:F298"/>
+    <mergeCell ref="B299:F299"/>
+    <mergeCell ref="B288:F288"/>
+    <mergeCell ref="B289:F289"/>
+    <mergeCell ref="B290:F290"/>
+    <mergeCell ref="B291:F291"/>
+    <mergeCell ref="B292:F292"/>
+    <mergeCell ref="B293:F293"/>
+    <mergeCell ref="B282:F282"/>
+    <mergeCell ref="B283:F283"/>
+    <mergeCell ref="B284:F284"/>
+    <mergeCell ref="B285:F285"/>
+    <mergeCell ref="B286:F286"/>
+    <mergeCell ref="B287:F287"/>
+    <mergeCell ref="B276:F276"/>
+    <mergeCell ref="B277:F277"/>
+    <mergeCell ref="B278:F278"/>
+    <mergeCell ref="B279:F279"/>
+    <mergeCell ref="B280:F280"/>
+    <mergeCell ref="B281:F281"/>
+    <mergeCell ref="B270:F270"/>
+    <mergeCell ref="B271:F271"/>
+    <mergeCell ref="B272:F272"/>
+    <mergeCell ref="B273:F273"/>
+    <mergeCell ref="B274:F274"/>
+    <mergeCell ref="B275:F275"/>
+    <mergeCell ref="B264:F264"/>
+    <mergeCell ref="B265:F265"/>
+    <mergeCell ref="B266:F266"/>
+    <mergeCell ref="B267:F267"/>
+    <mergeCell ref="B268:F268"/>
+    <mergeCell ref="B269:F269"/>
+    <mergeCell ref="B258:F258"/>
+    <mergeCell ref="B259:F259"/>
+    <mergeCell ref="B260:F260"/>
+    <mergeCell ref="B261:F261"/>
+    <mergeCell ref="B262:F262"/>
+    <mergeCell ref="B263:F263"/>
+    <mergeCell ref="B252:F252"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B246:F246"/>
+    <mergeCell ref="B247:F247"/>
+    <mergeCell ref="B248:F248"/>
+    <mergeCell ref="B249:F249"/>
+    <mergeCell ref="B250:F250"/>
+    <mergeCell ref="B251:F251"/>
+    <mergeCell ref="B240:F240"/>
+    <mergeCell ref="B241:F241"/>
+    <mergeCell ref="B242:F242"/>
+    <mergeCell ref="B243:F243"/>
+    <mergeCell ref="B244:F244"/>
+    <mergeCell ref="B245:F245"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="B235:F235"/>
+    <mergeCell ref="B236:F236"/>
+    <mergeCell ref="B237:F237"/>
+    <mergeCell ref="B238:F238"/>
+    <mergeCell ref="B239:F239"/>
+    <mergeCell ref="B228:F228"/>
+    <mergeCell ref="B229:F229"/>
+    <mergeCell ref="B230:F230"/>
+    <mergeCell ref="B231:F231"/>
+    <mergeCell ref="B232:F232"/>
+    <mergeCell ref="B233:F233"/>
+    <mergeCell ref="B222:F222"/>
+    <mergeCell ref="B223:F223"/>
+    <mergeCell ref="B224:F224"/>
+    <mergeCell ref="B225:F225"/>
+    <mergeCell ref="B226:F226"/>
+    <mergeCell ref="B227:F227"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="B217:F217"/>
+    <mergeCell ref="B218:F218"/>
+    <mergeCell ref="B219:F219"/>
+    <mergeCell ref="B220:F220"/>
+    <mergeCell ref="B221:F221"/>
+    <mergeCell ref="B210:F210"/>
+    <mergeCell ref="B211:F211"/>
+    <mergeCell ref="B212:F212"/>
+    <mergeCell ref="B213:F213"/>
+    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B215:F215"/>
+    <mergeCell ref="B204:F204"/>
+    <mergeCell ref="B205:F205"/>
+    <mergeCell ref="B206:F206"/>
+    <mergeCell ref="B207:F207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B209:F209"/>
+    <mergeCell ref="B198:F198"/>
+    <mergeCell ref="B199:F199"/>
+    <mergeCell ref="B200:F200"/>
+    <mergeCell ref="B201:F201"/>
+    <mergeCell ref="B202:F202"/>
+    <mergeCell ref="B203:F203"/>
+    <mergeCell ref="B192:F192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:F194"/>
+    <mergeCell ref="B195:F195"/>
+    <mergeCell ref="B196:F196"/>
+    <mergeCell ref="B197:F197"/>
+    <mergeCell ref="B186:F186"/>
+    <mergeCell ref="B187:F187"/>
+    <mergeCell ref="B188:F188"/>
+    <mergeCell ref="B189:F189"/>
+    <mergeCell ref="B190:F190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B180:F180"/>
+    <mergeCell ref="B181:F181"/>
+    <mergeCell ref="B182:F182"/>
+    <mergeCell ref="B183:F183"/>
+    <mergeCell ref="B184:F184"/>
+    <mergeCell ref="B185:F185"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B175:F175"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B177:F177"/>
+    <mergeCell ref="B178:F178"/>
+    <mergeCell ref="B179:F179"/>
+    <mergeCell ref="B168:F168"/>
+    <mergeCell ref="B169:F169"/>
+    <mergeCell ref="B170:F170"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="B172:F172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B163:F163"/>
+    <mergeCell ref="B164:F164"/>
+    <mergeCell ref="B165:F165"/>
+    <mergeCell ref="B166:F166"/>
+    <mergeCell ref="B167:F167"/>
+    <mergeCell ref="B156:F156"/>
+    <mergeCell ref="B157:F157"/>
+    <mergeCell ref="B158:F158"/>
+    <mergeCell ref="B159:F159"/>
+    <mergeCell ref="B160:F160"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="B150:F150"/>
+    <mergeCell ref="B151:F151"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="B153:F153"/>
+    <mergeCell ref="B154:F154"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="B144:F144"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="B147:F147"/>
+    <mergeCell ref="B148:F148"/>
+    <mergeCell ref="B149:F149"/>
+    <mergeCell ref="B138:F138"/>
+    <mergeCell ref="B139:F139"/>
+    <mergeCell ref="B140:F140"/>
+    <mergeCell ref="B141:F141"/>
+    <mergeCell ref="B142:F142"/>
+    <mergeCell ref="B143:F143"/>
+    <mergeCell ref="B132:F132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B136:F136"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="B126:F126"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="B129:F129"/>
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="B131:F131"/>
+    <mergeCell ref="B120:F120"/>
+    <mergeCell ref="B121:F121"/>
+    <mergeCell ref="B122:F122"/>
+    <mergeCell ref="B123:F123"/>
+    <mergeCell ref="B124:F124"/>
+    <mergeCell ref="B125:F125"/>
+    <mergeCell ref="B114:F114"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B117:F117"/>
+    <mergeCell ref="B118:F118"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="B111:F111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B94:F94"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B76:F76"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B62:F62"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B72:F72"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F56"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
@@ -15171,1967 +17162,6 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B62:F62"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B94:F94"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="B111:F111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B126:F126"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="B131:F131"/>
-    <mergeCell ref="B120:F120"/>
-    <mergeCell ref="B121:F121"/>
-    <mergeCell ref="B122:F122"/>
-    <mergeCell ref="B123:F123"/>
-    <mergeCell ref="B124:F124"/>
-    <mergeCell ref="B125:F125"/>
-    <mergeCell ref="B114:F114"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B117:F117"/>
-    <mergeCell ref="B118:F118"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="B144:F144"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B148:F148"/>
-    <mergeCell ref="B149:F149"/>
-    <mergeCell ref="B138:F138"/>
-    <mergeCell ref="B139:F139"/>
-    <mergeCell ref="B140:F140"/>
-    <mergeCell ref="B141:F141"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B143:F143"/>
-    <mergeCell ref="B132:F132"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B136:F136"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B163:F163"/>
-    <mergeCell ref="B164:F164"/>
-    <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B166:F166"/>
-    <mergeCell ref="B167:F167"/>
-    <mergeCell ref="B156:F156"/>
-    <mergeCell ref="B157:F157"/>
-    <mergeCell ref="B158:F158"/>
-    <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="B150:F150"/>
-    <mergeCell ref="B151:F151"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="B153:F153"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="B180:F180"/>
-    <mergeCell ref="B181:F181"/>
-    <mergeCell ref="B182:F182"/>
-    <mergeCell ref="B183:F183"/>
-    <mergeCell ref="B184:F184"/>
-    <mergeCell ref="B185:F185"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B175:F175"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B177:F177"/>
-    <mergeCell ref="B178:F178"/>
-    <mergeCell ref="B179:F179"/>
-    <mergeCell ref="B168:F168"/>
-    <mergeCell ref="B169:F169"/>
-    <mergeCell ref="B170:F170"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="B172:F172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B198:F198"/>
-    <mergeCell ref="B199:F199"/>
-    <mergeCell ref="B200:F200"/>
-    <mergeCell ref="B201:F201"/>
-    <mergeCell ref="B202:F202"/>
-    <mergeCell ref="B203:F203"/>
-    <mergeCell ref="B192:F192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:F194"/>
-    <mergeCell ref="B195:F195"/>
-    <mergeCell ref="B196:F196"/>
-    <mergeCell ref="B197:F197"/>
-    <mergeCell ref="B186:F186"/>
-    <mergeCell ref="B187:F187"/>
-    <mergeCell ref="B188:F188"/>
-    <mergeCell ref="B189:F189"/>
-    <mergeCell ref="B190:F190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B217:F217"/>
-    <mergeCell ref="B218:F218"/>
-    <mergeCell ref="B219:F219"/>
-    <mergeCell ref="B220:F220"/>
-    <mergeCell ref="B221:F221"/>
-    <mergeCell ref="B210:F210"/>
-    <mergeCell ref="B211:F211"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B214:F214"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B204:F204"/>
-    <mergeCell ref="B205:F205"/>
-    <mergeCell ref="B206:F206"/>
-    <mergeCell ref="B207:F207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B209:F209"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="B235:F235"/>
-    <mergeCell ref="B236:F236"/>
-    <mergeCell ref="B237:F237"/>
-    <mergeCell ref="B238:F238"/>
-    <mergeCell ref="B239:F239"/>
-    <mergeCell ref="B228:F228"/>
-    <mergeCell ref="B229:F229"/>
-    <mergeCell ref="B230:F230"/>
-    <mergeCell ref="B231:F231"/>
-    <mergeCell ref="B232:F232"/>
-    <mergeCell ref="B233:F233"/>
-    <mergeCell ref="B222:F222"/>
-    <mergeCell ref="B223:F223"/>
-    <mergeCell ref="B224:F224"/>
-    <mergeCell ref="B225:F225"/>
-    <mergeCell ref="B226:F226"/>
-    <mergeCell ref="B227:F227"/>
-    <mergeCell ref="B252:F252"/>
-    <mergeCell ref="B253:F253"/>
-    <mergeCell ref="B254:F254"/>
-    <mergeCell ref="B255:F255"/>
-    <mergeCell ref="B256:F256"/>
-    <mergeCell ref="B257:F257"/>
-    <mergeCell ref="B246:F246"/>
-    <mergeCell ref="B247:F247"/>
-    <mergeCell ref="B248:F248"/>
-    <mergeCell ref="B249:F249"/>
-    <mergeCell ref="B250:F250"/>
-    <mergeCell ref="B251:F251"/>
-    <mergeCell ref="B240:F240"/>
-    <mergeCell ref="B241:F241"/>
-    <mergeCell ref="B242:F242"/>
-    <mergeCell ref="B243:F243"/>
-    <mergeCell ref="B244:F244"/>
-    <mergeCell ref="B245:F245"/>
-    <mergeCell ref="B270:F270"/>
-    <mergeCell ref="B271:F271"/>
-    <mergeCell ref="B272:F272"/>
-    <mergeCell ref="B273:F273"/>
-    <mergeCell ref="B274:F274"/>
-    <mergeCell ref="B275:F275"/>
-    <mergeCell ref="B264:F264"/>
-    <mergeCell ref="B265:F265"/>
-    <mergeCell ref="B266:F266"/>
-    <mergeCell ref="B267:F267"/>
-    <mergeCell ref="B268:F268"/>
-    <mergeCell ref="B269:F269"/>
-    <mergeCell ref="B258:F258"/>
-    <mergeCell ref="B259:F259"/>
-    <mergeCell ref="B260:F260"/>
-    <mergeCell ref="B261:F261"/>
-    <mergeCell ref="B262:F262"/>
-    <mergeCell ref="B263:F263"/>
-    <mergeCell ref="B288:F288"/>
-    <mergeCell ref="B289:F289"/>
-    <mergeCell ref="B290:F290"/>
-    <mergeCell ref="B291:F291"/>
-    <mergeCell ref="B292:F292"/>
-    <mergeCell ref="B293:F293"/>
-    <mergeCell ref="B282:F282"/>
-    <mergeCell ref="B283:F283"/>
-    <mergeCell ref="B284:F284"/>
-    <mergeCell ref="B285:F285"/>
-    <mergeCell ref="B286:F286"/>
-    <mergeCell ref="B287:F287"/>
-    <mergeCell ref="B276:F276"/>
-    <mergeCell ref="B277:F277"/>
-    <mergeCell ref="B278:F278"/>
-    <mergeCell ref="B279:F279"/>
-    <mergeCell ref="B280:F280"/>
-    <mergeCell ref="B281:F281"/>
-    <mergeCell ref="B306:F306"/>
-    <mergeCell ref="B307:F307"/>
-    <mergeCell ref="B308:F308"/>
-    <mergeCell ref="B309:F309"/>
-    <mergeCell ref="B310:F310"/>
-    <mergeCell ref="B311:F311"/>
-    <mergeCell ref="B300:F300"/>
-    <mergeCell ref="B301:F301"/>
-    <mergeCell ref="B302:F302"/>
-    <mergeCell ref="B303:F303"/>
-    <mergeCell ref="B304:F304"/>
-    <mergeCell ref="B305:F305"/>
-    <mergeCell ref="B294:F294"/>
-    <mergeCell ref="B295:F295"/>
-    <mergeCell ref="B296:F296"/>
-    <mergeCell ref="B297:F297"/>
-    <mergeCell ref="B298:F298"/>
-    <mergeCell ref="B299:F299"/>
-    <mergeCell ref="B324:F324"/>
-    <mergeCell ref="B325:F325"/>
-    <mergeCell ref="B326:F326"/>
-    <mergeCell ref="B327:F327"/>
-    <mergeCell ref="B328:F328"/>
-    <mergeCell ref="B329:F329"/>
-    <mergeCell ref="B318:F318"/>
-    <mergeCell ref="B319:F319"/>
-    <mergeCell ref="B320:F320"/>
-    <mergeCell ref="B321:F321"/>
-    <mergeCell ref="B322:F322"/>
-    <mergeCell ref="B323:F323"/>
-    <mergeCell ref="B312:F312"/>
-    <mergeCell ref="B313:F313"/>
-    <mergeCell ref="B314:F314"/>
-    <mergeCell ref="B315:F315"/>
-    <mergeCell ref="B316:F316"/>
-    <mergeCell ref="B317:F317"/>
-    <mergeCell ref="B342:F342"/>
-    <mergeCell ref="B343:F343"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="B345:F345"/>
-    <mergeCell ref="B346:F346"/>
-    <mergeCell ref="B347:F347"/>
-    <mergeCell ref="B336:F336"/>
-    <mergeCell ref="B337:F337"/>
-    <mergeCell ref="B338:F338"/>
-    <mergeCell ref="B339:F339"/>
-    <mergeCell ref="B340:F340"/>
-    <mergeCell ref="B341:F341"/>
-    <mergeCell ref="B330:F330"/>
-    <mergeCell ref="B331:F331"/>
-    <mergeCell ref="B332:F332"/>
-    <mergeCell ref="B333:F333"/>
-    <mergeCell ref="B334:F334"/>
-    <mergeCell ref="B335:F335"/>
-    <mergeCell ref="B360:F360"/>
-    <mergeCell ref="B361:F361"/>
-    <mergeCell ref="B362:F362"/>
-    <mergeCell ref="B363:F363"/>
-    <mergeCell ref="B364:F364"/>
-    <mergeCell ref="B365:F365"/>
-    <mergeCell ref="B354:F354"/>
-    <mergeCell ref="B355:F355"/>
-    <mergeCell ref="B356:F356"/>
-    <mergeCell ref="B357:F357"/>
-    <mergeCell ref="B358:F358"/>
-    <mergeCell ref="B359:F359"/>
-    <mergeCell ref="B348:F348"/>
-    <mergeCell ref="B349:F349"/>
-    <mergeCell ref="B350:F350"/>
-    <mergeCell ref="B351:F351"/>
-    <mergeCell ref="B352:F352"/>
-    <mergeCell ref="B353:F353"/>
-    <mergeCell ref="B378:F378"/>
-    <mergeCell ref="B379:F379"/>
-    <mergeCell ref="B380:F380"/>
-    <mergeCell ref="B381:F381"/>
-    <mergeCell ref="B382:F382"/>
-    <mergeCell ref="B383:F383"/>
-    <mergeCell ref="B372:F372"/>
-    <mergeCell ref="B373:F373"/>
-    <mergeCell ref="B374:F374"/>
-    <mergeCell ref="B375:F375"/>
-    <mergeCell ref="B376:F376"/>
-    <mergeCell ref="B377:F377"/>
-    <mergeCell ref="B366:F366"/>
-    <mergeCell ref="B367:F367"/>
-    <mergeCell ref="B368:F368"/>
-    <mergeCell ref="B369:F369"/>
-    <mergeCell ref="B370:F370"/>
-    <mergeCell ref="B371:F371"/>
-    <mergeCell ref="B396:F396"/>
-    <mergeCell ref="B397:F397"/>
-    <mergeCell ref="B398:F398"/>
-    <mergeCell ref="B399:F399"/>
-    <mergeCell ref="B400:F400"/>
-    <mergeCell ref="B401:F401"/>
-    <mergeCell ref="B390:F390"/>
-    <mergeCell ref="B391:F391"/>
-    <mergeCell ref="B392:F392"/>
-    <mergeCell ref="B393:F393"/>
-    <mergeCell ref="B394:F394"/>
-    <mergeCell ref="B395:F395"/>
-    <mergeCell ref="B384:F384"/>
-    <mergeCell ref="B385:F385"/>
-    <mergeCell ref="B386:F386"/>
-    <mergeCell ref="B387:F387"/>
-    <mergeCell ref="B388:F388"/>
-    <mergeCell ref="B389:F389"/>
-    <mergeCell ref="B414:F414"/>
-    <mergeCell ref="B415:F415"/>
-    <mergeCell ref="B416:F416"/>
-    <mergeCell ref="B417:F417"/>
-    <mergeCell ref="B418:F418"/>
-    <mergeCell ref="B419:F419"/>
-    <mergeCell ref="B408:F408"/>
-    <mergeCell ref="B409:F409"/>
-    <mergeCell ref="B410:F410"/>
-    <mergeCell ref="B411:F411"/>
-    <mergeCell ref="B412:F412"/>
-    <mergeCell ref="B413:F413"/>
-    <mergeCell ref="B402:F402"/>
-    <mergeCell ref="B403:F403"/>
-    <mergeCell ref="B404:F404"/>
-    <mergeCell ref="B405:F405"/>
-    <mergeCell ref="B406:F406"/>
-    <mergeCell ref="B407:F407"/>
-    <mergeCell ref="B432:F432"/>
-    <mergeCell ref="B433:F433"/>
-    <mergeCell ref="B434:F434"/>
-    <mergeCell ref="B435:F435"/>
-    <mergeCell ref="B436:F436"/>
-    <mergeCell ref="B437:F437"/>
-    <mergeCell ref="B426:F426"/>
-    <mergeCell ref="B427:F427"/>
-    <mergeCell ref="B428:F428"/>
-    <mergeCell ref="B429:F429"/>
-    <mergeCell ref="B430:F430"/>
-    <mergeCell ref="B431:F431"/>
-    <mergeCell ref="B420:F420"/>
-    <mergeCell ref="B421:F421"/>
-    <mergeCell ref="B422:F422"/>
-    <mergeCell ref="B423:F423"/>
-    <mergeCell ref="B424:F424"/>
-    <mergeCell ref="B425:F425"/>
-    <mergeCell ref="B450:F450"/>
-    <mergeCell ref="B451:F451"/>
-    <mergeCell ref="B452:F452"/>
-    <mergeCell ref="B453:F453"/>
-    <mergeCell ref="B454:F454"/>
-    <mergeCell ref="B455:F455"/>
-    <mergeCell ref="B444:F444"/>
-    <mergeCell ref="B445:F445"/>
-    <mergeCell ref="B446:F446"/>
-    <mergeCell ref="B447:F447"/>
-    <mergeCell ref="B448:F448"/>
-    <mergeCell ref="B449:F449"/>
-    <mergeCell ref="B438:F438"/>
-    <mergeCell ref="B439:F439"/>
-    <mergeCell ref="B440:F440"/>
-    <mergeCell ref="B441:F441"/>
-    <mergeCell ref="B442:F442"/>
-    <mergeCell ref="B443:F443"/>
-    <mergeCell ref="B468:F468"/>
-    <mergeCell ref="B469:F469"/>
-    <mergeCell ref="B470:F470"/>
-    <mergeCell ref="B471:F471"/>
-    <mergeCell ref="B472:F472"/>
-    <mergeCell ref="B473:F473"/>
-    <mergeCell ref="B462:F462"/>
-    <mergeCell ref="B463:F463"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="B465:F465"/>
-    <mergeCell ref="B466:F466"/>
-    <mergeCell ref="B467:F467"/>
-    <mergeCell ref="B456:F456"/>
-    <mergeCell ref="B457:F457"/>
-    <mergeCell ref="B458:F458"/>
-    <mergeCell ref="B459:F459"/>
-    <mergeCell ref="B460:F460"/>
-    <mergeCell ref="B461:F461"/>
-    <mergeCell ref="B486:F486"/>
-    <mergeCell ref="B487:F487"/>
-    <mergeCell ref="B488:F488"/>
-    <mergeCell ref="B489:F489"/>
-    <mergeCell ref="B490:F490"/>
-    <mergeCell ref="B491:F491"/>
-    <mergeCell ref="B480:F480"/>
-    <mergeCell ref="B481:F481"/>
-    <mergeCell ref="B482:F482"/>
-    <mergeCell ref="B483:F483"/>
-    <mergeCell ref="B484:F484"/>
-    <mergeCell ref="B485:F485"/>
-    <mergeCell ref="B474:F474"/>
-    <mergeCell ref="B475:F475"/>
-    <mergeCell ref="B476:F476"/>
-    <mergeCell ref="B477:F477"/>
-    <mergeCell ref="B478:F478"/>
-    <mergeCell ref="B479:F479"/>
-    <mergeCell ref="B504:F504"/>
-    <mergeCell ref="B505:F505"/>
-    <mergeCell ref="B506:F506"/>
-    <mergeCell ref="B507:F507"/>
-    <mergeCell ref="B508:F508"/>
-    <mergeCell ref="B509:F509"/>
-    <mergeCell ref="B498:F498"/>
-    <mergeCell ref="B499:F499"/>
-    <mergeCell ref="B500:F500"/>
-    <mergeCell ref="B501:F501"/>
-    <mergeCell ref="B502:F502"/>
-    <mergeCell ref="B503:F503"/>
-    <mergeCell ref="B492:F492"/>
-    <mergeCell ref="B493:F493"/>
-    <mergeCell ref="B494:F494"/>
-    <mergeCell ref="B495:F495"/>
-    <mergeCell ref="B496:F496"/>
-    <mergeCell ref="B497:F497"/>
-    <mergeCell ref="B522:F522"/>
-    <mergeCell ref="B523:F523"/>
-    <mergeCell ref="B524:F524"/>
-    <mergeCell ref="B525:F525"/>
-    <mergeCell ref="B526:F526"/>
-    <mergeCell ref="B527:F527"/>
-    <mergeCell ref="B516:F516"/>
-    <mergeCell ref="B517:F517"/>
-    <mergeCell ref="B518:F518"/>
-    <mergeCell ref="B519:F519"/>
-    <mergeCell ref="B520:F520"/>
-    <mergeCell ref="B521:F521"/>
-    <mergeCell ref="B510:F510"/>
-    <mergeCell ref="B511:F511"/>
-    <mergeCell ref="B512:F512"/>
-    <mergeCell ref="B513:F513"/>
-    <mergeCell ref="B514:F514"/>
-    <mergeCell ref="B515:F515"/>
-    <mergeCell ref="B540:F540"/>
-    <mergeCell ref="B541:F541"/>
-    <mergeCell ref="B542:F542"/>
-    <mergeCell ref="B543:F543"/>
-    <mergeCell ref="B544:F544"/>
-    <mergeCell ref="B545:F545"/>
-    <mergeCell ref="B534:F534"/>
-    <mergeCell ref="B535:F535"/>
-    <mergeCell ref="B536:F536"/>
-    <mergeCell ref="B537:F537"/>
-    <mergeCell ref="B538:F538"/>
-    <mergeCell ref="B539:F539"/>
-    <mergeCell ref="B528:F528"/>
-    <mergeCell ref="B529:F529"/>
-    <mergeCell ref="B530:F530"/>
-    <mergeCell ref="B531:F531"/>
-    <mergeCell ref="B532:F532"/>
-    <mergeCell ref="B533:F533"/>
-    <mergeCell ref="B558:F558"/>
-    <mergeCell ref="B559:F559"/>
-    <mergeCell ref="B560:F560"/>
-    <mergeCell ref="B561:F561"/>
-    <mergeCell ref="B562:F562"/>
-    <mergeCell ref="B563:F563"/>
-    <mergeCell ref="B552:F552"/>
-    <mergeCell ref="B553:F553"/>
-    <mergeCell ref="B554:F554"/>
-    <mergeCell ref="B555:F555"/>
-    <mergeCell ref="B556:F556"/>
-    <mergeCell ref="B557:F557"/>
-    <mergeCell ref="B546:F546"/>
-    <mergeCell ref="B547:F547"/>
-    <mergeCell ref="B548:F548"/>
-    <mergeCell ref="B549:F549"/>
-    <mergeCell ref="B550:F550"/>
-    <mergeCell ref="B551:F551"/>
-    <mergeCell ref="B576:F576"/>
-    <mergeCell ref="B577:F577"/>
-    <mergeCell ref="B578:F578"/>
-    <mergeCell ref="B579:F579"/>
-    <mergeCell ref="B580:F580"/>
-    <mergeCell ref="B581:F581"/>
-    <mergeCell ref="B570:F570"/>
-    <mergeCell ref="B571:F571"/>
-    <mergeCell ref="B572:F572"/>
-    <mergeCell ref="B573:F573"/>
-    <mergeCell ref="B574:F574"/>
-    <mergeCell ref="B575:F575"/>
-    <mergeCell ref="B564:F564"/>
-    <mergeCell ref="B565:F565"/>
-    <mergeCell ref="B566:F566"/>
-    <mergeCell ref="B567:F567"/>
-    <mergeCell ref="B568:F568"/>
-    <mergeCell ref="B569:F569"/>
-    <mergeCell ref="B594:F594"/>
-    <mergeCell ref="B595:F595"/>
-    <mergeCell ref="B596:F596"/>
-    <mergeCell ref="B597:F597"/>
-    <mergeCell ref="B598:F598"/>
-    <mergeCell ref="B599:F599"/>
-    <mergeCell ref="B588:F588"/>
-    <mergeCell ref="B589:F589"/>
-    <mergeCell ref="B590:F590"/>
-    <mergeCell ref="B591:F591"/>
-    <mergeCell ref="B592:F592"/>
-    <mergeCell ref="B593:F593"/>
-    <mergeCell ref="B582:F582"/>
-    <mergeCell ref="B583:F583"/>
-    <mergeCell ref="B584:F584"/>
-    <mergeCell ref="B585:F585"/>
-    <mergeCell ref="B586:F586"/>
-    <mergeCell ref="B587:F587"/>
-    <mergeCell ref="B612:F612"/>
-    <mergeCell ref="B613:F613"/>
-    <mergeCell ref="B614:F614"/>
-    <mergeCell ref="B615:F615"/>
-    <mergeCell ref="B616:F616"/>
-    <mergeCell ref="B617:F617"/>
-    <mergeCell ref="B606:F606"/>
-    <mergeCell ref="B607:F607"/>
-    <mergeCell ref="B608:F608"/>
-    <mergeCell ref="B609:F609"/>
-    <mergeCell ref="B610:F610"/>
-    <mergeCell ref="B611:F611"/>
-    <mergeCell ref="B600:F600"/>
-    <mergeCell ref="B601:F601"/>
-    <mergeCell ref="B602:F602"/>
-    <mergeCell ref="B603:F603"/>
-    <mergeCell ref="B604:F604"/>
-    <mergeCell ref="B605:F605"/>
-    <mergeCell ref="B630:F630"/>
-    <mergeCell ref="B631:F631"/>
-    <mergeCell ref="B632:F632"/>
-    <mergeCell ref="B633:F633"/>
-    <mergeCell ref="B634:F634"/>
-    <mergeCell ref="B635:F635"/>
-    <mergeCell ref="B624:F624"/>
-    <mergeCell ref="B625:F625"/>
-    <mergeCell ref="B626:F626"/>
-    <mergeCell ref="B627:F627"/>
-    <mergeCell ref="B628:F628"/>
-    <mergeCell ref="B629:F629"/>
-    <mergeCell ref="B618:F618"/>
-    <mergeCell ref="B619:F619"/>
-    <mergeCell ref="B620:F620"/>
-    <mergeCell ref="B621:F621"/>
-    <mergeCell ref="B622:F622"/>
-    <mergeCell ref="B623:F623"/>
-    <mergeCell ref="B648:F648"/>
-    <mergeCell ref="B649:F649"/>
-    <mergeCell ref="B650:F650"/>
-    <mergeCell ref="B651:F651"/>
-    <mergeCell ref="B652:F652"/>
-    <mergeCell ref="B653:F653"/>
-    <mergeCell ref="B642:F642"/>
-    <mergeCell ref="B643:F643"/>
-    <mergeCell ref="B644:F644"/>
-    <mergeCell ref="B645:F645"/>
-    <mergeCell ref="B646:F646"/>
-    <mergeCell ref="B647:F647"/>
-    <mergeCell ref="B636:F636"/>
-    <mergeCell ref="B637:F637"/>
-    <mergeCell ref="B638:F638"/>
-    <mergeCell ref="B639:F639"/>
-    <mergeCell ref="B640:F640"/>
-    <mergeCell ref="B641:F641"/>
-    <mergeCell ref="B666:F666"/>
-    <mergeCell ref="B667:F667"/>
-    <mergeCell ref="B668:F668"/>
-    <mergeCell ref="B669:F669"/>
-    <mergeCell ref="B670:F670"/>
-    <mergeCell ref="B671:F671"/>
-    <mergeCell ref="B660:F660"/>
-    <mergeCell ref="B661:F661"/>
-    <mergeCell ref="B662:F662"/>
-    <mergeCell ref="B663:F663"/>
-    <mergeCell ref="B664:F664"/>
-    <mergeCell ref="B665:F665"/>
-    <mergeCell ref="B654:F654"/>
-    <mergeCell ref="B655:F655"/>
-    <mergeCell ref="B656:F656"/>
-    <mergeCell ref="B657:F657"/>
-    <mergeCell ref="B658:F658"/>
-    <mergeCell ref="B659:F659"/>
-    <mergeCell ref="B684:F684"/>
-    <mergeCell ref="B685:F685"/>
-    <mergeCell ref="B686:F686"/>
-    <mergeCell ref="B687:F687"/>
-    <mergeCell ref="B688:F688"/>
-    <mergeCell ref="B689:F689"/>
-    <mergeCell ref="B678:F678"/>
-    <mergeCell ref="B679:F679"/>
-    <mergeCell ref="B680:F680"/>
-    <mergeCell ref="B681:F681"/>
-    <mergeCell ref="B682:F682"/>
-    <mergeCell ref="B683:F683"/>
-    <mergeCell ref="B672:F672"/>
-    <mergeCell ref="B673:F673"/>
-    <mergeCell ref="B674:F674"/>
-    <mergeCell ref="B675:F675"/>
-    <mergeCell ref="B676:F676"/>
-    <mergeCell ref="B677:F677"/>
-    <mergeCell ref="B702:F702"/>
-    <mergeCell ref="B703:F703"/>
-    <mergeCell ref="B704:F704"/>
-    <mergeCell ref="B705:F705"/>
-    <mergeCell ref="B706:F706"/>
-    <mergeCell ref="B707:F707"/>
-    <mergeCell ref="B696:F696"/>
-    <mergeCell ref="B697:F697"/>
-    <mergeCell ref="B698:F698"/>
-    <mergeCell ref="B699:F699"/>
-    <mergeCell ref="B700:F700"/>
-    <mergeCell ref="B701:F701"/>
-    <mergeCell ref="B690:F690"/>
-    <mergeCell ref="B691:F691"/>
-    <mergeCell ref="B692:F692"/>
-    <mergeCell ref="B693:F693"/>
-    <mergeCell ref="B694:F694"/>
-    <mergeCell ref="B695:F695"/>
-    <mergeCell ref="B720:F720"/>
-    <mergeCell ref="B721:F721"/>
-    <mergeCell ref="B722:F722"/>
-    <mergeCell ref="B723:F723"/>
-    <mergeCell ref="B724:F724"/>
-    <mergeCell ref="B725:F725"/>
-    <mergeCell ref="B714:F714"/>
-    <mergeCell ref="B715:F715"/>
-    <mergeCell ref="B716:F716"/>
-    <mergeCell ref="B717:F717"/>
-    <mergeCell ref="B718:F718"/>
-    <mergeCell ref="B719:F719"/>
-    <mergeCell ref="B708:F708"/>
-    <mergeCell ref="B709:F709"/>
-    <mergeCell ref="B710:F710"/>
-    <mergeCell ref="B711:F711"/>
-    <mergeCell ref="B712:F712"/>
-    <mergeCell ref="B713:F713"/>
-    <mergeCell ref="B738:F738"/>
-    <mergeCell ref="B739:F739"/>
-    <mergeCell ref="B740:F740"/>
-    <mergeCell ref="B741:F741"/>
-    <mergeCell ref="B742:F742"/>
-    <mergeCell ref="B743:F743"/>
-    <mergeCell ref="B732:F732"/>
-    <mergeCell ref="B733:F733"/>
-    <mergeCell ref="B734:F734"/>
-    <mergeCell ref="B735:F735"/>
-    <mergeCell ref="B736:F736"/>
-    <mergeCell ref="B737:F737"/>
-    <mergeCell ref="B726:F726"/>
-    <mergeCell ref="B727:F727"/>
-    <mergeCell ref="B728:F728"/>
-    <mergeCell ref="B729:F729"/>
-    <mergeCell ref="B730:F730"/>
-    <mergeCell ref="B731:F731"/>
-    <mergeCell ref="B756:F756"/>
-    <mergeCell ref="B757:F757"/>
-    <mergeCell ref="B758:F758"/>
-    <mergeCell ref="B759:F759"/>
-    <mergeCell ref="B760:F760"/>
-    <mergeCell ref="B761:F761"/>
-    <mergeCell ref="B750:F750"/>
-    <mergeCell ref="B751:F751"/>
-    <mergeCell ref="B752:F752"/>
-    <mergeCell ref="B753:F753"/>
-    <mergeCell ref="B754:F754"/>
-    <mergeCell ref="B755:F755"/>
-    <mergeCell ref="B744:F744"/>
-    <mergeCell ref="B745:F745"/>
-    <mergeCell ref="B746:F746"/>
-    <mergeCell ref="B747:F747"/>
-    <mergeCell ref="B748:F748"/>
-    <mergeCell ref="B749:F749"/>
-    <mergeCell ref="B774:F774"/>
-    <mergeCell ref="B775:F775"/>
-    <mergeCell ref="B776:F776"/>
-    <mergeCell ref="B777:F777"/>
-    <mergeCell ref="B778:F778"/>
-    <mergeCell ref="B779:F779"/>
-    <mergeCell ref="B768:F768"/>
-    <mergeCell ref="B769:F769"/>
-    <mergeCell ref="B770:F770"/>
-    <mergeCell ref="B771:F771"/>
-    <mergeCell ref="B772:F772"/>
-    <mergeCell ref="B773:F773"/>
-    <mergeCell ref="B762:F762"/>
-    <mergeCell ref="B763:F763"/>
-    <mergeCell ref="B764:F764"/>
-    <mergeCell ref="B765:F765"/>
-    <mergeCell ref="B766:F766"/>
-    <mergeCell ref="B767:F767"/>
-    <mergeCell ref="B792:F792"/>
-    <mergeCell ref="B793:F793"/>
-    <mergeCell ref="B794:F794"/>
-    <mergeCell ref="B795:F795"/>
-    <mergeCell ref="B796:F796"/>
-    <mergeCell ref="B797:F797"/>
-    <mergeCell ref="B786:F786"/>
-    <mergeCell ref="B787:F787"/>
-    <mergeCell ref="B788:F788"/>
-    <mergeCell ref="B789:F789"/>
-    <mergeCell ref="B790:F790"/>
-    <mergeCell ref="B791:F791"/>
-    <mergeCell ref="B780:F780"/>
-    <mergeCell ref="B781:F781"/>
-    <mergeCell ref="B782:F782"/>
-    <mergeCell ref="B783:F783"/>
-    <mergeCell ref="B784:F784"/>
-    <mergeCell ref="B785:F785"/>
-    <mergeCell ref="B810:F810"/>
-    <mergeCell ref="B811:F811"/>
-    <mergeCell ref="B812:F812"/>
-    <mergeCell ref="B813:F813"/>
-    <mergeCell ref="B814:F814"/>
-    <mergeCell ref="B815:F815"/>
-    <mergeCell ref="B804:F804"/>
-    <mergeCell ref="B805:F805"/>
-    <mergeCell ref="B806:F806"/>
-    <mergeCell ref="B807:F807"/>
-    <mergeCell ref="B808:F808"/>
-    <mergeCell ref="B809:F809"/>
-    <mergeCell ref="B798:F798"/>
-    <mergeCell ref="B799:F799"/>
-    <mergeCell ref="B800:F800"/>
-    <mergeCell ref="B801:F801"/>
-    <mergeCell ref="B802:F802"/>
-    <mergeCell ref="B803:F803"/>
-    <mergeCell ref="B828:F828"/>
-    <mergeCell ref="B829:F829"/>
-    <mergeCell ref="B830:F830"/>
-    <mergeCell ref="B831:F831"/>
-    <mergeCell ref="B832:F832"/>
-    <mergeCell ref="B833:F833"/>
-    <mergeCell ref="B822:F822"/>
-    <mergeCell ref="B823:F823"/>
-    <mergeCell ref="B824:F824"/>
-    <mergeCell ref="B825:F825"/>
-    <mergeCell ref="B826:F826"/>
-    <mergeCell ref="B827:F827"/>
-    <mergeCell ref="B816:F816"/>
-    <mergeCell ref="B817:F817"/>
-    <mergeCell ref="B818:F818"/>
-    <mergeCell ref="B819:F819"/>
-    <mergeCell ref="B820:F820"/>
-    <mergeCell ref="B821:F821"/>
-    <mergeCell ref="B846:F846"/>
-    <mergeCell ref="B847:F847"/>
-    <mergeCell ref="B848:F848"/>
-    <mergeCell ref="B849:F849"/>
-    <mergeCell ref="B850:F850"/>
-    <mergeCell ref="B851:F851"/>
-    <mergeCell ref="B840:F840"/>
-    <mergeCell ref="B841:F841"/>
-    <mergeCell ref="B842:F842"/>
-    <mergeCell ref="B843:F843"/>
-    <mergeCell ref="B844:F844"/>
-    <mergeCell ref="B845:F845"/>
-    <mergeCell ref="B834:F834"/>
-    <mergeCell ref="B835:F835"/>
-    <mergeCell ref="B836:F836"/>
-    <mergeCell ref="B837:F837"/>
-    <mergeCell ref="B838:F838"/>
-    <mergeCell ref="B839:F839"/>
-    <mergeCell ref="B864:F864"/>
-    <mergeCell ref="B865:F865"/>
-    <mergeCell ref="B866:F866"/>
-    <mergeCell ref="B867:F867"/>
-    <mergeCell ref="B868:F868"/>
-    <mergeCell ref="B869:F869"/>
-    <mergeCell ref="B858:F858"/>
-    <mergeCell ref="B859:F859"/>
-    <mergeCell ref="B860:F860"/>
-    <mergeCell ref="B861:F861"/>
-    <mergeCell ref="B862:F862"/>
-    <mergeCell ref="B863:F863"/>
-    <mergeCell ref="B852:F852"/>
-    <mergeCell ref="B853:F853"/>
-    <mergeCell ref="B854:F854"/>
-    <mergeCell ref="B855:F855"/>
-    <mergeCell ref="B856:F856"/>
-    <mergeCell ref="B857:F857"/>
-    <mergeCell ref="B882:F882"/>
-    <mergeCell ref="B883:F883"/>
-    <mergeCell ref="B884:F884"/>
-    <mergeCell ref="B885:F885"/>
-    <mergeCell ref="B886:F886"/>
-    <mergeCell ref="B887:F887"/>
-    <mergeCell ref="B876:F876"/>
-    <mergeCell ref="B877:F877"/>
-    <mergeCell ref="B878:F878"/>
-    <mergeCell ref="B879:F879"/>
-    <mergeCell ref="B880:F880"/>
-    <mergeCell ref="B881:F881"/>
-    <mergeCell ref="B870:F870"/>
-    <mergeCell ref="B871:F871"/>
-    <mergeCell ref="B872:F872"/>
-    <mergeCell ref="B873:F873"/>
-    <mergeCell ref="B874:F874"/>
-    <mergeCell ref="B875:F875"/>
-    <mergeCell ref="B900:F900"/>
-    <mergeCell ref="B901:F901"/>
-    <mergeCell ref="B902:F902"/>
-    <mergeCell ref="B903:F903"/>
-    <mergeCell ref="B904:F904"/>
-    <mergeCell ref="B905:F905"/>
-    <mergeCell ref="B894:F894"/>
-    <mergeCell ref="B895:F895"/>
-    <mergeCell ref="B896:F896"/>
-    <mergeCell ref="B897:F897"/>
-    <mergeCell ref="B898:F898"/>
-    <mergeCell ref="B899:F899"/>
-    <mergeCell ref="B888:F888"/>
-    <mergeCell ref="B889:F889"/>
-    <mergeCell ref="B890:F890"/>
-    <mergeCell ref="B891:F891"/>
-    <mergeCell ref="B892:F892"/>
-    <mergeCell ref="B893:F893"/>
-    <mergeCell ref="B918:F918"/>
-    <mergeCell ref="B919:F919"/>
-    <mergeCell ref="B920:F920"/>
-    <mergeCell ref="B921:F921"/>
-    <mergeCell ref="B922:F922"/>
-    <mergeCell ref="B923:F923"/>
-    <mergeCell ref="B912:F912"/>
-    <mergeCell ref="B913:F913"/>
-    <mergeCell ref="B914:F914"/>
-    <mergeCell ref="B915:F915"/>
-    <mergeCell ref="B916:F916"/>
-    <mergeCell ref="B917:F917"/>
-    <mergeCell ref="B906:F906"/>
-    <mergeCell ref="B907:F907"/>
-    <mergeCell ref="B908:F908"/>
-    <mergeCell ref="B909:F909"/>
-    <mergeCell ref="B910:F910"/>
-    <mergeCell ref="B911:F911"/>
-    <mergeCell ref="B936:F936"/>
-    <mergeCell ref="B937:F937"/>
-    <mergeCell ref="B938:F938"/>
-    <mergeCell ref="B939:F939"/>
-    <mergeCell ref="B940:F940"/>
-    <mergeCell ref="B941:F941"/>
-    <mergeCell ref="B930:F930"/>
-    <mergeCell ref="B931:F931"/>
-    <mergeCell ref="B932:F932"/>
-    <mergeCell ref="B933:F933"/>
-    <mergeCell ref="B934:F934"/>
-    <mergeCell ref="B935:F935"/>
-    <mergeCell ref="B924:F924"/>
-    <mergeCell ref="B925:F925"/>
-    <mergeCell ref="B926:F926"/>
-    <mergeCell ref="B927:F927"/>
-    <mergeCell ref="B928:F928"/>
-    <mergeCell ref="B929:F929"/>
-    <mergeCell ref="B954:F954"/>
-    <mergeCell ref="B955:F955"/>
-    <mergeCell ref="B956:F956"/>
-    <mergeCell ref="B957:F957"/>
-    <mergeCell ref="B958:F958"/>
-    <mergeCell ref="B959:F959"/>
-    <mergeCell ref="B948:F948"/>
-    <mergeCell ref="B949:F949"/>
-    <mergeCell ref="B950:F950"/>
-    <mergeCell ref="B951:F951"/>
-    <mergeCell ref="B952:F952"/>
-    <mergeCell ref="B953:F953"/>
-    <mergeCell ref="B942:F942"/>
-    <mergeCell ref="B943:F943"/>
-    <mergeCell ref="B944:F944"/>
-    <mergeCell ref="B945:F945"/>
-    <mergeCell ref="B946:F946"/>
-    <mergeCell ref="B947:F947"/>
-    <mergeCell ref="B972:F972"/>
-    <mergeCell ref="B973:F973"/>
-    <mergeCell ref="B974:F974"/>
-    <mergeCell ref="B975:F975"/>
-    <mergeCell ref="B976:F976"/>
-    <mergeCell ref="B977:F977"/>
-    <mergeCell ref="B966:F966"/>
-    <mergeCell ref="B967:F967"/>
-    <mergeCell ref="B968:F968"/>
-    <mergeCell ref="B969:F969"/>
-    <mergeCell ref="B970:F970"/>
-    <mergeCell ref="B971:F971"/>
-    <mergeCell ref="B960:F960"/>
-    <mergeCell ref="B961:F961"/>
-    <mergeCell ref="B962:F962"/>
-    <mergeCell ref="B963:F963"/>
-    <mergeCell ref="B964:F964"/>
-    <mergeCell ref="B965:F965"/>
-    <mergeCell ref="B990:F990"/>
-    <mergeCell ref="B991:F991"/>
-    <mergeCell ref="B992:F992"/>
-    <mergeCell ref="B993:F993"/>
-    <mergeCell ref="B994:F994"/>
-    <mergeCell ref="B995:F995"/>
-    <mergeCell ref="B984:F984"/>
-    <mergeCell ref="B985:F985"/>
-    <mergeCell ref="B986:F986"/>
-    <mergeCell ref="B987:F987"/>
-    <mergeCell ref="B988:F988"/>
-    <mergeCell ref="B989:F989"/>
-    <mergeCell ref="B978:F978"/>
-    <mergeCell ref="B979:F979"/>
-    <mergeCell ref="B980:F980"/>
-    <mergeCell ref="B981:F981"/>
-    <mergeCell ref="B982:F982"/>
-    <mergeCell ref="B983:F983"/>
-    <mergeCell ref="B1008:F1008"/>
-    <mergeCell ref="B1009:F1009"/>
-    <mergeCell ref="B1010:F1010"/>
-    <mergeCell ref="B1011:F1011"/>
-    <mergeCell ref="B1012:F1012"/>
-    <mergeCell ref="B1013:F1013"/>
-    <mergeCell ref="B1002:F1002"/>
-    <mergeCell ref="B1003:F1003"/>
-    <mergeCell ref="B1004:F1004"/>
-    <mergeCell ref="B1005:F1005"/>
-    <mergeCell ref="B1006:F1006"/>
-    <mergeCell ref="B1007:F1007"/>
-    <mergeCell ref="B996:F996"/>
-    <mergeCell ref="B997:F997"/>
-    <mergeCell ref="B998:F998"/>
-    <mergeCell ref="B999:F999"/>
-    <mergeCell ref="B1000:F1000"/>
-    <mergeCell ref="B1001:F1001"/>
-    <mergeCell ref="B1026:F1026"/>
-    <mergeCell ref="B1027:F1027"/>
-    <mergeCell ref="B1028:F1028"/>
-    <mergeCell ref="B1029:F1029"/>
-    <mergeCell ref="B1030:F1030"/>
-    <mergeCell ref="B1031:F1031"/>
-    <mergeCell ref="B1020:F1020"/>
-    <mergeCell ref="B1021:F1021"/>
-    <mergeCell ref="B1022:F1022"/>
-    <mergeCell ref="B1023:F1023"/>
-    <mergeCell ref="B1024:F1024"/>
-    <mergeCell ref="B1025:F1025"/>
-    <mergeCell ref="B1014:F1014"/>
-    <mergeCell ref="B1015:F1015"/>
-    <mergeCell ref="B1016:F1016"/>
-    <mergeCell ref="B1017:F1017"/>
-    <mergeCell ref="B1018:F1018"/>
-    <mergeCell ref="B1019:F1019"/>
-    <mergeCell ref="B1044:F1044"/>
-    <mergeCell ref="B1045:F1045"/>
-    <mergeCell ref="B1046:F1046"/>
-    <mergeCell ref="B1047:F1047"/>
-    <mergeCell ref="B1048:F1048"/>
-    <mergeCell ref="B1049:F1049"/>
-    <mergeCell ref="B1038:F1038"/>
-    <mergeCell ref="B1039:F1039"/>
-    <mergeCell ref="B1040:F1040"/>
-    <mergeCell ref="B1041:F1041"/>
-    <mergeCell ref="B1042:F1042"/>
-    <mergeCell ref="B1043:F1043"/>
-    <mergeCell ref="B1032:F1032"/>
-    <mergeCell ref="B1033:F1033"/>
-    <mergeCell ref="B1034:F1034"/>
-    <mergeCell ref="B1035:F1035"/>
-    <mergeCell ref="B1036:F1036"/>
-    <mergeCell ref="B1037:F1037"/>
-    <mergeCell ref="B1062:F1062"/>
-    <mergeCell ref="B1063:F1063"/>
-    <mergeCell ref="B1064:F1064"/>
-    <mergeCell ref="B1065:F1065"/>
-    <mergeCell ref="B1066:F1066"/>
-    <mergeCell ref="B1067:F1067"/>
-    <mergeCell ref="B1056:F1056"/>
-    <mergeCell ref="B1057:F1057"/>
-    <mergeCell ref="B1058:F1058"/>
-    <mergeCell ref="B1059:F1059"/>
-    <mergeCell ref="B1060:F1060"/>
-    <mergeCell ref="B1061:F1061"/>
-    <mergeCell ref="B1050:F1050"/>
-    <mergeCell ref="B1051:F1051"/>
-    <mergeCell ref="B1052:F1052"/>
-    <mergeCell ref="B1053:F1053"/>
-    <mergeCell ref="B1054:F1054"/>
-    <mergeCell ref="B1055:F1055"/>
-    <mergeCell ref="B1080:F1080"/>
-    <mergeCell ref="B1081:F1081"/>
-    <mergeCell ref="B1082:F1082"/>
-    <mergeCell ref="B1083:F1083"/>
-    <mergeCell ref="B1084:F1084"/>
-    <mergeCell ref="B1085:F1085"/>
-    <mergeCell ref="B1074:F1074"/>
-    <mergeCell ref="B1075:F1075"/>
-    <mergeCell ref="B1076:F1076"/>
-    <mergeCell ref="B1077:F1077"/>
-    <mergeCell ref="B1078:F1078"/>
-    <mergeCell ref="B1079:F1079"/>
-    <mergeCell ref="B1068:F1068"/>
-    <mergeCell ref="B1069:F1069"/>
-    <mergeCell ref="B1070:F1070"/>
-    <mergeCell ref="B1071:F1071"/>
-    <mergeCell ref="B1072:F1072"/>
-    <mergeCell ref="B1073:F1073"/>
-    <mergeCell ref="B1098:F1098"/>
-    <mergeCell ref="B1099:F1099"/>
-    <mergeCell ref="B1100:F1100"/>
-    <mergeCell ref="B1101:F1101"/>
-    <mergeCell ref="B1102:F1102"/>
-    <mergeCell ref="B1103:F1103"/>
-    <mergeCell ref="B1092:F1092"/>
-    <mergeCell ref="B1093:F1093"/>
-    <mergeCell ref="B1094:F1094"/>
-    <mergeCell ref="B1095:F1095"/>
-    <mergeCell ref="B1096:F1096"/>
-    <mergeCell ref="B1097:F1097"/>
-    <mergeCell ref="B1086:F1086"/>
-    <mergeCell ref="B1087:F1087"/>
-    <mergeCell ref="B1088:F1088"/>
-    <mergeCell ref="B1089:F1089"/>
-    <mergeCell ref="B1090:F1090"/>
-    <mergeCell ref="B1091:F1091"/>
-    <mergeCell ref="B1116:F1116"/>
-    <mergeCell ref="B1117:F1117"/>
-    <mergeCell ref="B1118:F1118"/>
-    <mergeCell ref="B1119:F1119"/>
-    <mergeCell ref="B1120:F1120"/>
-    <mergeCell ref="B1121:F1121"/>
-    <mergeCell ref="B1110:F1110"/>
-    <mergeCell ref="B1111:F1111"/>
-    <mergeCell ref="B1112:F1112"/>
-    <mergeCell ref="B1113:F1113"/>
-    <mergeCell ref="B1114:F1114"/>
-    <mergeCell ref="B1115:F1115"/>
-    <mergeCell ref="B1104:F1104"/>
-    <mergeCell ref="B1105:F1105"/>
-    <mergeCell ref="B1106:F1106"/>
-    <mergeCell ref="B1107:F1107"/>
-    <mergeCell ref="B1108:F1108"/>
-    <mergeCell ref="B1109:F1109"/>
-    <mergeCell ref="B1134:F1134"/>
-    <mergeCell ref="B1135:F1135"/>
-    <mergeCell ref="B1136:F1136"/>
-    <mergeCell ref="B1137:F1137"/>
-    <mergeCell ref="B1138:F1138"/>
-    <mergeCell ref="B1139:F1139"/>
-    <mergeCell ref="B1128:F1128"/>
-    <mergeCell ref="B1129:F1129"/>
-    <mergeCell ref="B1130:F1130"/>
-    <mergeCell ref="B1131:F1131"/>
-    <mergeCell ref="B1132:F1132"/>
-    <mergeCell ref="B1133:F1133"/>
-    <mergeCell ref="B1122:F1122"/>
-    <mergeCell ref="B1123:F1123"/>
-    <mergeCell ref="B1124:F1124"/>
-    <mergeCell ref="B1125:F1125"/>
-    <mergeCell ref="B1126:F1126"/>
-    <mergeCell ref="B1127:F1127"/>
-    <mergeCell ref="B1152:F1152"/>
-    <mergeCell ref="B1153:F1153"/>
-    <mergeCell ref="B1154:F1154"/>
-    <mergeCell ref="B1155:F1155"/>
-    <mergeCell ref="B1156:F1156"/>
-    <mergeCell ref="B1157:F1157"/>
-    <mergeCell ref="B1146:F1146"/>
-    <mergeCell ref="B1147:F1147"/>
-    <mergeCell ref="B1148:F1148"/>
-    <mergeCell ref="B1149:F1149"/>
-    <mergeCell ref="B1150:F1150"/>
-    <mergeCell ref="B1151:F1151"/>
-    <mergeCell ref="B1140:F1140"/>
-    <mergeCell ref="B1141:F1141"/>
-    <mergeCell ref="B1142:F1142"/>
-    <mergeCell ref="B1143:F1143"/>
-    <mergeCell ref="B1144:F1144"/>
-    <mergeCell ref="B1145:F1145"/>
-    <mergeCell ref="B1170:F1170"/>
-    <mergeCell ref="B1171:F1171"/>
-    <mergeCell ref="B1172:F1172"/>
-    <mergeCell ref="B1173:F1173"/>
-    <mergeCell ref="B1174:F1174"/>
-    <mergeCell ref="B1175:F1175"/>
-    <mergeCell ref="B1164:F1164"/>
-    <mergeCell ref="B1165:F1165"/>
-    <mergeCell ref="B1166:F1166"/>
-    <mergeCell ref="B1167:F1167"/>
-    <mergeCell ref="B1168:F1168"/>
-    <mergeCell ref="B1169:F1169"/>
-    <mergeCell ref="B1158:F1158"/>
-    <mergeCell ref="B1159:F1159"/>
-    <mergeCell ref="B1160:F1160"/>
-    <mergeCell ref="B1161:F1161"/>
-    <mergeCell ref="B1162:F1162"/>
-    <mergeCell ref="B1163:F1163"/>
-    <mergeCell ref="B1188:F1188"/>
-    <mergeCell ref="B1189:F1189"/>
-    <mergeCell ref="B1190:F1190"/>
-    <mergeCell ref="B1191:F1191"/>
-    <mergeCell ref="B1192:F1192"/>
-    <mergeCell ref="B1193:F1193"/>
-    <mergeCell ref="B1182:F1182"/>
-    <mergeCell ref="B1183:F1183"/>
-    <mergeCell ref="B1184:F1184"/>
-    <mergeCell ref="B1185:F1185"/>
-    <mergeCell ref="B1186:F1186"/>
-    <mergeCell ref="B1187:F1187"/>
-    <mergeCell ref="B1176:F1176"/>
-    <mergeCell ref="B1177:F1177"/>
-    <mergeCell ref="B1178:F1178"/>
-    <mergeCell ref="B1179:F1179"/>
-    <mergeCell ref="B1180:F1180"/>
-    <mergeCell ref="B1181:F1181"/>
-    <mergeCell ref="B1206:F1206"/>
-    <mergeCell ref="B1207:F1207"/>
-    <mergeCell ref="B1208:F1208"/>
-    <mergeCell ref="B1209:F1209"/>
-    <mergeCell ref="B1210:F1210"/>
-    <mergeCell ref="B1211:F1211"/>
-    <mergeCell ref="B1200:F1200"/>
-    <mergeCell ref="B1201:F1201"/>
-    <mergeCell ref="B1202:F1202"/>
-    <mergeCell ref="B1203:F1203"/>
-    <mergeCell ref="B1204:F1204"/>
-    <mergeCell ref="B1205:F1205"/>
-    <mergeCell ref="B1194:F1194"/>
-    <mergeCell ref="B1195:F1195"/>
-    <mergeCell ref="B1196:F1196"/>
-    <mergeCell ref="B1197:F1197"/>
-    <mergeCell ref="B1198:F1198"/>
-    <mergeCell ref="B1199:F1199"/>
-    <mergeCell ref="B1224:F1224"/>
-    <mergeCell ref="B1225:F1225"/>
-    <mergeCell ref="B1226:F1226"/>
-    <mergeCell ref="B1227:F1227"/>
-    <mergeCell ref="B1228:F1228"/>
-    <mergeCell ref="B1229:F1229"/>
-    <mergeCell ref="B1218:F1218"/>
-    <mergeCell ref="B1219:F1219"/>
-    <mergeCell ref="B1220:F1220"/>
-    <mergeCell ref="B1221:F1221"/>
-    <mergeCell ref="B1222:F1222"/>
-    <mergeCell ref="B1223:F1223"/>
-    <mergeCell ref="B1212:F1212"/>
-    <mergeCell ref="B1213:F1213"/>
-    <mergeCell ref="B1214:F1214"/>
-    <mergeCell ref="B1215:F1215"/>
-    <mergeCell ref="B1216:F1216"/>
-    <mergeCell ref="B1217:F1217"/>
-    <mergeCell ref="B1242:F1242"/>
-    <mergeCell ref="B1243:F1243"/>
-    <mergeCell ref="B1244:F1244"/>
-    <mergeCell ref="B1245:F1245"/>
-    <mergeCell ref="B1246:F1246"/>
-    <mergeCell ref="B1247:F1247"/>
-    <mergeCell ref="B1236:F1236"/>
-    <mergeCell ref="B1237:F1237"/>
-    <mergeCell ref="B1238:F1238"/>
-    <mergeCell ref="B1239:F1239"/>
-    <mergeCell ref="B1240:F1240"/>
-    <mergeCell ref="B1241:F1241"/>
-    <mergeCell ref="B1230:F1230"/>
-    <mergeCell ref="B1231:F1231"/>
-    <mergeCell ref="B1232:F1232"/>
-    <mergeCell ref="B1233:F1233"/>
-    <mergeCell ref="B1234:F1234"/>
-    <mergeCell ref="B1235:F1235"/>
-    <mergeCell ref="B1260:F1260"/>
-    <mergeCell ref="B1261:F1261"/>
-    <mergeCell ref="B1262:F1262"/>
-    <mergeCell ref="B1263:F1263"/>
-    <mergeCell ref="B1264:F1264"/>
-    <mergeCell ref="B1265:F1265"/>
-    <mergeCell ref="B1254:F1254"/>
-    <mergeCell ref="B1255:F1255"/>
-    <mergeCell ref="B1256:F1256"/>
-    <mergeCell ref="B1257:F1257"/>
-    <mergeCell ref="B1258:F1258"/>
-    <mergeCell ref="B1259:F1259"/>
-    <mergeCell ref="B1248:F1248"/>
-    <mergeCell ref="B1249:F1249"/>
-    <mergeCell ref="B1250:F1250"/>
-    <mergeCell ref="B1251:F1251"/>
-    <mergeCell ref="B1252:F1252"/>
-    <mergeCell ref="B1253:F1253"/>
-    <mergeCell ref="B1278:F1278"/>
-    <mergeCell ref="B1279:F1279"/>
-    <mergeCell ref="B1280:F1280"/>
-    <mergeCell ref="B1281:F1281"/>
-    <mergeCell ref="B1282:F1282"/>
-    <mergeCell ref="B1283:F1283"/>
-    <mergeCell ref="B1272:F1272"/>
-    <mergeCell ref="B1273:F1273"/>
-    <mergeCell ref="B1274:F1274"/>
-    <mergeCell ref="B1275:F1275"/>
-    <mergeCell ref="B1276:F1276"/>
-    <mergeCell ref="B1277:F1277"/>
-    <mergeCell ref="B1266:F1266"/>
-    <mergeCell ref="B1267:F1267"/>
-    <mergeCell ref="B1268:F1268"/>
-    <mergeCell ref="B1269:F1269"/>
-    <mergeCell ref="B1270:F1270"/>
-    <mergeCell ref="B1271:F1271"/>
-    <mergeCell ref="B1296:F1296"/>
-    <mergeCell ref="B1297:F1297"/>
-    <mergeCell ref="B1298:F1298"/>
-    <mergeCell ref="B1299:F1299"/>
-    <mergeCell ref="B1300:F1300"/>
-    <mergeCell ref="B1301:F1301"/>
-    <mergeCell ref="B1290:F1290"/>
-    <mergeCell ref="B1291:F1291"/>
-    <mergeCell ref="B1292:F1292"/>
-    <mergeCell ref="B1293:F1293"/>
-    <mergeCell ref="B1294:F1294"/>
-    <mergeCell ref="B1295:F1295"/>
-    <mergeCell ref="B1284:F1284"/>
-    <mergeCell ref="B1285:F1285"/>
-    <mergeCell ref="B1286:F1286"/>
-    <mergeCell ref="B1287:F1287"/>
-    <mergeCell ref="B1288:F1288"/>
-    <mergeCell ref="B1289:F1289"/>
-    <mergeCell ref="B1314:F1314"/>
-    <mergeCell ref="B1315:F1315"/>
-    <mergeCell ref="B1316:F1316"/>
-    <mergeCell ref="B1317:F1317"/>
-    <mergeCell ref="B1318:F1318"/>
-    <mergeCell ref="B1319:F1319"/>
-    <mergeCell ref="B1308:F1308"/>
-    <mergeCell ref="B1309:F1309"/>
-    <mergeCell ref="B1310:F1310"/>
-    <mergeCell ref="B1311:F1311"/>
-    <mergeCell ref="B1312:F1312"/>
-    <mergeCell ref="B1313:F1313"/>
-    <mergeCell ref="B1302:F1302"/>
-    <mergeCell ref="B1303:F1303"/>
-    <mergeCell ref="B1304:F1304"/>
-    <mergeCell ref="B1305:F1305"/>
-    <mergeCell ref="B1306:F1306"/>
-    <mergeCell ref="B1307:F1307"/>
-    <mergeCell ref="B1332:F1332"/>
-    <mergeCell ref="B1333:F1333"/>
-    <mergeCell ref="B1334:F1334"/>
-    <mergeCell ref="B1335:F1335"/>
-    <mergeCell ref="B1336:F1336"/>
-    <mergeCell ref="B1337:F1337"/>
-    <mergeCell ref="B1326:F1326"/>
-    <mergeCell ref="B1327:F1327"/>
-    <mergeCell ref="B1328:F1328"/>
-    <mergeCell ref="B1329:F1329"/>
-    <mergeCell ref="B1330:F1330"/>
-    <mergeCell ref="B1331:F1331"/>
-    <mergeCell ref="B1320:F1320"/>
-    <mergeCell ref="B1321:F1321"/>
-    <mergeCell ref="B1322:F1322"/>
-    <mergeCell ref="B1323:F1323"/>
-    <mergeCell ref="B1324:F1324"/>
-    <mergeCell ref="B1325:F1325"/>
-    <mergeCell ref="B1350:F1350"/>
-    <mergeCell ref="B1351:F1351"/>
-    <mergeCell ref="B1352:F1352"/>
-    <mergeCell ref="B1353:F1353"/>
-    <mergeCell ref="B1354:F1354"/>
-    <mergeCell ref="B1355:F1355"/>
-    <mergeCell ref="B1344:F1344"/>
-    <mergeCell ref="B1345:F1345"/>
-    <mergeCell ref="B1346:F1346"/>
-    <mergeCell ref="B1347:F1347"/>
-    <mergeCell ref="B1348:F1348"/>
-    <mergeCell ref="B1349:F1349"/>
-    <mergeCell ref="B1338:F1338"/>
-    <mergeCell ref="B1339:F1339"/>
-    <mergeCell ref="B1340:F1340"/>
-    <mergeCell ref="B1341:F1341"/>
-    <mergeCell ref="B1342:F1342"/>
-    <mergeCell ref="B1343:F1343"/>
-    <mergeCell ref="B1368:F1368"/>
-    <mergeCell ref="B1369:F1369"/>
-    <mergeCell ref="B1370:F1370"/>
-    <mergeCell ref="B1371:F1371"/>
-    <mergeCell ref="B1372:F1372"/>
-    <mergeCell ref="B1373:F1373"/>
-    <mergeCell ref="B1362:F1362"/>
-    <mergeCell ref="B1363:F1363"/>
-    <mergeCell ref="B1364:F1364"/>
-    <mergeCell ref="B1365:F1365"/>
-    <mergeCell ref="B1366:F1366"/>
-    <mergeCell ref="B1367:F1367"/>
-    <mergeCell ref="B1356:F1356"/>
-    <mergeCell ref="B1357:F1357"/>
-    <mergeCell ref="B1358:F1358"/>
-    <mergeCell ref="B1359:F1359"/>
-    <mergeCell ref="B1360:F1360"/>
-    <mergeCell ref="B1361:F1361"/>
-    <mergeCell ref="B1386:F1386"/>
-    <mergeCell ref="B1387:F1387"/>
-    <mergeCell ref="B1388:F1388"/>
-    <mergeCell ref="B1389:F1389"/>
-    <mergeCell ref="B1390:F1390"/>
-    <mergeCell ref="B1391:F1391"/>
-    <mergeCell ref="B1380:F1380"/>
-    <mergeCell ref="B1381:F1381"/>
-    <mergeCell ref="B1382:F1382"/>
-    <mergeCell ref="B1383:F1383"/>
-    <mergeCell ref="B1384:F1384"/>
-    <mergeCell ref="B1385:F1385"/>
-    <mergeCell ref="B1374:F1374"/>
-    <mergeCell ref="B1375:F1375"/>
-    <mergeCell ref="B1376:F1376"/>
-    <mergeCell ref="B1377:F1377"/>
-    <mergeCell ref="B1378:F1378"/>
-    <mergeCell ref="B1379:F1379"/>
-    <mergeCell ref="B1404:F1404"/>
-    <mergeCell ref="B1405:F1405"/>
-    <mergeCell ref="B1406:F1406"/>
-    <mergeCell ref="B1407:F1407"/>
-    <mergeCell ref="B1408:F1408"/>
-    <mergeCell ref="B1409:F1409"/>
-    <mergeCell ref="B1398:F1398"/>
-    <mergeCell ref="B1399:F1399"/>
-    <mergeCell ref="B1400:F1400"/>
-    <mergeCell ref="B1401:F1401"/>
-    <mergeCell ref="B1402:F1402"/>
-    <mergeCell ref="B1403:F1403"/>
-    <mergeCell ref="B1392:F1392"/>
-    <mergeCell ref="B1393:F1393"/>
-    <mergeCell ref="B1394:F1394"/>
-    <mergeCell ref="B1395:F1395"/>
-    <mergeCell ref="B1396:F1396"/>
-    <mergeCell ref="B1397:F1397"/>
-    <mergeCell ref="B1422:F1422"/>
-    <mergeCell ref="B1423:F1423"/>
-    <mergeCell ref="B1424:F1424"/>
-    <mergeCell ref="B1425:F1425"/>
-    <mergeCell ref="B1426:F1426"/>
-    <mergeCell ref="B1427:F1427"/>
-    <mergeCell ref="B1416:F1416"/>
-    <mergeCell ref="B1417:F1417"/>
-    <mergeCell ref="B1418:F1418"/>
-    <mergeCell ref="B1419:F1419"/>
-    <mergeCell ref="B1420:F1420"/>
-    <mergeCell ref="B1421:F1421"/>
-    <mergeCell ref="B1410:F1410"/>
-    <mergeCell ref="B1411:F1411"/>
-    <mergeCell ref="B1412:F1412"/>
-    <mergeCell ref="B1413:F1413"/>
-    <mergeCell ref="B1414:F1414"/>
-    <mergeCell ref="B1415:F1415"/>
-    <mergeCell ref="B1440:F1440"/>
-    <mergeCell ref="B1441:F1441"/>
-    <mergeCell ref="B1442:F1442"/>
-    <mergeCell ref="B1443:F1443"/>
-    <mergeCell ref="B1444:F1444"/>
-    <mergeCell ref="B1445:F1445"/>
-    <mergeCell ref="B1434:F1434"/>
-    <mergeCell ref="B1435:F1435"/>
-    <mergeCell ref="B1436:F1436"/>
-    <mergeCell ref="B1437:F1437"/>
-    <mergeCell ref="B1438:F1438"/>
-    <mergeCell ref="B1439:F1439"/>
-    <mergeCell ref="B1428:F1428"/>
-    <mergeCell ref="B1429:F1429"/>
-    <mergeCell ref="B1430:F1430"/>
-    <mergeCell ref="B1431:F1431"/>
-    <mergeCell ref="B1432:F1432"/>
-    <mergeCell ref="B1433:F1433"/>
-    <mergeCell ref="B1458:F1458"/>
-    <mergeCell ref="B1459:F1459"/>
-    <mergeCell ref="B1460:F1460"/>
-    <mergeCell ref="B1461:F1461"/>
-    <mergeCell ref="B1462:F1462"/>
-    <mergeCell ref="B1463:F1463"/>
-    <mergeCell ref="B1452:F1452"/>
-    <mergeCell ref="B1453:F1453"/>
-    <mergeCell ref="B1454:F1454"/>
-    <mergeCell ref="B1455:F1455"/>
-    <mergeCell ref="B1456:F1456"/>
-    <mergeCell ref="B1457:F1457"/>
-    <mergeCell ref="B1446:F1446"/>
-    <mergeCell ref="B1447:F1447"/>
-    <mergeCell ref="B1448:F1448"/>
-    <mergeCell ref="B1449:F1449"/>
-    <mergeCell ref="B1450:F1450"/>
-    <mergeCell ref="B1451:F1451"/>
-    <mergeCell ref="B1476:F1476"/>
-    <mergeCell ref="B1477:F1477"/>
-    <mergeCell ref="B1478:F1478"/>
-    <mergeCell ref="B1479:F1479"/>
-    <mergeCell ref="B1480:F1480"/>
-    <mergeCell ref="B1481:F1481"/>
-    <mergeCell ref="B1470:F1470"/>
-    <mergeCell ref="B1471:F1471"/>
-    <mergeCell ref="B1472:F1472"/>
-    <mergeCell ref="B1473:F1473"/>
-    <mergeCell ref="B1474:F1474"/>
-    <mergeCell ref="B1475:F1475"/>
-    <mergeCell ref="B1464:F1464"/>
-    <mergeCell ref="B1465:F1465"/>
-    <mergeCell ref="B1466:F1466"/>
-    <mergeCell ref="B1467:F1467"/>
-    <mergeCell ref="B1468:F1468"/>
-    <mergeCell ref="B1469:F1469"/>
-    <mergeCell ref="B1494:F1494"/>
-    <mergeCell ref="B1495:F1495"/>
-    <mergeCell ref="B1496:F1496"/>
-    <mergeCell ref="B1497:F1497"/>
-    <mergeCell ref="B1498:F1498"/>
-    <mergeCell ref="B1499:F1499"/>
-    <mergeCell ref="B1488:F1488"/>
-    <mergeCell ref="B1489:F1489"/>
-    <mergeCell ref="B1490:F1490"/>
-    <mergeCell ref="B1491:F1491"/>
-    <mergeCell ref="B1492:F1492"/>
-    <mergeCell ref="B1493:F1493"/>
-    <mergeCell ref="B1482:F1482"/>
-    <mergeCell ref="B1483:F1483"/>
-    <mergeCell ref="B1484:F1484"/>
-    <mergeCell ref="B1485:F1485"/>
-    <mergeCell ref="B1486:F1486"/>
-    <mergeCell ref="B1487:F1487"/>
-    <mergeCell ref="B1512:F1512"/>
-    <mergeCell ref="B1513:F1513"/>
-    <mergeCell ref="B1514:F1514"/>
-    <mergeCell ref="B1515:F1515"/>
-    <mergeCell ref="B1516:F1516"/>
-    <mergeCell ref="B1517:F1517"/>
-    <mergeCell ref="B1506:F1506"/>
-    <mergeCell ref="B1507:F1507"/>
-    <mergeCell ref="B1508:F1508"/>
-    <mergeCell ref="B1509:F1509"/>
-    <mergeCell ref="B1510:F1510"/>
-    <mergeCell ref="B1511:F1511"/>
-    <mergeCell ref="B1500:F1500"/>
-    <mergeCell ref="B1501:F1501"/>
-    <mergeCell ref="B1502:F1502"/>
-    <mergeCell ref="B1503:F1503"/>
-    <mergeCell ref="B1504:F1504"/>
-    <mergeCell ref="B1505:F1505"/>
-    <mergeCell ref="B1530:F1530"/>
-    <mergeCell ref="B1531:F1531"/>
-    <mergeCell ref="B1532:F1532"/>
-    <mergeCell ref="B1533:F1533"/>
-    <mergeCell ref="B1534:F1534"/>
-    <mergeCell ref="B1535:F1535"/>
-    <mergeCell ref="B1524:F1524"/>
-    <mergeCell ref="B1525:F1525"/>
-    <mergeCell ref="B1526:F1526"/>
-    <mergeCell ref="B1527:F1527"/>
-    <mergeCell ref="B1528:F1528"/>
-    <mergeCell ref="B1529:F1529"/>
-    <mergeCell ref="B1518:F1518"/>
-    <mergeCell ref="B1519:F1519"/>
-    <mergeCell ref="B1520:F1520"/>
-    <mergeCell ref="B1521:F1521"/>
-    <mergeCell ref="B1522:F1522"/>
-    <mergeCell ref="B1523:F1523"/>
-    <mergeCell ref="B1548:F1548"/>
-    <mergeCell ref="B1549:F1549"/>
-    <mergeCell ref="B1550:F1550"/>
-    <mergeCell ref="B1551:F1551"/>
-    <mergeCell ref="B1552:F1552"/>
-    <mergeCell ref="B1553:F1553"/>
-    <mergeCell ref="B1542:F1542"/>
-    <mergeCell ref="B1543:F1543"/>
-    <mergeCell ref="B1544:F1544"/>
-    <mergeCell ref="B1545:F1545"/>
-    <mergeCell ref="B1546:F1546"/>
-    <mergeCell ref="B1547:F1547"/>
-    <mergeCell ref="B1536:F1536"/>
-    <mergeCell ref="B1537:F1537"/>
-    <mergeCell ref="B1538:F1538"/>
-    <mergeCell ref="B1539:F1539"/>
-    <mergeCell ref="B1540:F1540"/>
-    <mergeCell ref="B1541:F1541"/>
-    <mergeCell ref="B1566:F1566"/>
-    <mergeCell ref="B1567:F1567"/>
-    <mergeCell ref="B1568:F1568"/>
-    <mergeCell ref="B1569:F1569"/>
-    <mergeCell ref="B1570:F1570"/>
-    <mergeCell ref="B1571:F1571"/>
-    <mergeCell ref="B1560:F1560"/>
-    <mergeCell ref="B1561:F1561"/>
-    <mergeCell ref="B1562:F1562"/>
-    <mergeCell ref="B1563:F1563"/>
-    <mergeCell ref="B1564:F1564"/>
-    <mergeCell ref="B1565:F1565"/>
-    <mergeCell ref="B1554:F1554"/>
-    <mergeCell ref="B1555:F1555"/>
-    <mergeCell ref="B1556:F1556"/>
-    <mergeCell ref="B1557:F1557"/>
-    <mergeCell ref="B1558:F1558"/>
-    <mergeCell ref="B1559:F1559"/>
-    <mergeCell ref="B1584:F1584"/>
-    <mergeCell ref="B1585:F1585"/>
-    <mergeCell ref="B1586:F1586"/>
-    <mergeCell ref="B1587:F1587"/>
-    <mergeCell ref="B1588:F1588"/>
-    <mergeCell ref="B1589:F1589"/>
-    <mergeCell ref="B1578:F1578"/>
-    <mergeCell ref="B1579:F1579"/>
-    <mergeCell ref="B1580:F1580"/>
-    <mergeCell ref="B1581:F1581"/>
-    <mergeCell ref="B1582:F1582"/>
-    <mergeCell ref="B1583:F1583"/>
-    <mergeCell ref="B1572:F1572"/>
-    <mergeCell ref="B1573:F1573"/>
-    <mergeCell ref="B1574:F1574"/>
-    <mergeCell ref="B1575:F1575"/>
-    <mergeCell ref="B1576:F1576"/>
-    <mergeCell ref="B1577:F1577"/>
-    <mergeCell ref="B1602:F1602"/>
-    <mergeCell ref="B1603:F1603"/>
-    <mergeCell ref="B1604:F1604"/>
-    <mergeCell ref="B1605:F1605"/>
-    <mergeCell ref="B1606:F1606"/>
-    <mergeCell ref="B1607:F1607"/>
-    <mergeCell ref="B1596:F1596"/>
-    <mergeCell ref="B1597:F1597"/>
-    <mergeCell ref="B1598:F1598"/>
-    <mergeCell ref="B1599:F1599"/>
-    <mergeCell ref="B1600:F1600"/>
-    <mergeCell ref="B1601:F1601"/>
-    <mergeCell ref="B1590:F1590"/>
-    <mergeCell ref="B1591:F1591"/>
-    <mergeCell ref="B1592:F1592"/>
-    <mergeCell ref="B1593:F1593"/>
-    <mergeCell ref="B1594:F1594"/>
-    <mergeCell ref="B1595:F1595"/>
-    <mergeCell ref="B1620:F1620"/>
-    <mergeCell ref="B1621:F1621"/>
-    <mergeCell ref="B1622:F1622"/>
-    <mergeCell ref="B1623:F1623"/>
-    <mergeCell ref="B1624:F1624"/>
-    <mergeCell ref="B1625:F1625"/>
-    <mergeCell ref="B1614:F1614"/>
-    <mergeCell ref="B1615:F1615"/>
-    <mergeCell ref="B1616:F1616"/>
-    <mergeCell ref="B1617:F1617"/>
-    <mergeCell ref="B1618:F1618"/>
-    <mergeCell ref="B1619:F1619"/>
-    <mergeCell ref="B1608:F1608"/>
-    <mergeCell ref="B1609:F1609"/>
-    <mergeCell ref="B1610:F1610"/>
-    <mergeCell ref="B1611:F1611"/>
-    <mergeCell ref="B1612:F1612"/>
-    <mergeCell ref="B1613:F1613"/>
-    <mergeCell ref="B1638:F1638"/>
-    <mergeCell ref="B1639:F1639"/>
-    <mergeCell ref="B1640:F1640"/>
-    <mergeCell ref="B1641:F1641"/>
-    <mergeCell ref="B1642:F1642"/>
-    <mergeCell ref="B1643:F1643"/>
-    <mergeCell ref="B1632:F1632"/>
-    <mergeCell ref="B1633:F1633"/>
-    <mergeCell ref="B1634:F1634"/>
-    <mergeCell ref="B1635:F1635"/>
-    <mergeCell ref="B1636:F1636"/>
-    <mergeCell ref="B1637:F1637"/>
-    <mergeCell ref="B1626:F1626"/>
-    <mergeCell ref="B1627:F1627"/>
-    <mergeCell ref="B1628:F1628"/>
-    <mergeCell ref="B1629:F1629"/>
-    <mergeCell ref="B1630:F1630"/>
-    <mergeCell ref="B1631:F1631"/>
-    <mergeCell ref="B1656:F1656"/>
-    <mergeCell ref="B1657:F1657"/>
-    <mergeCell ref="B1658:F1658"/>
-    <mergeCell ref="B1659:F1659"/>
-    <mergeCell ref="B1660:F1660"/>
-    <mergeCell ref="B1661:F1661"/>
-    <mergeCell ref="B1650:F1650"/>
-    <mergeCell ref="B1651:F1651"/>
-    <mergeCell ref="B1652:F1652"/>
-    <mergeCell ref="B1653:F1653"/>
-    <mergeCell ref="B1654:F1654"/>
-    <mergeCell ref="B1655:F1655"/>
-    <mergeCell ref="B1644:F1644"/>
-    <mergeCell ref="B1645:F1645"/>
-    <mergeCell ref="B1646:F1646"/>
-    <mergeCell ref="B1647:F1647"/>
-    <mergeCell ref="B1648:F1648"/>
-    <mergeCell ref="B1649:F1649"/>
-    <mergeCell ref="B1674:F1674"/>
-    <mergeCell ref="B1675:F1675"/>
-    <mergeCell ref="B1676:F1676"/>
-    <mergeCell ref="B1677:F1677"/>
-    <mergeCell ref="B1678:F1678"/>
-    <mergeCell ref="B1679:F1679"/>
-    <mergeCell ref="B1668:F1668"/>
-    <mergeCell ref="B1669:F1669"/>
-    <mergeCell ref="B1670:F1670"/>
-    <mergeCell ref="B1671:F1671"/>
-    <mergeCell ref="B1672:F1672"/>
-    <mergeCell ref="B1673:F1673"/>
-    <mergeCell ref="B1662:F1662"/>
-    <mergeCell ref="B1663:F1663"/>
-    <mergeCell ref="B1664:F1664"/>
-    <mergeCell ref="B1665:F1665"/>
-    <mergeCell ref="B1666:F1666"/>
-    <mergeCell ref="B1667:F1667"/>
-    <mergeCell ref="B1692:F1692"/>
-    <mergeCell ref="B1693:F1693"/>
-    <mergeCell ref="B1694:F1694"/>
-    <mergeCell ref="B1695:F1695"/>
-    <mergeCell ref="B1696:F1696"/>
-    <mergeCell ref="B1697:F1697"/>
-    <mergeCell ref="B1686:F1686"/>
-    <mergeCell ref="B1687:F1687"/>
-    <mergeCell ref="B1688:F1688"/>
-    <mergeCell ref="B1689:F1689"/>
-    <mergeCell ref="B1690:F1690"/>
-    <mergeCell ref="B1691:F1691"/>
-    <mergeCell ref="B1680:F1680"/>
-    <mergeCell ref="B1681:F1681"/>
-    <mergeCell ref="B1682:F1682"/>
-    <mergeCell ref="B1683:F1683"/>
-    <mergeCell ref="B1684:F1684"/>
-    <mergeCell ref="B1685:F1685"/>
-    <mergeCell ref="B1710:F1710"/>
-    <mergeCell ref="B1711:F1711"/>
-    <mergeCell ref="B1712:F1712"/>
-    <mergeCell ref="B1713:F1713"/>
-    <mergeCell ref="B1714:F1714"/>
-    <mergeCell ref="B1715:F1715"/>
-    <mergeCell ref="B1704:F1704"/>
-    <mergeCell ref="B1705:F1705"/>
-    <mergeCell ref="B1706:F1706"/>
-    <mergeCell ref="B1707:F1707"/>
-    <mergeCell ref="B1708:F1708"/>
-    <mergeCell ref="B1709:F1709"/>
-    <mergeCell ref="B1698:F1698"/>
-    <mergeCell ref="B1699:F1699"/>
-    <mergeCell ref="B1700:F1700"/>
-    <mergeCell ref="B1701:F1701"/>
-    <mergeCell ref="B1702:F1702"/>
-    <mergeCell ref="B1703:F1703"/>
-    <mergeCell ref="B1728:F1728"/>
-    <mergeCell ref="B1729:F1729"/>
-    <mergeCell ref="B1730:F1730"/>
-    <mergeCell ref="B1731:F1731"/>
-    <mergeCell ref="B1732:F1732"/>
-    <mergeCell ref="B1733:F1733"/>
-    <mergeCell ref="B1722:F1722"/>
-    <mergeCell ref="B1723:F1723"/>
-    <mergeCell ref="B1724:F1724"/>
-    <mergeCell ref="B1725:F1725"/>
-    <mergeCell ref="B1726:F1726"/>
-    <mergeCell ref="B1727:F1727"/>
-    <mergeCell ref="B1716:F1716"/>
-    <mergeCell ref="B1717:F1717"/>
-    <mergeCell ref="B1718:F1718"/>
-    <mergeCell ref="B1719:F1719"/>
-    <mergeCell ref="B1720:F1720"/>
-    <mergeCell ref="B1721:F1721"/>
-    <mergeCell ref="B1746:F1746"/>
-    <mergeCell ref="B1747:F1747"/>
-    <mergeCell ref="B1748:F1748"/>
-    <mergeCell ref="B1749:F1749"/>
-    <mergeCell ref="B1750:F1750"/>
-    <mergeCell ref="B1751:F1751"/>
-    <mergeCell ref="B1740:F1740"/>
-    <mergeCell ref="B1741:F1741"/>
-    <mergeCell ref="B1742:F1742"/>
-    <mergeCell ref="B1743:F1743"/>
-    <mergeCell ref="B1744:F1744"/>
-    <mergeCell ref="B1745:F1745"/>
-    <mergeCell ref="B1734:F1734"/>
-    <mergeCell ref="B1735:F1735"/>
-    <mergeCell ref="B1736:F1736"/>
-    <mergeCell ref="B1737:F1737"/>
-    <mergeCell ref="B1738:F1738"/>
-    <mergeCell ref="B1739:F1739"/>
-    <mergeCell ref="B1764:F1764"/>
-    <mergeCell ref="B1765:F1765"/>
-    <mergeCell ref="B1766:F1766"/>
-    <mergeCell ref="B1767:F1767"/>
-    <mergeCell ref="B1768:F1768"/>
-    <mergeCell ref="B1769:F1769"/>
-    <mergeCell ref="B1758:F1758"/>
-    <mergeCell ref="B1759:F1759"/>
-    <mergeCell ref="B1760:F1760"/>
-    <mergeCell ref="B1761:F1761"/>
-    <mergeCell ref="B1762:F1762"/>
-    <mergeCell ref="B1763:F1763"/>
-    <mergeCell ref="B1752:F1752"/>
-    <mergeCell ref="B1753:F1753"/>
-    <mergeCell ref="B1754:F1754"/>
-    <mergeCell ref="B1755:F1755"/>
-    <mergeCell ref="B1756:F1756"/>
-    <mergeCell ref="B1757:F1757"/>
-    <mergeCell ref="B1782:F1782"/>
-    <mergeCell ref="B1783:F1783"/>
-    <mergeCell ref="B1784:F1784"/>
-    <mergeCell ref="B1785:F1785"/>
-    <mergeCell ref="B1786:F1786"/>
-    <mergeCell ref="B1787:F1787"/>
-    <mergeCell ref="B1776:F1776"/>
-    <mergeCell ref="B1777:F1777"/>
-    <mergeCell ref="B1778:F1778"/>
-    <mergeCell ref="B1779:F1779"/>
-    <mergeCell ref="B1780:F1780"/>
-    <mergeCell ref="B1781:F1781"/>
-    <mergeCell ref="B1770:F1770"/>
-    <mergeCell ref="B1771:F1771"/>
-    <mergeCell ref="B1772:F1772"/>
-    <mergeCell ref="B1773:F1773"/>
-    <mergeCell ref="B1774:F1774"/>
-    <mergeCell ref="B1775:F1775"/>
-    <mergeCell ref="B1800:F1800"/>
-    <mergeCell ref="B1801:F1801"/>
-    <mergeCell ref="B1802:F1802"/>
-    <mergeCell ref="B1803:F1803"/>
-    <mergeCell ref="B1804:F1804"/>
-    <mergeCell ref="B1805:F1805"/>
-    <mergeCell ref="B1794:F1794"/>
-    <mergeCell ref="B1795:F1795"/>
-    <mergeCell ref="B1796:F1796"/>
-    <mergeCell ref="B1797:F1797"/>
-    <mergeCell ref="B1798:F1798"/>
-    <mergeCell ref="B1799:F1799"/>
-    <mergeCell ref="B1788:F1788"/>
-    <mergeCell ref="B1789:F1789"/>
-    <mergeCell ref="B1790:F1790"/>
-    <mergeCell ref="B1791:F1791"/>
-    <mergeCell ref="B1792:F1792"/>
-    <mergeCell ref="B1793:F1793"/>
-    <mergeCell ref="B1818:F1818"/>
-    <mergeCell ref="B1819:F1819"/>
-    <mergeCell ref="B1820:F1820"/>
-    <mergeCell ref="B1821:F1821"/>
-    <mergeCell ref="B1822:F1822"/>
-    <mergeCell ref="B1823:F1823"/>
-    <mergeCell ref="B1812:F1812"/>
-    <mergeCell ref="B1813:F1813"/>
-    <mergeCell ref="B1814:F1814"/>
-    <mergeCell ref="B1815:F1815"/>
-    <mergeCell ref="B1816:F1816"/>
-    <mergeCell ref="B1817:F1817"/>
-    <mergeCell ref="B1806:F1806"/>
-    <mergeCell ref="B1807:F1807"/>
-    <mergeCell ref="B1808:F1808"/>
-    <mergeCell ref="B1809:F1809"/>
-    <mergeCell ref="B1810:F1810"/>
-    <mergeCell ref="B1811:F1811"/>
-    <mergeCell ref="B1836:F1836"/>
-    <mergeCell ref="B1837:F1837"/>
-    <mergeCell ref="B1838:F1838"/>
-    <mergeCell ref="B1839:F1839"/>
-    <mergeCell ref="B1840:F1840"/>
-    <mergeCell ref="B1841:F1841"/>
-    <mergeCell ref="B1830:F1830"/>
-    <mergeCell ref="B1831:F1831"/>
-    <mergeCell ref="B1832:F1832"/>
-    <mergeCell ref="B1833:F1833"/>
-    <mergeCell ref="B1834:F1834"/>
-    <mergeCell ref="B1835:F1835"/>
-    <mergeCell ref="B1824:F1824"/>
-    <mergeCell ref="B1825:F1825"/>
-    <mergeCell ref="B1826:F1826"/>
-    <mergeCell ref="B1827:F1827"/>
-    <mergeCell ref="B1828:F1828"/>
-    <mergeCell ref="B1829:F1829"/>
-    <mergeCell ref="B1854:F1854"/>
-    <mergeCell ref="B1855:F1855"/>
-    <mergeCell ref="B1856:F1856"/>
-    <mergeCell ref="B1857:F1857"/>
-    <mergeCell ref="B1858:F1858"/>
-    <mergeCell ref="B1859:F1859"/>
-    <mergeCell ref="B1848:F1848"/>
-    <mergeCell ref="B1849:F1849"/>
-    <mergeCell ref="B1850:F1850"/>
-    <mergeCell ref="B1851:F1851"/>
-    <mergeCell ref="B1852:F1852"/>
-    <mergeCell ref="B1853:F1853"/>
-    <mergeCell ref="B1842:F1842"/>
-    <mergeCell ref="B1843:F1843"/>
-    <mergeCell ref="B1844:F1844"/>
-    <mergeCell ref="B1845:F1845"/>
-    <mergeCell ref="B1846:F1846"/>
-    <mergeCell ref="B1847:F1847"/>
-    <mergeCell ref="B1872:F1872"/>
-    <mergeCell ref="B1873:F1873"/>
-    <mergeCell ref="B1874:F1874"/>
-    <mergeCell ref="B1875:F1875"/>
-    <mergeCell ref="B1876:F1876"/>
-    <mergeCell ref="B1877:F1877"/>
-    <mergeCell ref="B1866:F1866"/>
-    <mergeCell ref="B1867:F1867"/>
-    <mergeCell ref="B1868:F1868"/>
-    <mergeCell ref="B1869:F1869"/>
-    <mergeCell ref="B1870:F1870"/>
-    <mergeCell ref="B1871:F1871"/>
-    <mergeCell ref="B1860:F1860"/>
-    <mergeCell ref="B1861:F1861"/>
-    <mergeCell ref="B1862:F1862"/>
-  